--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -483,35 +484,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004</v>
+        <v>12.32400318979267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006666666666666666</v>
+        <v>10.30823643566678</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>1.575767912755327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.8837352411906336</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002581988897471612</v>
+        <v>1.355567944041469</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.028571428571428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>13.21212121212121</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="3">
@@ -521,983 +522,983 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008</v>
+        <v>0.1001860712387028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.03882712587046953</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>1.567886118096436</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.03983455584084358</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003518657752744985</v>
+        <v>0.02987424200100699</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_threat_per_match</t>
+          <t>count_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008</v>
+        <v>8.560180754917598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002666666666666667</v>
+        <v>5.487692351113404</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1.518366963898488</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00447213595499958</v>
+        <v>2.652471556075722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004577377082170635</v>
+        <v>1.13769939141661</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.184210526315789</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01</v>
+        <v>11.57575757575758</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>7.684210526315789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
+          <t>count_coming_short_runs_in_sample</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004</v>
+        <v>24.50361509835194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001333333333333333</v>
+        <v>17.93954884902253</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1.488729472253707</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005477225575051661</v>
+        <v>4.570415882513085</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003518657752744985</v>
+        <v>2.960370400683118</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.02941176470588</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01</v>
+        <v>30.19444444444444</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01</v>
+        <v>22.89473684210526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_received_per_match</t>
+          <t>count_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002</v>
+        <v>24.50361509835194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006666666666666666</v>
+        <v>17.93954884902253</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1.488729472253707</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00447213595499958</v>
+        <v>4.570415882513085</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002581988897471612</v>
+        <v>2.960370400683118</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11.02941176470588</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01</v>
+        <v>30.19444444444444</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01</v>
+        <v>22.89473684210526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004</v>
+        <v>9.171398192450825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002</v>
+        <v>6.149956647696587</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1.483814047114972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005477225575051661</v>
+        <v>2.602371309465704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004140393356054125</v>
+        <v>1.198023267523639</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5.842105263157895</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4.029411764705882</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01</v>
+        <v>12.09090909090909</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01</v>
+        <v>8.315789473684211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008</v>
+        <v>0.07531818181818181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004666666666666667</v>
+        <v>0.05436077565845367</v>
       </c>
       <c r="D8" t="n">
-        <v>1.714285714285714</v>
+        <v>1.479840308245241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008366600265340755</v>
+        <v>0.01312691955729396</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005163977794943223</v>
+        <v>0.01147101625261137</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.05736842105263158</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02</v>
+        <v>0.09242424242424242</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01</v>
+        <v>0.06972972972972973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_goal_per_match</t>
+          <t>dropping_off_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01</v>
+        <v>0.003312068048910154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005999999999999999</v>
+        <v>0.001734415354693992</v>
       </c>
       <c r="D9" t="n">
-        <v>1.666666666666667</v>
+        <v>1.42120464379376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007071067811865475</v>
+        <v>0.0007287627243812491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006324555320336759</v>
+        <v>0.0008949722167669929</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.0005882352941176471</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02</v>
+        <v>0.004210526315789474</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02</v>
+        <v>0.003947368421052632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>coming_short_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01</v>
+        <v>0.02431791600212653</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006000000000000001</v>
+        <v>0.01608670255837439</v>
       </c>
       <c r="D10" t="n">
-        <v>1.666666666666667</v>
+        <v>1.413173051488392</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.007515940525826897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007367883976130072</v>
+        <v>0.004093864668133211</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01</v>
+        <v>0.01605263157894737</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.009705882352941177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01</v>
+        <v>0.03363636363636364</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02</v>
+        <v>0.02162162162162162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
+          <t>runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004</v>
+        <v>0.8037418926103136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006666666666666666</v>
+        <v>0.6963516913470474</v>
       </c>
       <c r="D11" t="n">
-        <v>1.666666666666667</v>
+        <v>1.410847672121957</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.09090443698623195</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006172133998483677</v>
+        <v>0.07029692593857022</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.5602857142857143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>0.916969696969697</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02</v>
+        <v>0.8616666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_received_per_match</t>
+          <t>count_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.032</v>
+        <v>5.306406166932483</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01933333333333333</v>
+        <v>3.687351523435116</v>
       </c>
       <c r="D12" t="n">
-        <v>1.655172413793103</v>
+        <v>1.405143417696269</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0130384048104053</v>
+        <v>1.346327977834414</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007037315505489967</v>
+        <v>0.7596541474994526</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02</v>
+        <v>3.552631578947369</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01</v>
+        <v>1.794117647058824</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05</v>
+        <v>7.052631578947368</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03</v>
+        <v>4.861111111111111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_targeted_per_match</t>
+          <t>count_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05399999999999999</v>
+        <v>6.410127591706539</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03266666666666667</v>
+        <v>4.920358627262652</v>
       </c>
       <c r="D13" t="n">
-        <v>1.653061224489796</v>
+        <v>1.384237085917243</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01816590212458495</v>
+        <v>0.3355875639791827</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009611501047232551</v>
+        <v>0.905050512448931</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>3.115384615384615</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05</v>
+        <v>7.026315789473684</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.018</v>
+        <v>5.331100478468899</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01133333333333333</v>
+        <v>3.608624054599288</v>
       </c>
       <c r="D14" t="n">
-        <v>1.588235294117647</v>
+        <v>1.358951400495347</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0130384048104053</v>
+        <v>1.014313017392277</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007432233529572065</v>
+        <v>1.023821040599664</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.294117647058823</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03</v>
+        <v>6.694444444444445</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03</v>
+        <v>6.789473684210527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_received_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6519999999999999</v>
+        <v>5.512945241892611</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4139999999999999</v>
+        <v>3.74797333328293</v>
       </c>
       <c r="D15" t="n">
-        <v>1.57487922705314</v>
+        <v>1.357778622892022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1907092027144993</v>
+        <v>1.073892963302407</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08296298658351893</v>
+        <v>1.03542807111313</v>
       </c>
       <c r="G15" t="n">
-        <v>0.41</v>
+        <v>4.472222222222222</v>
       </c>
       <c r="H15" t="n">
-        <v>0.26</v>
+        <v>2.441176470588236</v>
       </c>
       <c r="I15" t="n">
-        <v>0.87</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.57</v>
+        <v>6.973684210526316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_shot_per_match</t>
+          <t>coming_short_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.044</v>
+        <v>0.02078468899521531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02866666666666667</v>
+        <v>0.01320592382604767</v>
       </c>
       <c r="D16" t="n">
-        <v>1.534883720930232</v>
+        <v>1.351374641624839</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01140175425099138</v>
+        <v>0.008069903828416306</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01245945806357946</v>
+        <v>0.003881906688473754</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03</v>
+        <v>0.01131578947368421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.007647058823529412</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06</v>
+        <v>0.03181818181818182</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05</v>
+        <v>0.01810810810810811</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.014</v>
+        <v>3.101887293992557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009333333333333332</v>
+        <v>2.591828157725991</v>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>1.322507357098355</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.496537503922399</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008837151016885368</v>
+        <v>0.3806821816503352</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.742857142857143</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_threat_per_match</t>
+          <t>overlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01</v>
+        <v>0.06832987772461456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006666666666666666</v>
+        <v>0.04922976724044836</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5</v>
+        <v>1.321852376819392</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.01663307124078225</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004879500364742666</v>
+        <v>0.01199298329049368</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01</v>
+        <v>0.04421052631578947</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.02441176470588235</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01</v>
+        <v>0.08973684210526316</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01</v>
+        <v>0.0668421052631579</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.008</v>
+        <v>2.138649654439128</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005333333333333332</v>
+        <v>1.731347036997192</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5</v>
+        <v>1.321748636404186</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.3744843931648684</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005163977794943223</v>
+        <v>0.3421183628812165</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.085714285714286</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01</v>
+        <v>2.527777777777778</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01</v>
+        <v>2.541666666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_shot_per_match</t>
+          <t>count_dropping_off_runs_in_sample</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.016</v>
+        <v>13.16629452418926</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01066666666666666</v>
+        <v>9.306483239610175</v>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>1.319374439047183</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008944271909999158</v>
+        <v>2.35979705714161</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007988086367179802</v>
+        <v>2.390773760386371</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>11.13888888888889</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.941176470588236</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02</v>
+        <v>16.39473684210526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_targeted_per_match</t>
+          <t>count_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.696</v>
+        <v>13.16629452418926</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4646666666666666</v>
+        <v>9.306483239610175</v>
       </c>
       <c r="D21" t="n">
-        <v>1.497847919655667</v>
+        <v>1.319374439047183</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1876965636339675</v>
+        <v>2.35979705714161</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08692087260973681</v>
+        <v>2.390773760386371</v>
       </c>
       <c r="G21" t="n">
-        <v>0.46</v>
+        <v>11.13888888888889</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3</v>
+        <v>6.941176470588236</v>
       </c>
       <c r="I21" t="n">
-        <v>0.91</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>0.62</v>
+        <v>16.39473684210526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>count_dangerous_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.408</v>
+        <v>0.6807549175970229</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2726666666666667</v>
+        <v>0.426165852342323</v>
       </c>
       <c r="D22" t="n">
-        <v>1.496332518337408</v>
+        <v>1.31194538434255</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07463243262818116</v>
+        <v>0.2649995267364523</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07535313688291442</v>
+        <v>0.1303851363465402</v>
       </c>
       <c r="G22" t="n">
-        <v>0.32</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I22" t="n">
-        <v>0.49</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.422</v>
+        <v>4.144843168527379</v>
       </c>
       <c r="C23" t="n">
-        <v>0.284</v>
+        <v>2.933178155190539</v>
       </c>
       <c r="D23" t="n">
-        <v>1.485915492957747</v>
+        <v>1.30026584101856</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08043631020876081</v>
+        <v>1.256242769639731</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0773489311035204</v>
+        <v>0.6216883444705902</v>
       </c>
       <c r="G23" t="n">
-        <v>0.33</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="H23" t="n">
-        <v>0.18</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="I23" t="n">
-        <v>0.52</v>
+        <v>5.763157894736842</v>
       </c>
       <c r="J23" t="n">
-        <v>0.52</v>
+        <v>3.763157894736842</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_in_sample</t>
+          <t>runs_in_behind_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>477</v>
+        <v>0.3566004784688995</v>
       </c>
       <c r="C24" t="n">
-        <v>323.1333333333333</v>
+        <v>0.2834167920088973</v>
       </c>
       <c r="D24" t="n">
-        <v>1.476170827315866</v>
+        <v>1.298736390778227</v>
       </c>
       <c r="E24" t="n">
-        <v>91.07963548455824</v>
+        <v>0.05298306553535625</v>
       </c>
       <c r="F24" t="n">
-        <v>103.5256121979116</v>
+        <v>0.04672825205031984</v>
       </c>
       <c r="G24" t="n">
-        <v>397</v>
+        <v>0.3081578947368421</v>
       </c>
       <c r="H24" t="n">
-        <v>200</v>
+        <v>0.2146153846153846</v>
       </c>
       <c r="I24" t="n">
-        <v>615</v>
+        <v>0.4384848484848485</v>
       </c>
       <c r="J24" t="n">
-        <v>623</v>
+        <v>0.3766666666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_targeted_per_match</t>
+          <t>dropping_off_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.406</v>
+        <v>0.002874269005847954</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2793333333333334</v>
+        <v>0.001468633392008005</v>
       </c>
       <c r="D25" t="n">
-        <v>1.45346062052506</v>
+        <v>1.297973498378227</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1080740486888504</v>
+        <v>0.001009809619684448</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05897537823613543</v>
+        <v>0.0008775390295247377</v>
       </c>
       <c r="G25" t="n">
-        <v>0.28</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.004210526315789474</v>
       </c>
       <c r="J25" t="n">
-        <v>0.38</v>
+        <v>0.003157894736842105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_received_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.318</v>
+        <v>16.50730994152047</v>
       </c>
       <c r="C26" t="n">
-        <v>0.222</v>
+        <v>13.28756810632972</v>
       </c>
       <c r="D26" t="n">
-        <v>1.432432432432432</v>
+        <v>1.297724495616967</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09959919678390987</v>
+        <v>0.9806781722398074</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04723799923185328</v>
+        <v>2.108957235659546</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1</v>
+        <v>9.076923076923077</v>
       </c>
       <c r="I26" t="n">
-        <v>0.46</v>
+        <v>17.60526315789474</v>
       </c>
       <c r="J26" t="n">
-        <v>0.28</v>
+        <v>17.47368421052632</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_per_match</t>
+          <t>count_pulling_wide_runs_in_sample</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.006</v>
+        <v>16.50730994152047</v>
       </c>
       <c r="C27" t="n">
-        <v>0.704</v>
+        <v>13.28756810632972</v>
       </c>
       <c r="D27" t="n">
-        <v>1.428977272727273</v>
+        <v>1.297724495616967</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1721336689901194</v>
+        <v>0.9806781722398074</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1776754665916807</v>
+        <v>2.108957235659546</v>
       </c>
       <c r="G27" t="n">
-        <v>0.82</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>0.52</v>
+        <v>9.076923076923077</v>
       </c>
       <c r="I27" t="n">
-        <v>1.26</v>
+        <v>17.60526315789474</v>
       </c>
       <c r="J27" t="n">
-        <v>1.22</v>
+        <v>17.47368421052632</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_received_per_match</t>
+          <t>count_dangerous_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.096</v>
+        <v>0.4093301435406699</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06733333333333334</v>
+        <v>0.2514542520270075</v>
       </c>
       <c r="D28" t="n">
-        <v>1.425742574257426</v>
+        <v>1.291299612301995</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04505552130427524</v>
+        <v>0.1726452360249429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02463060426921489</v>
+        <v>0.08415192280206442</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I28" t="n">
-        <v>0.15</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="J28" t="n">
-        <v>0.14</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_in_sample</t>
+          <t>underlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>882.6</v>
+        <v>0.0255571504518873</v>
       </c>
       <c r="C29" t="n">
-        <v>620.8666666666667</v>
+        <v>0.01598727204563118</v>
       </c>
       <c r="D29" t="n">
-        <v>1.421561258455922</v>
+        <v>1.28869995416429</v>
       </c>
       <c r="E29" t="n">
-        <v>143.1652890892202</v>
+        <v>0.01000049028505908</v>
       </c>
       <c r="F29" t="n">
-        <v>141.2459186093868</v>
+        <v>0.005462924305397619</v>
       </c>
       <c r="G29" t="n">
-        <v>720</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="H29" t="n">
-        <v>375</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="I29" t="n">
-        <v>1087</v>
+        <v>0.03631578947368421</v>
       </c>
       <c r="J29" t="n">
-        <v>870</v>
+        <v>0.03026315789473684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.018</v>
+        <v>0.1607852206273259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01266666666666667</v>
+        <v>0.1188163248081205</v>
       </c>
       <c r="D30" t="n">
-        <v>1.421052631578947</v>
+        <v>1.278670185585983</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008366600265340755</v>
+        <v>0.04356011234554403</v>
       </c>
       <c r="F30" t="n">
-        <v>0.007037315505489968</v>
+        <v>0.02483513913945386</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.07294117647058823</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03</v>
+        <v>0.2136842105263158</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_targeted_per_match</t>
+          <t>underlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.06</v>
+        <v>0.03962573099415204</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04266666666666667</v>
+        <v>0.02572860014949798</v>
       </c>
       <c r="D31" t="n">
-        <v>1.40625</v>
+        <v>1.270604997937704</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01414213562373095</v>
+        <v>0.01503091285315039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01279880946844369</v>
+        <v>0.007259701227214273</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04</v>
+        <v>0.02578947368421053</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02</v>
+        <v>0.0175</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05789473684210527</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="32">
@@ -1507,915 +1508,915 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.6</v>
+        <v>11.69250398724083</v>
       </c>
       <c r="C32" t="n">
-        <v>303.2</v>
+        <v>8.761812459382121</v>
       </c>
       <c r="D32" t="n">
-        <v>1.393799472295515</v>
+        <v>1.266402699645797</v>
       </c>
       <c r="E32" t="n">
-        <v>109.6006386842705</v>
+        <v>2.928939166341292</v>
       </c>
       <c r="F32" t="n">
-        <v>73.81172961373706</v>
+        <v>1.651226374042005</v>
       </c>
       <c r="G32" t="n">
-        <v>295</v>
+        <v>7.763157894736842</v>
       </c>
       <c r="H32" t="n">
-        <v>168</v>
+        <v>4.941176470588236</v>
       </c>
       <c r="I32" t="n">
-        <v>577</v>
+        <v>15.18421052631579</v>
       </c>
       <c r="J32" t="n">
-        <v>424</v>
+        <v>11.1578947368421</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05</v>
+        <v>11.69250398724083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.036</v>
+        <v>8.761812459382121</v>
       </c>
       <c r="D33" t="n">
-        <v>1.388888888888889</v>
+        <v>1.266402699645797</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0158113883008419</v>
+        <v>2.928939166341292</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01298350602000201</v>
+        <v>1.651226374042005</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03</v>
+        <v>7.763157894736842</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02</v>
+        <v>4.941176470588236</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07000000000000001</v>
+        <v>15.18421052631579</v>
       </c>
       <c r="J33" t="n">
-        <v>0.06</v>
+        <v>11.1578947368421</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_per_match</t>
+          <t>runs_in_behind_received_threat_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.148</v>
+        <v>0.1696780967570441</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.1287060918742033</v>
       </c>
       <c r="D34" t="n">
-        <v>1.3875</v>
+        <v>1.263488008173553</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04658325879540846</v>
+        <v>0.03127567638187542</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02468853599393471</v>
+        <v>0.02658943881130216</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08</v>
+        <v>0.1352631578947368</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08756756756756758</v>
       </c>
       <c r="I34" t="n">
-        <v>0.19</v>
+        <v>0.2112121212121212</v>
       </c>
       <c r="J34" t="n">
-        <v>0.14</v>
+        <v>0.1845945945945946</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_targeted_per_match</t>
+          <t>overlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.146</v>
+        <v>0.05345746943115363</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1053333333333333</v>
+        <v>0.03867211120554773</v>
       </c>
       <c r="D35" t="n">
-        <v>1.386075949367088</v>
+        <v>1.246873211509887</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05983310120660637</v>
+        <v>0.01489434182720722</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03204163957519444</v>
+        <v>0.01018163100257339</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09</v>
+        <v>0.03210526315789473</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01676470588235294</v>
       </c>
       <c r="I35" t="n">
-        <v>0.22</v>
+        <v>0.07263157894736842</v>
       </c>
       <c r="J35" t="n">
-        <v>0.18</v>
+        <v>0.05470588235294118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_per_match</t>
+          <t>count_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.87</v>
+        <v>17.22105263157895</v>
       </c>
       <c r="C36" t="n">
-        <v>1.356666666666667</v>
+        <v>14.79164368634957</v>
       </c>
       <c r="D36" t="n">
-        <v>1.378378378378378</v>
+        <v>1.236387353929605</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3134485603731496</v>
+        <v>2.254802005360134</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2181960673557702</v>
+        <v>1.708350787195889</v>
       </c>
       <c r="G36" t="n">
-        <v>1.51</v>
+        <v>14.36111111111111</v>
       </c>
       <c r="H36" t="n">
-        <v>0.83</v>
+        <v>12.38235294117647</v>
       </c>
       <c r="I36" t="n">
-        <v>2.23</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="J36" t="n">
-        <v>1.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_per_match</t>
+          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8960000000000001</v>
+        <v>0.1676294524189261</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6639999999999998</v>
+        <v>0.1360603000220647</v>
       </c>
       <c r="D37" t="n">
-        <v>1.349397590361446</v>
+        <v>1.235774278266061</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2322283359110167</v>
+        <v>0.03816570003531523</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1264798120537141</v>
+        <v>0.0226078902623752</v>
       </c>
       <c r="G37" t="n">
-        <v>0.62</v>
+        <v>0.1244736842105263</v>
       </c>
       <c r="H37" t="n">
-        <v>0.37</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="I37" t="n">
-        <v>1.21</v>
+        <v>0.213030303030303</v>
       </c>
       <c r="J37" t="n">
-        <v>0.83</v>
+        <v>0.18125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_received_per_match</t>
+          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.042</v>
+        <v>0.2331557682083998</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03133333333333333</v>
+        <v>0.1946773425383332</v>
       </c>
       <c r="D38" t="n">
-        <v>1.340425531914894</v>
+        <v>1.234864553604073</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01095445115010332</v>
+        <v>0.04330980463800206</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009904304018720249</v>
+        <v>0.02587580795435582</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03</v>
+        <v>0.1876315789473684</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02</v>
+        <v>0.1368571428571429</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05</v>
+        <v>0.2796969696969697</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05</v>
+        <v>0.2410526315789474</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_per_match</t>
+          <t>count_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.122</v>
+        <v>7.180834662413609</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09133333333333334</v>
+        <v>5.836044203118505</v>
       </c>
       <c r="D39" t="n">
-        <v>1.335766423357664</v>
+        <v>1.229457314792463</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05674504383644443</v>
+        <v>0.3890575492131784</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02474633209954462</v>
+        <v>0.9626624363982835</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05</v>
+        <v>3.692307692307693</v>
       </c>
       <c r="I39" t="n">
-        <v>0.21</v>
+        <v>7.611111111111111</v>
       </c>
       <c r="J39" t="n">
-        <v>0.14</v>
+        <v>7.894736842105263</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.092</v>
+        <v>0.7785220627325891</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06933333333333333</v>
+        <v>0.5498589209425122</v>
       </c>
       <c r="D40" t="n">
-        <v>1.326923076923077</v>
+        <v>1.222368783044136</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03420526275297413</v>
+        <v>0.2258133126291346</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02016597794967223</v>
+        <v>0.160572451468428</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="I40" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.11</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_received_per_match</t>
+          <t>count_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.49</v>
+        <v>1.95023923444976</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3706666666666666</v>
+        <v>1.418216923758719</v>
       </c>
       <c r="D41" t="n">
-        <v>1.321942446043166</v>
+        <v>1.20101447051229</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.6173605037912779</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06341097997155051</v>
+        <v>0.3442188347414352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.26</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I41" t="n">
-        <v>0.51</v>
+        <v>2.5</v>
       </c>
       <c r="J41" t="n">
-        <v>0.52</v>
+        <v>1.916666666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_in_sample</t>
+          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>167</v>
+        <v>6.110021265284423</v>
       </c>
       <c r="C42" t="n">
-        <v>128</v>
+        <v>4.982115691542936</v>
       </c>
       <c r="D42" t="n">
-        <v>1.3046875</v>
+        <v>1.192935012822867</v>
       </c>
       <c r="E42" t="n">
-        <v>69.69576744681129</v>
+        <v>0.917109540192699</v>
       </c>
       <c r="F42" t="n">
-        <v>42.20189569201838</v>
+        <v>0.9447104675515823</v>
       </c>
       <c r="G42" t="n">
-        <v>97</v>
+        <v>4.973684210526316</v>
       </c>
       <c r="H42" t="n">
-        <v>76</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
-        <v>264</v>
+        <v>7.303030303030303</v>
       </c>
       <c r="J42" t="n">
-        <v>219</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_in_sample</t>
+          <t>pulling_wide_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>597.8</v>
+        <v>0.01541387559808612</v>
       </c>
       <c r="C43" t="n">
-        <v>460.5333333333334</v>
+        <v>0.01158460081726336</v>
       </c>
       <c r="D43" t="n">
-        <v>1.298060220034742</v>
+        <v>1.188049457617869</v>
       </c>
       <c r="E43" t="n">
-        <v>53.13849828514163</v>
+        <v>0.002067936071918651</v>
       </c>
       <c r="F43" t="n">
-        <v>100.6456774081847</v>
+        <v>0.002924079597126476</v>
       </c>
       <c r="G43" t="n">
-        <v>540</v>
+        <v>0.01194444444444445</v>
       </c>
       <c r="H43" t="n">
-        <v>236</v>
+        <v>0.004615384615384615</v>
       </c>
       <c r="I43" t="n">
-        <v>669</v>
+        <v>0.01722222222222222</v>
       </c>
       <c r="J43" t="n">
-        <v>664</v>
+        <v>0.01710526315789474</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_received_per_match</t>
+          <t>count_dangerous_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.094</v>
+        <v>0.5843434343434344</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07266666666666668</v>
+        <v>0.4221517783901684</v>
       </c>
       <c r="D44" t="n">
-        <v>1.293577981651376</v>
+        <v>1.174300235793859</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02073644135332772</v>
+        <v>0.1486596816434741</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01907379154257286</v>
+        <v>0.1232567971212139</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I44" t="n">
-        <v>0.13</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="J44" t="n">
-        <v>0.11</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.018</v>
+        <v>1.00769750132908</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01400000000000001</v>
+        <v>0.8717483937191367</v>
       </c>
       <c r="D45" t="n">
-        <v>1.285714285714285</v>
+        <v>1.172944365463173</v>
       </c>
       <c r="E45" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.1015630193224277</v>
       </c>
       <c r="F45" t="n">
-        <v>0.005070925528371101</v>
+        <v>0.09570126441447321</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01</v>
+        <v>0.8591666666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01</v>
+        <v>0.7421621621621621</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02</v>
+        <v>1.136060606060606</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02</v>
+        <v>1.039722222222222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_per_match</t>
+          <t>count_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.356</v>
+        <v>0.5675704412546518</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2773333333333333</v>
+        <v>0.3768216820229204</v>
       </c>
       <c r="D46" t="n">
-        <v>1.283653846153846</v>
+        <v>1.172279526087002</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1585244460643216</v>
+        <v>0.1425083232341872</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07582561446848822</v>
+        <v>0.1474204461940654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H46" t="n">
-        <v>0.18</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J46" t="n">
-        <v>0.46</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>count_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.22</v>
+        <v>6.239845826687932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1733333333333333</v>
+        <v>5.047901122127127</v>
       </c>
       <c r="D47" t="n">
-        <v>1.269230769230769</v>
+        <v>1.123705285029684</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04795831523312719</v>
+        <v>0.8935879445626359</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03976119189552019</v>
+        <v>0.8796322548198012</v>
       </c>
       <c r="G47" t="n">
-        <v>0.17</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>3.307692307692307</v>
       </c>
       <c r="I47" t="n">
-        <v>0.27</v>
+        <v>7.636363636363637</v>
       </c>
       <c r="J47" t="n">
-        <v>0.25</v>
+        <v>6.702702702702703</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.266</v>
+        <v>0.01007177033492823</v>
       </c>
       <c r="C48" t="n">
-        <v>1.002666666666667</v>
+        <v>0.007186543889175469</v>
       </c>
       <c r="D48" t="n">
-        <v>1.262632978723404</v>
+        <v>1.09780336461723</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1043072384832423</v>
+        <v>0.002172614766123491</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1506399049136083</v>
+        <v>0.002278533839630435</v>
       </c>
       <c r="G48" t="n">
-        <v>1.11</v>
+        <v>0.008055555555555555</v>
       </c>
       <c r="H48" t="n">
-        <v>0.73</v>
+        <v>0.002307692307692307</v>
       </c>
       <c r="I48" t="n">
-        <v>1.4</v>
+        <v>0.01368421052631579</v>
       </c>
       <c r="J48" t="n">
-        <v>1.3</v>
+        <v>0.01105263157894737</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
+          <t>support_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.164</v>
+        <v>0.09574667729930889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.13</v>
+        <v>0.07476384818969957</v>
       </c>
       <c r="D49" t="n">
-        <v>1.261538461538461</v>
+        <v>1.076140464788464</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02701851217221259</v>
+        <v>0.02605573045293509</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02507132682112035</v>
+        <v>0.01480967083500978</v>
       </c>
       <c r="G49" t="n">
-        <v>0.12</v>
+        <v>0.06157894736842105</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08</v>
+        <v>0.04884615384615384</v>
       </c>
       <c r="I49" t="n">
-        <v>0.19</v>
+        <v>0.1339473684210526</v>
       </c>
       <c r="J49" t="n">
-        <v>0.19</v>
+        <v>0.1071052631578947</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.036</v>
+        <v>0.6389154704944179</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02866666666666668</v>
+        <v>0.4668092119949705</v>
       </c>
       <c r="D50" t="n">
-        <v>1.255813953488372</v>
+        <v>1.0608179067574</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01140175425099138</v>
+        <v>0.1611967658869108</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007432233529572065</v>
+        <v>0.1602509746347995</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="J50" t="n">
-        <v>0.04</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_received_per_match</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.476</v>
+        <v>12.63383838383838</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3806666666666667</v>
+        <v>10.76260943146392</v>
       </c>
       <c r="D51" t="n">
-        <v>1.250437828371278</v>
+        <v>1.056521328532287</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0691375440697744</v>
+        <v>1.337709592557119</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06318529063303382</v>
+        <v>1.49567329482411</v>
       </c>
       <c r="G51" t="n">
-        <v>0.39</v>
+        <v>11.60526315789474</v>
       </c>
       <c r="H51" t="n">
-        <v>0.27</v>
+        <v>7.384615384615385</v>
       </c>
       <c r="I51" t="n">
-        <v>0.58</v>
+        <v>14.6969696969697</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>support_runs_received_threat_per_match</t>
+          <t>count_runs_in_behind_in_sample</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01</v>
+        <v>31.62565124933546</v>
       </c>
       <c r="C52" t="n">
-        <v>0.007999999999999998</v>
+        <v>27.26498925353415</v>
       </c>
       <c r="D52" t="n">
-        <v>1.25</v>
+        <v>1.053066162530222</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2.963694761078351</v>
       </c>
       <c r="F52" t="n">
-        <v>0.004140393356054125</v>
+        <v>3.542640656042206</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01</v>
+        <v>27.27777777777778</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>20.96153846153846</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01</v>
+        <v>35.03030303030303</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01</v>
+        <v>32.44736842105263</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_targeted_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.55</v>
+        <v>31.62565124933546</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4406666666666666</v>
+        <v>27.26498925353415</v>
       </c>
       <c r="D53" t="n">
-        <v>1.248108925869894</v>
+        <v>1.053066162530222</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02449489742783177</v>
+        <v>2.963694761078351</v>
       </c>
       <c r="F53" t="n">
-        <v>0.06691857169796168</v>
+        <v>3.542640656042206</v>
       </c>
       <c r="G53" t="n">
-        <v>0.52</v>
+        <v>27.27777777777778</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>20.96153846153846</v>
       </c>
       <c r="I53" t="n">
-        <v>0.58</v>
+        <v>35.03030303030303</v>
       </c>
       <c r="J53" t="n">
-        <v>0.59</v>
+        <v>32.44736842105263</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_shot_per_match</t>
+          <t>pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.09400000000000001</v>
+        <v>0.04955927698032962</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07533333333333335</v>
+        <v>0.03972757239599345</v>
       </c>
       <c r="D54" t="n">
-        <v>1.247787610619469</v>
+        <v>1.052236568014759</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02509980079602227</v>
+        <v>0.00909323301329319</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02065591117977289</v>
+        <v>0.008189542166967089</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03722222222222223</v>
       </c>
       <c r="H54" t="n">
-        <v>0.04</v>
+        <v>0.01884615384615385</v>
       </c>
       <c r="I54" t="n">
-        <v>0.13</v>
+        <v>0.05973684210526316</v>
       </c>
       <c r="J54" t="n">
-        <v>0.11</v>
+        <v>0.04944444444444444</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.468</v>
+        <v>2.888755980861244</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3766666666666667</v>
+        <v>2.288609123361446</v>
       </c>
       <c r="D55" t="n">
-        <v>1.242477876106195</v>
+        <v>1.048538301083817</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06260990336999411</v>
+        <v>0.599646850143074</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06831300510639732</v>
+        <v>0.5616363276511405</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="H55" t="n">
-        <v>0.28</v>
+        <v>1.6</v>
       </c>
       <c r="I55" t="n">
-        <v>0.55</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="J55" t="n">
-        <v>0.49</v>
+        <v>3.378378378378379</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.17</v>
+        <v>0.2487772461456672</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1393333333333333</v>
+        <v>0.1759954574041261</v>
       </c>
       <c r="D56" t="n">
-        <v>1.220095693779904</v>
+        <v>1.011782210916323</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02738612787525831</v>
+        <v>0.06318070761362575</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02914659173083209</v>
+        <v>0.07611795573018633</v>
       </c>
       <c r="G56" t="n">
-        <v>0.13</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J56" t="n">
-        <v>0.21</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_targeted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.026</v>
+        <v>0.1609250398724083</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02133333333333333</v>
+        <v>0.09349660363592253</v>
       </c>
       <c r="D57" t="n">
-        <v>1.21875</v>
+        <v>1.011447253995833</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00547722557505166</v>
+        <v>0.01852587257434432</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003518657752744983</v>
+        <v>0.07025673482309791</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>pulling_wide_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.238</v>
+        <v>0.01890988835725678</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1953333333333333</v>
+        <v>0.01551567903936325</v>
       </c>
       <c r="D58" t="n">
-        <v>1.218430034129693</v>
+        <v>0.9903048751487964</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03768288736283355</v>
+        <v>0.002917068769765296</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02899917897031537</v>
+        <v>0.003444434915298458</v>
       </c>
       <c r="G58" t="n">
-        <v>0.18</v>
+        <v>0.01416666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0.13</v>
+        <v>0.007307692307692308</v>
       </c>
       <c r="I58" t="n">
-        <v>0.28</v>
+        <v>0.02131578947368421</v>
       </c>
       <c r="J58" t="n">
-        <v>0.25</v>
+        <v>0.02171428571428571</v>
       </c>
     </row>
     <row r="59">
@@ -2425,643 +2426,643 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.756</v>
+        <v>9.875784157363105</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6213333333333334</v>
+        <v>8.250683478020939</v>
       </c>
       <c r="D59" t="n">
-        <v>1.216738197424893</v>
+        <v>0.9832677573530993</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1855532268649618</v>
+        <v>2.318992032277905</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09311027767934005</v>
+        <v>1.317922039113902</v>
       </c>
       <c r="G59" t="n">
-        <v>0.54</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="H59" t="n">
-        <v>0.42</v>
+        <v>5.647058823529412</v>
       </c>
       <c r="I59" t="n">
-        <v>0.96</v>
+        <v>12.42424242424242</v>
       </c>
       <c r="J59" t="n">
-        <v>0.76</v>
+        <v>10.26315789473684</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9440000000000002</v>
+        <v>1.26735778841042</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7793333333333333</v>
+        <v>0.8832013720249015</v>
       </c>
       <c r="D60" t="n">
-        <v>1.211291702309667</v>
+        <v>0.9637836080968663</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08384509526501836</v>
+        <v>0.5530026459062097</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1032657228891055</v>
+        <v>0.3357375580163098</v>
       </c>
       <c r="G60" t="n">
-        <v>0.82</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H60" t="n">
-        <v>0.59</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="I60" t="n">
-        <v>1.04</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="J60" t="n">
-        <v>1.02</v>
+        <v>1.868421052631579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.078</v>
+        <v>2.235406698564593</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06466666666666669</v>
+        <v>1.842267847577445</v>
       </c>
       <c r="D61" t="n">
-        <v>1.206185567010309</v>
+        <v>0.9630658917871042</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01095445115010332</v>
+        <v>0.4477579669314877</v>
       </c>
       <c r="F61" t="n">
-        <v>0.007432233529572068</v>
+        <v>0.3836469191037405</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09</v>
+        <v>2.75</v>
       </c>
       <c r="J61" t="n">
-        <v>0.08</v>
+        <v>2.763157894736842</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.016</v>
+        <v>0.08378389154704943</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.0699325293670495</v>
       </c>
       <c r="D62" t="n">
-        <v>1.2</v>
+        <v>0.958128109956542</v>
       </c>
       <c r="E62" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.01001177584713044</v>
       </c>
       <c r="F62" t="n">
-        <v>0.007237468644557461</v>
+        <v>0.01405253013233697</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01</v>
+        <v>0.07138888888888889</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02</v>
+        <v>0.095</v>
       </c>
       <c r="J62" t="n">
-        <v>0.02</v>
+        <v>0.08914285714285715</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
+          <t>count_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.012</v>
+        <v>1.255608718766614</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01</v>
+        <v>0.9850072331032084</v>
       </c>
       <c r="D63" t="n">
-        <v>1.2</v>
+        <v>0.9548064710052774</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.3482246429293444</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>0.2643125223889809</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="I63" t="n">
-        <v>0.02</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01</v>
+        <v>1.459459459459459</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>count_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.012</v>
+        <v>1.889393939393939</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01</v>
+        <v>1.39378964580203</v>
       </c>
       <c r="D64" t="n">
-        <v>1.2</v>
+        <v>0.92960292631046</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.796741991951835</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.4166716896446805</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02</v>
+        <v>2.789473684210526</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01</v>
+        <v>2.421052631578947</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_received_threat_per_match</t>
+          <t>count_dangerous_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.012</v>
+        <v>1.189101541733121</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01</v>
+        <v>0.9528868323295566</v>
       </c>
       <c r="D65" t="n">
-        <v>1.2</v>
+        <v>0.9250376461248725</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.2435323081993671</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.2400878738984165</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01</v>
+        <v>1.473684210526316</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.016</v>
+        <v>0.06504518872939927</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01333333333333334</v>
+        <v>0.03208811863610625</v>
       </c>
       <c r="D66" t="n">
-        <v>1.2</v>
+        <v>0.9076608609400234</v>
       </c>
       <c r="E66" t="n">
-        <v>0.008944271909999158</v>
+        <v>0.05404550961179678</v>
       </c>
       <c r="F66" t="n">
-        <v>0.006172133998483677</v>
+        <v>0.02915519717854527</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.03</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J66" t="n">
-        <v>0.02</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>count_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.16</v>
+        <v>14.19114832535885</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1333333333333334</v>
+        <v>12.36036894087977</v>
       </c>
       <c r="D67" t="n">
-        <v>1.2</v>
+        <v>0.9069511263314931</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02738612787525831</v>
+        <v>4.018394239888528</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02768874620972692</v>
+        <v>1.750690583343344</v>
       </c>
       <c r="G67" t="n">
-        <v>0.12</v>
+        <v>8.789473684210526</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>8.828571428571429</v>
       </c>
       <c r="I67" t="n">
-        <v>0.19</v>
+        <v>19.6969696969697</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2</v>
+        <v>15.97368421052632</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_in_sample</t>
+          <t>count_runs_ahead_of_the_ball_in_sample</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>366.2</v>
+        <v>55.0334928229665</v>
       </c>
       <c r="C68" t="n">
-        <v>305.4666666666666</v>
+        <v>51.07002133321019</v>
       </c>
       <c r="D68" t="n">
-        <v>1.19882147533828</v>
+        <v>0.905166334247578</v>
       </c>
       <c r="E68" t="n">
-        <v>66.61231117443681</v>
+        <v>8.842298859496832</v>
       </c>
       <c r="F68" t="n">
-        <v>77.10277618372827</v>
+        <v>3.884576039861682</v>
       </c>
       <c r="G68" t="n">
-        <v>293</v>
+        <v>42.02631578947368</v>
       </c>
       <c r="H68" t="n">
-        <v>177</v>
+        <v>45.17142857142857</v>
       </c>
       <c r="I68" t="n">
-        <v>455</v>
+        <v>66.27272727272727</v>
       </c>
       <c r="J68" t="n">
-        <v>394</v>
+        <v>59.23684210526316</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.062</v>
+        <v>55.0334928229665</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05200000000000002</v>
+        <v>51.07002133321019</v>
       </c>
       <c r="D69" t="n">
-        <v>1.192307692307692</v>
+        <v>0.905166334247578</v>
       </c>
       <c r="E69" t="n">
-        <v>0.008366600265340758</v>
+        <v>8.842298859496832</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006761234037828131</v>
+        <v>3.884576039861682</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05</v>
+        <v>42.02631578947368</v>
       </c>
       <c r="H69" t="n">
-        <v>0.04</v>
+        <v>45.17142857142857</v>
       </c>
       <c r="I69" t="n">
-        <v>0.07000000000000001</v>
+        <v>66.27272727272727</v>
       </c>
       <c r="J69" t="n">
-        <v>0.06</v>
+        <v>59.23684210526316</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>count_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9640000000000001</v>
+        <v>11.66584263689527</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8126666666666666</v>
+        <v>10.074850582219</v>
       </c>
       <c r="D70" t="n">
-        <v>1.186218211648893</v>
+        <v>0.9003313646869413</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09289779329994878</v>
+        <v>2.369260787033432</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1061310959323869</v>
+        <v>1.53249386062638</v>
       </c>
       <c r="G70" t="n">
-        <v>0.86</v>
+        <v>8.578947368421053</v>
       </c>
       <c r="H70" t="n">
-        <v>0.61</v>
+        <v>7.205882352941177</v>
       </c>
       <c r="I70" t="n">
-        <v>1.11</v>
+        <v>14.42424242424242</v>
       </c>
       <c r="J70" t="n">
-        <v>1.02</v>
+        <v>12.10526315789474</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>count_dangerous_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.13</v>
+        <v>0.04925571504518873</v>
       </c>
       <c r="C71" t="n">
-        <v>0.11</v>
+        <v>0.02178253441411336</v>
       </c>
       <c r="D71" t="n">
-        <v>1.181818181818182</v>
+        <v>0.8953229620716904</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03741657386773942</v>
+        <v>0.03925712581767262</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02420153478013917</v>
+        <v>0.02548946540803562</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.19</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J71" t="n">
-        <v>0.16</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>count_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.13</v>
+        <v>5.709117490696437</v>
       </c>
       <c r="C72" t="n">
-        <v>0.11</v>
+        <v>4.925580761757232</v>
       </c>
       <c r="D72" t="n">
-        <v>1.181818181818182</v>
+        <v>0.8939858265097537</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02</v>
+        <v>0.8538214324451984</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02699206232527312</v>
+        <v>0.8709686430457627</v>
       </c>
       <c r="G72" t="n">
-        <v>0.11</v>
+        <v>4.842105263157895</v>
       </c>
       <c r="H72" t="n">
-        <v>0.06</v>
+        <v>3.269230769230769</v>
       </c>
       <c r="I72" t="n">
-        <v>0.16</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="J72" t="n">
-        <v>0.16</v>
+        <v>6.657142857142857</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.078</v>
+        <v>0.2507177033492823</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06600000000000002</v>
+        <v>0.1590051249493974</v>
       </c>
       <c r="D73" t="n">
-        <v>1.181818181818181</v>
+        <v>0.8914248448386057</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0130384048104053</v>
+        <v>0.09731312134245111</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0222967005887162</v>
+        <v>0.09874544844503663</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="I73" t="n">
-        <v>0.09</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="J73" t="n">
-        <v>0.11</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.318</v>
+        <v>2.090855927698033</v>
       </c>
       <c r="C74" t="n">
-        <v>1.117333333333334</v>
+        <v>1.751288042712191</v>
       </c>
       <c r="D74" t="n">
-        <v>1.179594272076372</v>
+        <v>0.8834821824907717</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1725398504693915</v>
+        <v>0.413701985239544</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1210352172283911</v>
+        <v>0.386799156805913</v>
       </c>
       <c r="G74" t="n">
-        <v>1.06</v>
+        <v>1.552631578947368</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="I74" t="n">
-        <v>1.49</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="J74" t="n">
-        <v>1.33</v>
+        <v>2.684210526315789</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.114</v>
+        <v>0.09417251461988305</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09666666666666669</v>
+        <v>0.07209158803106172</v>
       </c>
       <c r="D75" t="n">
-        <v>1.179310344827586</v>
+        <v>0.8770283790165582</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03209361307176243</v>
+        <v>0.04443272246543032</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02350278605572013</v>
+        <v>0.01751926530229367</v>
       </c>
       <c r="G75" t="n">
-        <v>0.08</v>
+        <v>0.04815789473684211</v>
       </c>
       <c r="H75" t="n">
-        <v>0.06</v>
+        <v>0.04611111111111111</v>
       </c>
       <c r="I75" t="n">
-        <v>0.16</v>
+        <v>0.1563157894736842</v>
       </c>
       <c r="J75" t="n">
-        <v>0.14</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>support_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.422</v>
+        <v>0.1237913343965975</v>
       </c>
       <c r="C76" t="n">
-        <v>2.059333333333333</v>
+        <v>0.1047038671832789</v>
       </c>
       <c r="D76" t="n">
-        <v>1.176108773065717</v>
+        <v>0.8632658559870358</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2381596103456671</v>
+        <v>0.02474833020498814</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2400138884870346</v>
+        <v>0.02077817289991378</v>
       </c>
       <c r="G76" t="n">
-        <v>2.02</v>
+        <v>0.0886842105263158</v>
       </c>
       <c r="H76" t="n">
-        <v>1.73</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="I76" t="n">
-        <v>2.65</v>
+        <v>0.1573684210526316</v>
       </c>
       <c r="J76" t="n">
-        <v>2.43</v>
+        <v>0.1407894736842105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_targeted_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.4359999999999999</v>
+        <v>1.196225412014886</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3713333333333333</v>
+        <v>0.9238686446116786</v>
       </c>
       <c r="D77" t="n">
-        <v>1.174147217235189</v>
+        <v>0.8573048057909356</v>
       </c>
       <c r="E77" t="n">
-        <v>0.05176871642217913</v>
+        <v>0.4053155069910093</v>
       </c>
       <c r="F77" t="n">
-        <v>0.06289068369192766</v>
+        <v>0.275707810489284</v>
       </c>
       <c r="G77" t="n">
-        <v>0.39</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H77" t="n">
-        <v>0.27</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I77" t="n">
-        <v>0.51</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="J77" t="n">
-        <v>0.49</v>
+        <v>1.526315789473684</v>
       </c>
     </row>
     <row r="78">
@@ -3071,767 +3072,767 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.42</v>
+        <v>5.483280170122276</v>
       </c>
       <c r="C78" t="n">
-        <v>0.358</v>
+        <v>4.740559079134931</v>
       </c>
       <c r="D78" t="n">
-        <v>1.1731843575419</v>
+        <v>0.855325658256492</v>
       </c>
       <c r="E78" t="n">
-        <v>0.05787918451395113</v>
+        <v>0.8713497649369731</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06537802164554779</v>
+        <v>0.8882573413097274</v>
       </c>
       <c r="G78" t="n">
-        <v>0.36</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
-        <v>0.26</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5</v>
+        <v>6.575757575757576</v>
       </c>
       <c r="J78" t="n">
-        <v>0.48</v>
+        <v>6.485714285714286</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.892</v>
+        <v>18.57286018075492</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7606666666666665</v>
+        <v>16.69035566015442</v>
       </c>
       <c r="D79" t="n">
-        <v>1.172655565293602</v>
+        <v>0.8416593829100643</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1878030883665122</v>
+        <v>4.40752280950431</v>
       </c>
       <c r="F79" t="n">
-        <v>0.108395220418263</v>
+        <v>2.008154315611007</v>
       </c>
       <c r="G79" t="n">
-        <v>0.68</v>
+        <v>12.6578947368421</v>
       </c>
       <c r="H79" t="n">
-        <v>0.54</v>
+        <v>12.68571428571429</v>
       </c>
       <c r="I79" t="n">
-        <v>1.09</v>
+        <v>24.42424242424243</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9</v>
+        <v>20.97368421052632</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_in_sample</t>
+          <t>count_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>781</v>
+        <v>1.582775119617225</v>
       </c>
       <c r="C80" t="n">
-        <v>666.8666666666667</v>
+        <v>1.215709415910655</v>
       </c>
       <c r="D80" t="n">
-        <v>1.171148655403379</v>
+        <v>0.8416081617550293</v>
       </c>
       <c r="E80" t="n">
-        <v>128.1210365240619</v>
+        <v>0.7297789631248081</v>
       </c>
       <c r="F80" t="n">
-        <v>157.8633526035669</v>
+        <v>0.3288077562611461</v>
       </c>
       <c r="G80" t="n">
-        <v>646</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H80" t="n">
-        <v>372</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I80" t="n">
-        <v>934</v>
+        <v>2.657894736842105</v>
       </c>
       <c r="J80" t="n">
-        <v>938</v>
+        <v>1.888888888888889</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>count_pulling_half_space_runs_in_sample</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.772</v>
+        <v>10.09973418394471</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6646666666666666</v>
+        <v>8.777814870461928</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16148445336008</v>
+        <v>0.8015950003267095</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1196662024132127</v>
+        <v>1.652656525949877</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1238009154516503</v>
+        <v>1.636870515996686</v>
       </c>
       <c r="G81" t="n">
-        <v>0.67</v>
+        <v>8.878787878787879</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4</v>
+        <v>5.382352941176471</v>
       </c>
       <c r="I81" t="n">
-        <v>0.93</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="J81" t="n">
-        <v>0.85</v>
+        <v>11.22857142857143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.084</v>
+        <v>10.09973418394471</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9353333333333335</v>
+        <v>8.777814870461928</v>
       </c>
       <c r="D82" t="n">
-        <v>1.158945117605132</v>
+        <v>0.8015950003267095</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3015460163888755</v>
+        <v>1.652656525949877</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1262008980422353</v>
+        <v>1.636870515996686</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>8.878787878787879</v>
       </c>
       <c r="H82" t="n">
-        <v>0.65</v>
+        <v>5.382352941176471</v>
       </c>
       <c r="I82" t="n">
-        <v>1.49</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="J82" t="n">
-        <v>1.19</v>
+        <v>11.22857142857143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.66</v>
+        <v>0.2245614035087719</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45</v>
+        <v>0.1633053362619926</v>
       </c>
       <c r="D83" t="n">
-        <v>1.144827586206897</v>
+        <v>0.7962389351549595</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3269556544854363</v>
+        <v>0.09375324168215329</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2331768182547926</v>
+        <v>0.07766236884040688</v>
       </c>
       <c r="G83" t="n">
-        <v>1.35</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H83" t="n">
-        <v>1.17</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="I83" t="n">
-        <v>2.14</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J83" t="n">
-        <v>1.84</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.594</v>
+        <v>0.2353003721424774</v>
       </c>
       <c r="C84" t="n">
-        <v>1.397333333333333</v>
+        <v>0.1554686214128939</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14074427480916</v>
+        <v>0.7850886671058774</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3192647803939545</v>
+        <v>0.1253309874930358</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2306347349216526</v>
+        <v>0.09647037245776822</v>
       </c>
       <c r="G84" t="n">
-        <v>1.31</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H84" t="n">
-        <v>1.14</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I84" t="n">
-        <v>2.07</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="J84" t="n">
-        <v>1.79</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_received_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01</v>
+        <v>1.507123870281765</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01133333333333334</v>
+        <v>1.276747437227314</v>
       </c>
       <c r="D85" t="n">
-        <v>1.133333333333334</v>
+        <v>0.7848505118410606</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.4252830270411392</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003518657752744984</v>
+        <v>0.3072461484042395</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H85" t="n">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02</v>
+        <v>1.842105263157895</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_per_match</t>
+          <t>count_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.546</v>
+        <v>4.641919191919192</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4826666666666667</v>
+        <v>3.681713495041668</v>
       </c>
       <c r="D86" t="n">
-        <v>1.13121546961326</v>
+        <v>0.779472086431626</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08905054744357276</v>
+        <v>1.960578610630171</v>
       </c>
       <c r="F86" t="n">
-        <v>0.07468664698656138</v>
+        <v>1.000767124053782</v>
       </c>
       <c r="G86" t="n">
-        <v>0.47</v>
+        <v>2.552631578947369</v>
       </c>
       <c r="H86" t="n">
-        <v>0.37</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="I86" t="n">
-        <v>0.67</v>
+        <v>6.947368421052632</v>
       </c>
       <c r="J86" t="n">
-        <v>0.61</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_in_sample</t>
+          <t>count_underlap_runs_in_sample</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1981.8</v>
+        <v>4.641919191919192</v>
       </c>
       <c r="C87" t="n">
-        <v>1757.933333333333</v>
+        <v>3.681713495041669</v>
       </c>
       <c r="D87" t="n">
-        <v>1.12734650536615</v>
+        <v>0.779472086431626</v>
       </c>
       <c r="E87" t="n">
-        <v>254.3004128978166</v>
+        <v>1.960578610630171</v>
       </c>
       <c r="F87" t="n">
-        <v>235.5454055914445</v>
+        <v>1.000767124053782</v>
       </c>
       <c r="G87" t="n">
-        <v>1597</v>
+        <v>2.552631578947369</v>
       </c>
       <c r="H87" t="n">
-        <v>1244</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="I87" t="n">
-        <v>2237</v>
+        <v>6.947368421052632</v>
       </c>
       <c r="J87" t="n">
-        <v>2251</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.418</v>
+        <v>0.1321371610845295</v>
       </c>
       <c r="C88" t="n">
-        <v>1.262</v>
+        <v>0.08537366373279684</v>
       </c>
       <c r="D88" t="n">
-        <v>1.123613312202853</v>
+        <v>0.7791316130543701</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3250692233971097</v>
+        <v>0.08510527662611968</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1407226248435451</v>
+        <v>0.05575785082160962</v>
       </c>
       <c r="G88" t="n">
-        <v>1.01</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I88" t="n">
-        <v>1.84</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J88" t="n">
-        <v>1.56</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_received_per_match</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.162</v>
+        <v>0.03851674641148325</v>
       </c>
       <c r="C89" t="n">
-        <v>0.146</v>
+        <v>0.02426456974444591</v>
       </c>
       <c r="D89" t="n">
-        <v>1.10958904109589</v>
+        <v>0.7542472332656507</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04024922359499621</v>
+        <v>0.01432832373646862</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03418437404094784</v>
+        <v>0.02165258693307119</v>
       </c>
       <c r="G89" t="n">
-        <v>0.12</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H89" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.21</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J89" t="n">
-        <v>0.21</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_in_sample</t>
+          <t>count_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1292.8</v>
+        <v>21.77347155768209</v>
       </c>
       <c r="C90" t="n">
-        <v>1174.866666666667</v>
+        <v>19.16856160791145</v>
       </c>
       <c r="D90" t="n">
-        <v>1.10038018498553</v>
+        <v>0.7498063421217834</v>
       </c>
       <c r="E90" t="n">
-        <v>163.3392175810818</v>
+        <v>4.74374069321883</v>
       </c>
       <c r="F90" t="n">
-        <v>222.2816317411851</v>
+        <v>3.193278687912127</v>
       </c>
       <c r="G90" t="n">
-        <v>1106</v>
+        <v>17</v>
       </c>
       <c r="H90" t="n">
-        <v>686</v>
+        <v>14.30769230769231</v>
       </c>
       <c r="I90" t="n">
-        <v>1499</v>
+        <v>28.3030303030303</v>
       </c>
       <c r="J90" t="n">
-        <v>1499</v>
+        <v>24.68421052631579</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_per_match</t>
+          <t>count_cross_receiver_runs_in_sample</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.206</v>
+        <v>21.77347155768209</v>
       </c>
       <c r="C91" t="n">
-        <v>3.862</v>
+        <v>19.16856160791145</v>
       </c>
       <c r="D91" t="n">
-        <v>1.089073019161056</v>
+        <v>0.7498063421217834</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6575560812584734</v>
+        <v>4.74374069321883</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2818611613644461</v>
+        <v>3.193278687912127</v>
       </c>
       <c r="G91" t="n">
-        <v>3.34</v>
+        <v>17</v>
       </c>
       <c r="H91" t="n">
-        <v>3.34</v>
+        <v>14.30769230769231</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>28.3030303030303</v>
       </c>
       <c r="J91" t="n">
-        <v>4.41</v>
+        <v>24.68421052631579</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_per_match</t>
+          <t>count_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.748</v>
+        <v>7.109383306751728</v>
       </c>
       <c r="C92" t="n">
-        <v>2.56</v>
+        <v>6.385488865179269</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0734375</v>
+        <v>0.7459942506383959</v>
       </c>
       <c r="E92" t="n">
-        <v>0.459695551425071</v>
+        <v>1.161674334033671</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2500000000000001</v>
+        <v>1.009981621475412</v>
       </c>
       <c r="G92" t="n">
-        <v>2.31</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="H92" t="n">
-        <v>2.19</v>
+        <v>4.945945945945946</v>
       </c>
       <c r="I92" t="n">
-        <v>3.43</v>
+        <v>8.878787878787879</v>
       </c>
       <c r="J92" t="n">
-        <v>2.93</v>
+        <v>8.210526315789474</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01</v>
+        <v>0.204040404040404</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01066666666666667</v>
+        <v>0.1436146002090274</v>
       </c>
       <c r="D93" t="n">
-        <v>1.066666666666667</v>
+        <v>0.7427813527082076</v>
       </c>
       <c r="E93" t="n">
-        <v>0.007071067811865475</v>
+        <v>0.1027550719386078</v>
       </c>
       <c r="F93" t="n">
-        <v>0.007988086367179802</v>
+        <v>0.08289199716448238</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.194</v>
+        <v>0.01658692185007974</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1833333333333334</v>
+        <v>0.005455455455455455</v>
       </c>
       <c r="D94" t="n">
-        <v>1.058181818181818</v>
+        <v>0.7184212081070998</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04335896677735759</v>
+        <v>0.02404540946696574</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0381101161423178</v>
+        <v>0.01129505392611557</v>
       </c>
       <c r="G94" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.24</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J94" t="n">
-        <v>0.25</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>support_runs_threat_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.034</v>
+        <v>20.90313662945242</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03333333333333334</v>
+        <v>18.50066851085427</v>
       </c>
       <c r="D95" t="n">
-        <v>1.02</v>
+        <v>0.7172055290186773</v>
       </c>
       <c r="E95" t="n">
-        <v>0.005477225575051663</v>
+        <v>4.622369856057999</v>
       </c>
       <c r="F95" t="n">
-        <v>0.004879500364742667</v>
+        <v>3.156198708810297</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03</v>
+        <v>16.52631578947368</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03</v>
+        <v>13.96153846153846</v>
       </c>
       <c r="I95" t="n">
-        <v>0.04</v>
+        <v>27.36363636363636</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04</v>
+        <v>24.13157894736842</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.012</v>
+        <v>1.7050225943647</v>
       </c>
       <c r="C96" t="n">
-        <v>0.012</v>
+        <v>1.462017153725358</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.7085013937317882</v>
       </c>
       <c r="E96" t="n">
-        <v>0.008366600265340755</v>
+        <v>0.4962385762939048</v>
       </c>
       <c r="F96" t="n">
-        <v>0.005606119105813881</v>
+        <v>0.3141324208423985</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1.243684210526316</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1.111538461538462</v>
       </c>
       <c r="I96" t="n">
-        <v>0.02</v>
+        <v>2.473636363636364</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02</v>
+        <v>2.128421052631579</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>support_runs_targeted_threat_per_match</t>
+          <t>support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01</v>
+        <v>0.4689072301967039</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01</v>
+        <v>0.4296814723766736</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.706495527895255</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.07816800023539332</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>0.0575769020550553</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01</v>
+        <v>0.3673684210526316</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01</v>
+        <v>0.3353846153846154</v>
       </c>
       <c r="I97" t="n">
-        <v>0.01</v>
+        <v>0.5763636363636363</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01</v>
+        <v>0.5281578947368422</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1.678229665071771</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1.448975451994028</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.7034095502802293</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>0.2268988782847069</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>0.3666752740393601</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>2.078947368421053</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.1902179691653376</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.1276270691131372</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.6896384374755489</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.07006619529674329</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>0.1002767441457505</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_received_threat_per_match</t>
+          <t>count_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.02264752791068581</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.01214882950177068</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.6761234037828134</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>0.02496789704353155</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>0.0157599146511331</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3840,32 +3841,32 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.01161616161616162</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>0.003659147869674185</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>0.01593112151069445</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>0.009665870957924205</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3874,32 +3875,32 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
+          <t>count_dangerous_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.01161616161616162</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.003659147869674185</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>0.01593112151069445</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.009665870957924205</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3908,304 +3909,304 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_threat_per_match</t>
+          <t>cross_receiver_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.4489463051568315</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.3863205116064249</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.6398402363511739</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>0.1214326827953172</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>0.1000294934885523</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>0.303421052631579</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.2246153846153846</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>0.580857142857143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1.037533227006911</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.8840712118575896</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.6390205640894511</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>0.146835000062246</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>0.3053415926675488</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1.526315789473684</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_threat_per_match</t>
+          <t>cross_receiver_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>0.1621257309941521</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.1391846416330936</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.6060346233494153</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>0.03976040766190991</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>0.04233066063748865</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.1147368421052632</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>0.08730769230769231</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>0.2323684210526316</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>0.05956937799043063</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.03981635107022104</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>0.5897678246195885</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>0.03296499566453829</v>
       </c>
       <c r="F106" t="n">
-        <v>0.002581988897471612</v>
+        <v>0.03949984891898353</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_received_threat_per_match</t>
+          <t>count_support_runs_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.002</v>
+        <v>35.92812333864966</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>33.88332973380961</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.5718580401239695</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00447213595499958</v>
+        <v>6.092410964248513</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>3.635512848420735</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>29.10526315789474</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>26.38461538461538</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01</v>
+        <v>45.42424242424242</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>39.44736842105263</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_targeted_threat_per_match</t>
+          <t>count_support_runs_in_sample</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>35.92812333864966</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>33.88332973380961</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.5718580401239695</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>6.092410964248513</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>3.635512848420735</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>29.10526315789474</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>26.38461538461538</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>45.42424242424242</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>39.44736842105263</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_received_threat_per_match</t>
+          <t>count_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>2.123365231259968</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1.935329818301955</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.4859928187886963</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>0.5718593535152152</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>0.4665973045974964</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>2.777777777777778</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>0.1699893673577884</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>0.14296735053701</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.4757905434027205</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>0.07606055979778513</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>0.07324221242898331</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_received_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.009117237538290168</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>0.4573295603800235</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>0.01665352644916904</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4214,168 +4215,168 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_targeted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>2.563928761297182</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2.435432190091633</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.3647047834934663</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.5922107746758827</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>0.512764894820873</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1.617647058823529</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3.305555555555555</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>0.07256778309409888</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.09229862410976961</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.2810913475705226</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.04340490091569245</v>
       </c>
       <c r="F113" t="n">
-        <v>0.002581988897471612</v>
+        <v>0.06334011890589335</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_received_threat_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>0.1294790005316321</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>0.1578801093816574</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>0.2672612419124244</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>0.06979015591657083</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>0.09671950371610707</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
+          <t>pulling_half_space_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>0.01401382243487507</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>0.01350771071312867</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.230219540649826</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.004733384544758218</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.004369807069766409</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.009210526315789475</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.006538461538461539</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.0137468671679198</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>0.1987615979999813</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>0.02129033999860699</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4384,32 +4385,32 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_targeted_threat_per_match</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.08569909622541202</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.07942198279659579</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>0.09844336597897055</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.08226499096699409</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>0.05261543404094311</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4418,32 +4419,32 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_received_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.0183908233753435</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>0.09179045210953524</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>0.02188008093373701</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4452,32 +4453,32 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_received_threat_per_match</t>
+          <t>count_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.01272944771396784</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>0.09009831711993141</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.02710385427272472</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.02020246296458674</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -4486,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="120">
@@ -4499,31 +4500,65 @@
         </is>
       </c>
       <c r="B120" t="n">
+        <v>0.01896810207336523</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.01925051547822445</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.07201625681617016</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.004412256432500835</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.005812319130930194</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.01444444444444445</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.008857142857142857</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.02552631578947369</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03138888888888889</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.005555555555555555</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.005510999721526037</v>
+      </c>
+      <c r="D121" t="n">
         <v>0</v>
       </c>
-      <c r="C120" t="n">
+      <c r="E121" t="n">
+        <v>0.01242259987499883</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.01141704701484088</v>
+      </c>
+      <c r="G121" t="n">
         <v>0</v>
       </c>
-      <c r="D120" t="n">
+      <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
+      <c r="I121" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02857142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
@@ -800,7 +800,7 @@
         <v>0.6963516913470474</v>
       </c>
       <c r="D11" t="n">
-        <v>1.410847672121957</v>
+        <v>1.410847672121956</v>
       </c>
       <c r="E11" t="n">
         <v>0.09090443698623195</v>
@@ -1245,10 +1245,10 @@
         <v>1.298736390778227</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05298306553535625</v>
+        <v>0.05298306553535626</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04672825205031984</v>
+        <v>0.04672825205031983</v>
       </c>
       <c r="G24" t="n">
         <v>0.3081578947368421</v>
@@ -1486,7 +1486,7 @@
         <v>0.01503091285315039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.007259701227214273</v>
+        <v>0.007259701227214274</v>
       </c>
       <c r="G31" t="n">
         <v>0.02578947368421053</v>
@@ -3928,7 +3928,7 @@
         <v>0.3863205116064249</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6398402363511739</v>
+        <v>0.6398402363511736</v>
       </c>
       <c r="E103" t="n">
         <v>0.1214326827953172</v>
@@ -3937,7 +3937,7 @@
         <v>0.1000294934885523</v>
       </c>
       <c r="G103" t="n">
-        <v>0.303421052631579</v>
+        <v>0.3034210526315789</v>
       </c>
       <c r="H103" t="n">
         <v>0.2246153846153846</v>
@@ -4336,16 +4336,16 @@
         <v>0.01350771071312867</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230219540649826</v>
+        <v>0.2302195406498259</v>
       </c>
       <c r="E115" t="n">
-        <v>0.004733384544758218</v>
+        <v>0.004733384544758219</v>
       </c>
       <c r="F115" t="n">
         <v>0.004369807069766409</v>
       </c>
       <c r="G115" t="n">
-        <v>0.009210526315789475</v>
+        <v>0.009210526315789473</v>
       </c>
       <c r="H115" t="n">
         <v>0.006538461538461539</v>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,239 +483,239 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_dangerous_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.32400318979267</v>
+        <v>0.01161616161616162</v>
       </c>
       <c r="C2" t="n">
-        <v>10.30823643566678</v>
+        <v>0.003659147869674185</v>
       </c>
       <c r="D2" t="n">
-        <v>1.575767912755327</v>
+        <v>217.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8837352411906336</v>
+        <v>0.01593112151069445</v>
       </c>
       <c r="F2" t="n">
-        <v>1.355567944041469</v>
+        <v>0.009665870957924205</v>
       </c>
       <c r="G2" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.028571428571428</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.21212121212121</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J2" t="n">
-        <v>13.75</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1001860712387028</v>
+        <v>0.01161616161616162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03882712587046953</v>
+        <v>0.003659147869674185</v>
       </c>
       <c r="D3" t="n">
-        <v>1.567886118096436</v>
+        <v>217.46</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03983455584084358</v>
+        <v>0.01593112151069445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02987424200100699</v>
+        <v>0.009665870957924205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_received_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.560180754917598</v>
+        <v>0.01658692185007974</v>
       </c>
       <c r="C4" t="n">
-        <v>5.487692351113404</v>
+        <v>0.005455455455455455</v>
       </c>
       <c r="D4" t="n">
-        <v>1.518366963898488</v>
+        <v>204.04</v>
       </c>
       <c r="E4" t="n">
-        <v>2.652471556075722</v>
+        <v>0.02404540946696574</v>
       </c>
       <c r="F4" t="n">
-        <v>1.13769939141661</v>
+        <v>0.01129505392611557</v>
       </c>
       <c r="G4" t="n">
-        <v>5.184210526315789</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.57575757575758</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J4" t="n">
-        <v>7.684210526315789</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_in_sample</t>
+          <t>count_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.50361509835194</v>
+        <v>0.1001860712387028</v>
       </c>
       <c r="C5" t="n">
-        <v>17.93954884902253</v>
+        <v>0.03882712587046952</v>
       </c>
       <c r="D5" t="n">
-        <v>1.488729472253707</v>
+        <v>158.03</v>
       </c>
       <c r="E5" t="n">
-        <v>4.570415882513085</v>
+        <v>0.03983455584084358</v>
       </c>
       <c r="F5" t="n">
-        <v>2.960370400683118</v>
+        <v>0.02987424200100699</v>
       </c>
       <c r="G5" t="n">
-        <v>18.94736842105263</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H5" t="n">
-        <v>11.02941176470588</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>30.19444444444444</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="J5" t="n">
-        <v>22.89473684210526</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_per_match</t>
+          <t>count_dangerous_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.50361509835194</v>
+        <v>0.04925571504518873</v>
       </c>
       <c r="C6" t="n">
-        <v>17.93954884902253</v>
+        <v>0.02178253441411336</v>
       </c>
       <c r="D6" t="n">
-        <v>1.488729472253707</v>
+        <v>126.12</v>
       </c>
       <c r="E6" t="n">
-        <v>4.570415882513085</v>
+        <v>0.03925712581767262</v>
       </c>
       <c r="F6" t="n">
-        <v>2.960370400683118</v>
+        <v>0.02548946540803562</v>
       </c>
       <c r="G6" t="n">
-        <v>18.94736842105263</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>11.02941176470588</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.19444444444444</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J6" t="n">
-        <v>22.89473684210526</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_targeted_per_match</t>
+          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.171398192450825</v>
+        <v>0.06504518872939927</v>
       </c>
       <c r="C7" t="n">
-        <v>6.149956647696587</v>
+        <v>0.03208811863610625</v>
       </c>
       <c r="D7" t="n">
-        <v>1.483814047114972</v>
+        <v>102.71</v>
       </c>
       <c r="E7" t="n">
-        <v>2.602371309465704</v>
+        <v>0.05404550961179678</v>
       </c>
       <c r="F7" t="n">
-        <v>1.198023267523639</v>
+        <v>0.02915519717854527</v>
       </c>
       <c r="G7" t="n">
-        <v>5.842105263157895</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.029411764705882</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>12.09090909090909</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J7" t="n">
-        <v>8.315789473684211</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_threat_per_match</t>
+          <t>dropping_off_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07531818181818181</v>
+        <v>0.002874269005847954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05436077565845367</v>
+        <v>0.001468633392008005</v>
       </c>
       <c r="D8" t="n">
-        <v>1.479840308245241</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01312691955729396</v>
+        <v>0.001009809619684448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01147101625261137</v>
+        <v>0.0008775390295247377</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05736842105263158</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09242424242424242</v>
+        <v>0.004210526315789474</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06972972972972973</v>
+        <v>0.003157894736842105</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +731,7 @@
         <v>0.001734415354693992</v>
       </c>
       <c r="D9" t="n">
-        <v>1.42120464379376</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>0.0007287627243812491</v>
@@ -756,3457 +755,3457 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_targeted_threat_per_match</t>
+          <t>count_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02431791600212653</v>
+        <v>0.02264752791068581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01608670255837439</v>
+        <v>0.01214882950177068</v>
       </c>
       <c r="D10" t="n">
-        <v>1.413173051488392</v>
+        <v>86.42</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007515940525826897</v>
+        <v>0.02496789704353155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004093864668133211</v>
+        <v>0.0157599146511331</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01605263157894737</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009705882352941177</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03363636363636364</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02162162162162162</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8037418926103136</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6963516913470474</v>
+        <v>0.009117237538290168</v>
       </c>
       <c r="D11" t="n">
-        <v>1.410847672121956</v>
+        <v>85.14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09090443698623195</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07029692593857022</v>
+        <v>0.01665352644916904</v>
       </c>
       <c r="G11" t="n">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5602857142857143</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.916969696969697</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8616666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_targeted_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.306406166932483</v>
+        <v>0.1609250398724083</v>
       </c>
       <c r="C12" t="n">
-        <v>3.687351523435116</v>
+        <v>0.09349660363592253</v>
       </c>
       <c r="D12" t="n">
-        <v>1.405143417696269</v>
+        <v>72.12</v>
       </c>
       <c r="E12" t="n">
-        <v>1.346327977834414</v>
+        <v>0.01852587257434432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7596541474994526</v>
+        <v>0.07025673482309791</v>
       </c>
       <c r="G12" t="n">
-        <v>3.552631578947369</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H12" t="n">
-        <v>1.794117647058824</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.052631578947368</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J12" t="n">
-        <v>4.861111111111111</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_received_per_match</t>
+          <t>count_dangerous_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.410127591706539</v>
+        <v>0.4093301435406699</v>
       </c>
       <c r="C13" t="n">
-        <v>4.920358627262652</v>
+        <v>0.2514542520270075</v>
       </c>
       <c r="D13" t="n">
-        <v>1.384237085917243</v>
+        <v>62.79</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3355875639791827</v>
+        <v>0.1726452360249429</v>
       </c>
       <c r="F13" t="n">
-        <v>0.905050512448931</v>
+        <v>0.08415192280206442</v>
       </c>
       <c r="G13" t="n">
-        <v>5.894736842105263</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H13" t="n">
-        <v>3.115384615384615</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I13" t="n">
-        <v>6.833333333333333</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="J13" t="n">
-        <v>7.026315789473684</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>underlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.331100478468899</v>
+        <v>0.0255571504518873</v>
       </c>
       <c r="C14" t="n">
-        <v>3.608624054599288</v>
+        <v>0.01598727204563118</v>
       </c>
       <c r="D14" t="n">
-        <v>1.358951400495347</v>
+        <v>59.86</v>
       </c>
       <c r="E14" t="n">
-        <v>1.014313017392277</v>
+        <v>0.01000049028505908</v>
       </c>
       <c r="F14" t="n">
-        <v>1.023821040599664</v>
+        <v>0.005462924305397619</v>
       </c>
       <c r="G14" t="n">
-        <v>4.305555555555555</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="H14" t="n">
-        <v>2.294117647058823</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="I14" t="n">
-        <v>6.694444444444445</v>
+        <v>0.03631578947368421</v>
       </c>
       <c r="J14" t="n">
-        <v>6.789473684210527</v>
+        <v>0.03026315789473684</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_dangerous_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.512945241892611</v>
+        <v>0.6807549175970229</v>
       </c>
       <c r="C15" t="n">
-        <v>3.74797333328293</v>
+        <v>0.426165852342323</v>
       </c>
       <c r="D15" t="n">
-        <v>1.357778622892022</v>
+        <v>59.74</v>
       </c>
       <c r="E15" t="n">
-        <v>1.073892963302407</v>
+        <v>0.2649995267364523</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03542807111313</v>
+        <v>0.1303851363465402</v>
       </c>
       <c r="G15" t="n">
-        <v>4.472222222222222</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H15" t="n">
-        <v>2.441176470588236</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="J15" t="n">
-        <v>6.973684210526316</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_received_threat_per_match</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02078468899521531</v>
+        <v>0.03851674641148325</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01320592382604767</v>
+        <v>0.02426456974444591</v>
       </c>
       <c r="D16" t="n">
-        <v>1.351374641624839</v>
+        <v>58.74</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008069903828416306</v>
+        <v>0.01432832373646862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003881906688473754</v>
+        <v>0.02165258693307119</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01131578947368421</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007647058823529412</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03181818181818182</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01810810810810811</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.101887293992557</v>
+        <v>0.2507177033492823</v>
       </c>
       <c r="C17" t="n">
-        <v>2.591828157725991</v>
+        <v>0.1590051249493974</v>
       </c>
       <c r="D17" t="n">
-        <v>1.322507357098355</v>
+        <v>57.68</v>
       </c>
       <c r="E17" t="n">
-        <v>0.496537503922399</v>
+        <v>0.09731312134245111</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3806821816503352</v>
+        <v>0.09874544844503663</v>
       </c>
       <c r="G17" t="n">
-        <v>2.444444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H17" t="n">
-        <v>1.742857142857143</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="J17" t="n">
-        <v>3.375</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_targeted_threat_per_match</t>
+          <t>coming_short_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06832987772461456</v>
+        <v>0.02078468899521531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04922976724044836</v>
+        <v>0.01320592382604767</v>
       </c>
       <c r="D18" t="n">
-        <v>1.321852376819392</v>
+        <v>57.39</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01663307124078225</v>
+        <v>0.008069903828416306</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01199298329049368</v>
+        <v>0.003881906688473754</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04421052631578947</v>
+        <v>0.01131578947368421</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02441176470588235</v>
+        <v>0.007647058823529412</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08973684210526316</v>
+        <v>0.03181818181818182</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0668421052631579</v>
+        <v>0.01810810810810811</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.138649654439128</v>
+        <v>8.560180754917598</v>
       </c>
       <c r="C19" t="n">
-        <v>1.731347036997192</v>
+        <v>5.487692351113404</v>
       </c>
       <c r="D19" t="n">
-        <v>1.321748636404186</v>
+        <v>55.99</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3744843931648684</v>
+        <v>2.652471556075722</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3421183628812165</v>
+        <v>1.13769939141661</v>
       </c>
       <c r="G19" t="n">
-        <v>1.583333333333333</v>
+        <v>5.184210526315789</v>
       </c>
       <c r="H19" t="n">
-        <v>1.085714285714286</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.527777777777778</v>
+        <v>11.57575757575758</v>
       </c>
       <c r="J19" t="n">
-        <v>2.541666666666667</v>
+        <v>7.684210526315789</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_in_sample</t>
+          <t>count_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.16629452418926</v>
+        <v>0.1321371610845295</v>
       </c>
       <c r="C20" t="n">
-        <v>9.306483239610175</v>
+        <v>0.08537366373279684</v>
       </c>
       <c r="D20" t="n">
-        <v>1.319374439047183</v>
+        <v>54.78</v>
       </c>
       <c r="E20" t="n">
-        <v>2.35979705714161</v>
+        <v>0.08510527662611968</v>
       </c>
       <c r="F20" t="n">
-        <v>2.390773760386371</v>
+        <v>0.05575785082160962</v>
       </c>
       <c r="G20" t="n">
-        <v>11.13888888888889</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H20" t="n">
-        <v>6.941176470588236</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I20" t="n">
-        <v>17.08333333333333</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J20" t="n">
-        <v>16.39473684210526</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_per_match</t>
+          <t>underlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.16629452418926</v>
+        <v>0.03962573099415204</v>
       </c>
       <c r="C21" t="n">
-        <v>9.306483239610175</v>
+        <v>0.02572860014949798</v>
       </c>
       <c r="D21" t="n">
-        <v>1.319374439047183</v>
+        <v>54.01</v>
       </c>
       <c r="E21" t="n">
-        <v>2.35979705714161</v>
+        <v>0.01503091285315039</v>
       </c>
       <c r="F21" t="n">
-        <v>2.390773760386371</v>
+        <v>0.007259701227214274</v>
       </c>
       <c r="G21" t="n">
-        <v>11.13888888888889</v>
+        <v>0.02578947368421053</v>
       </c>
       <c r="H21" t="n">
-        <v>6.941176470588236</v>
+        <v>0.0175</v>
       </c>
       <c r="I21" t="n">
-        <v>17.08333333333333</v>
+        <v>0.05789473684210527</v>
       </c>
       <c r="J21" t="n">
-        <v>16.39473684210526</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_targeted_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6807549175970229</v>
+        <v>0.2353003721424774</v>
       </c>
       <c r="C22" t="n">
-        <v>0.426165852342323</v>
+        <v>0.1554686214128939</v>
       </c>
       <c r="D22" t="n">
-        <v>1.31194538434255</v>
+        <v>51.35</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2649995267364523</v>
+        <v>0.1253309874930358</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1303851363465402</v>
+        <v>0.09647037245776822</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I22" t="n">
-        <v>1.052631578947368</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_received_per_match</t>
+          <t>coming_short_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.144843168527379</v>
+        <v>0.02431791600212653</v>
       </c>
       <c r="C23" t="n">
-        <v>2.933178155190539</v>
+        <v>0.01608670255837439</v>
       </c>
       <c r="D23" t="n">
-        <v>1.30026584101856</v>
+        <v>51.17</v>
       </c>
       <c r="E23" t="n">
-        <v>1.256242769639731</v>
+        <v>0.007515940525826897</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6216883444705902</v>
+        <v>0.004093864668133211</v>
       </c>
       <c r="G23" t="n">
-        <v>2.473684210526316</v>
+        <v>0.01605263157894737</v>
       </c>
       <c r="H23" t="n">
-        <v>1.294117647058824</v>
+        <v>0.009705882352941177</v>
       </c>
       <c r="I23" t="n">
-        <v>5.763157894736842</v>
+        <v>0.03363636363636364</v>
       </c>
       <c r="J23" t="n">
-        <v>3.763157894736842</v>
+        <v>0.02162162162162162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_targeted_threat_per_match</t>
+          <t>count_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3566004784688995</v>
+        <v>0.5675704412546518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2834167920088973</v>
+        <v>0.3768216820229204</v>
       </c>
       <c r="D24" t="n">
-        <v>1.298736390778227</v>
+        <v>50.62</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05298306553535626</v>
+        <v>0.1425083232341872</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04672825205031983</v>
+        <v>0.1474204461940654</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3081578947368421</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2146153846153846</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4384848484848485</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3766666666666667</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_received_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.002874269005847954</v>
+        <v>0.05956937799043063</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001468633392008005</v>
+        <v>0.03981635107022104</v>
       </c>
       <c r="D25" t="n">
-        <v>1.297973498378227</v>
+        <v>49.61</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001009809619684448</v>
+        <v>0.03296499566453829</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0008775390295247377</v>
+        <v>0.03949984891898353</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004210526315789474</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003157894736842105</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>count_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.50730994152047</v>
+        <v>9.171398192450825</v>
       </c>
       <c r="C26" t="n">
-        <v>13.28756810632972</v>
+        <v>6.149956647696586</v>
       </c>
       <c r="D26" t="n">
-        <v>1.297724495616967</v>
+        <v>49.13</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9806781722398074</v>
+        <v>2.602371309465704</v>
       </c>
       <c r="F26" t="n">
-        <v>2.108957235659546</v>
+        <v>1.198023267523639</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>5.842105263157895</v>
       </c>
       <c r="H26" t="n">
-        <v>9.076923076923077</v>
+        <v>4.029411764705882</v>
       </c>
       <c r="I26" t="n">
-        <v>17.60526315789474</v>
+        <v>12.09090909090909</v>
       </c>
       <c r="J26" t="n">
-        <v>17.47368421052632</v>
+        <v>8.315789473684211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_in_sample</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.50730994152047</v>
+        <v>0.1902179691653376</v>
       </c>
       <c r="C27" t="n">
-        <v>13.28756810632972</v>
+        <v>0.1276270691131372</v>
       </c>
       <c r="D27" t="n">
-        <v>1.297724495616967</v>
+        <v>49.04</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9806781722398074</v>
+        <v>0.07006619529674329</v>
       </c>
       <c r="F27" t="n">
-        <v>2.108957235659546</v>
+        <v>0.1002767441457505</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H27" t="n">
-        <v>9.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>17.60526315789474</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J27" t="n">
-        <v>17.47368421052632</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_received_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4093301435406699</v>
+        <v>5.331100478468899</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2514542520270075</v>
+        <v>3.608624054599287</v>
       </c>
       <c r="D28" t="n">
-        <v>1.291299612301995</v>
+        <v>47.73</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1726452360249429</v>
+        <v>1.014313017392277</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08415192280206442</v>
+        <v>1.023821040599664</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2222222222222222</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1111111111111111</v>
+        <v>2.294117647058823</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6052631578947368</v>
+        <v>6.694444444444445</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4166666666666667</v>
+        <v>6.789473684210527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_received_threat_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0255571504518873</v>
+        <v>5.512945241892611</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01598727204563118</v>
+        <v>3.74797333328293</v>
       </c>
       <c r="D29" t="n">
-        <v>1.28869995416429</v>
+        <v>47.09</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01000049028505908</v>
+        <v>1.073892963302407</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005462924305397619</v>
+        <v>1.03542807111313</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01555555555555556</v>
+        <v>4.472222222222222</v>
       </c>
       <c r="H29" t="n">
-        <v>0.008888888888888889</v>
+        <v>2.441176470588236</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03631578947368421</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03026315789473684</v>
+        <v>6.973684210526316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>count_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1607852206273259</v>
+        <v>5.306406166932483</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1188163248081205</v>
+        <v>3.687351523435116</v>
       </c>
       <c r="D30" t="n">
-        <v>1.278670185585983</v>
+        <v>43.91</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04356011234554403</v>
+        <v>1.346327977834414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02483513913945386</v>
+        <v>0.7596541474994526</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09473684210526316</v>
+        <v>3.552631578947369</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07294117647058823</v>
+        <v>1.794117647058824</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2136842105263158</v>
+        <v>7.052631578947368</v>
       </c>
       <c r="J30" t="n">
-        <v>0.155</v>
+        <v>4.861111111111111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_targeted_threat_per_match</t>
+          <t>count_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.03962573099415204</v>
+        <v>1.26735778841042</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02572860014949798</v>
+        <v>0.8832013720249015</v>
       </c>
       <c r="D31" t="n">
-        <v>1.270604997937704</v>
+        <v>43.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01503091285315039</v>
+        <v>0.5530026459062097</v>
       </c>
       <c r="F31" t="n">
-        <v>0.007259701227214274</v>
+        <v>0.3357375580163098</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02578947368421053</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0175</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05789473684210527</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04166666666666666</v>
+        <v>1.868421052631579</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_in_sample</t>
+          <t>count_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11.69250398724083</v>
+        <v>0.204040404040404</v>
       </c>
       <c r="C32" t="n">
-        <v>8.761812459382121</v>
+        <v>0.1436146002090274</v>
       </c>
       <c r="D32" t="n">
-        <v>1.266402699645797</v>
+        <v>42.07</v>
       </c>
       <c r="E32" t="n">
-        <v>2.928939166341292</v>
+        <v>0.1027550719386078</v>
       </c>
       <c r="F32" t="n">
-        <v>1.651226374042005</v>
+        <v>0.08289199716448238</v>
       </c>
       <c r="G32" t="n">
-        <v>7.763157894736842</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H32" t="n">
-        <v>4.941176470588236</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>15.18421052631579</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J32" t="n">
-        <v>11.1578947368421</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_per_match</t>
+          <t>count_dangerous_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11.69250398724083</v>
+        <v>0.7785220627325891</v>
       </c>
       <c r="C33" t="n">
-        <v>8.761812459382121</v>
+        <v>0.5498589209425122</v>
       </c>
       <c r="D33" t="n">
-        <v>1.266402699645797</v>
+        <v>41.59</v>
       </c>
       <c r="E33" t="n">
-        <v>2.928939166341292</v>
+        <v>0.2258133126291346</v>
       </c>
       <c r="F33" t="n">
-        <v>1.651226374042005</v>
+        <v>0.160572451468428</v>
       </c>
       <c r="G33" t="n">
-        <v>7.763157894736842</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H33" t="n">
-        <v>4.941176470588236</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="I33" t="n">
-        <v>15.18421052631579</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>11.1578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_received_threat_per_match</t>
+          <t>count_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1696780967570441</v>
+        <v>13.16629452418926</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1287060918742033</v>
+        <v>9.306483239610175</v>
       </c>
       <c r="D34" t="n">
-        <v>1.263488008173553</v>
+        <v>41.47</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03127567638187542</v>
+        <v>2.35979705714161</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02658943881130216</v>
+        <v>2.390773760386371</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1352631578947368</v>
+        <v>11.13888888888889</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08756756756756758</v>
+        <v>6.941176470588236</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2112121212121212</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1845945945945946</v>
+        <v>16.39473684210526</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_received_threat_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.05345746943115363</v>
+        <v>0.2487772461456672</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03867211120554773</v>
+        <v>0.1759954574041261</v>
       </c>
       <c r="D35" t="n">
-        <v>1.246873211509887</v>
+        <v>41.35</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01489434182720722</v>
+        <v>0.06318070761362575</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01018163100257339</v>
+        <v>0.07611795573018633</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03210526315789473</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01676470588235294</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07263157894736842</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05470588235294118</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_per_match</t>
+          <t>count_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.22105263157895</v>
+        <v>4.144843168527379</v>
       </c>
       <c r="C36" t="n">
-        <v>14.79164368634957</v>
+        <v>2.933178155190539</v>
       </c>
       <c r="D36" t="n">
-        <v>1.236387353929605</v>
+        <v>41.31</v>
       </c>
       <c r="E36" t="n">
-        <v>2.254802005360134</v>
+        <v>1.256242769639731</v>
       </c>
       <c r="F36" t="n">
-        <v>1.708350787195889</v>
+        <v>0.6216883444705902</v>
       </c>
       <c r="G36" t="n">
-        <v>14.36111111111111</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="H36" t="n">
-        <v>12.38235294117647</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="I36" t="n">
-        <v>19.66666666666667</v>
+        <v>5.763157894736842</v>
       </c>
       <c r="J36" t="n">
-        <v>17.5</v>
+        <v>3.763157894736842</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
+          <t>dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1676294524189261</v>
+        <v>0.01007177033492823</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1360603000220647</v>
+        <v>0.007186543889175469</v>
       </c>
       <c r="D37" t="n">
-        <v>1.235774278266061</v>
+        <v>40.15</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03816570003531523</v>
+        <v>0.002172614766123491</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0226078902623752</v>
+        <v>0.002278533839630435</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1244736842105263</v>
+        <v>0.008055555555555555</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.002307692307692307</v>
       </c>
       <c r="I37" t="n">
-        <v>0.213030303030303</v>
+        <v>0.01368421052631579</v>
       </c>
       <c r="J37" t="n">
-        <v>0.18125</v>
+        <v>0.01105263157894737</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
+          <t>overlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2331557682083998</v>
+        <v>0.06832987772461456</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1946773425383332</v>
+        <v>0.04922976724044836</v>
       </c>
       <c r="D38" t="n">
-        <v>1.234864553604073</v>
+        <v>38.8</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04330980463800206</v>
+        <v>0.01663307124078225</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02587580795435582</v>
+        <v>0.01199298329049368</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1876315789473684</v>
+        <v>0.04421052631578947</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1368571428571429</v>
+        <v>0.02441176470588235</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2796969696969697</v>
+        <v>0.08973684210526316</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2410526315789474</v>
+        <v>0.0668421052631579</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_targeted_per_match</t>
+          <t>coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.180834662413609</v>
+        <v>0.07531818181818181</v>
       </c>
       <c r="C39" t="n">
-        <v>5.836044203118505</v>
+        <v>0.05436077565845367</v>
       </c>
       <c r="D39" t="n">
-        <v>1.229457314792463</v>
+        <v>38.55</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3890575492131784</v>
+        <v>0.01312691955729396</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9626624363982835</v>
+        <v>0.01147101625261137</v>
       </c>
       <c r="G39" t="n">
-        <v>6.578947368421052</v>
+        <v>0.05736842105263158</v>
       </c>
       <c r="H39" t="n">
-        <v>3.692307692307693</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I39" t="n">
-        <v>7.611111111111111</v>
+        <v>0.09242424242424242</v>
       </c>
       <c r="J39" t="n">
-        <v>7.894736842105263</v>
+        <v>0.06972972972972973</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_targeted_per_match</t>
+          <t>count_dangerous_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7785220627325891</v>
+        <v>0.5843434343434344</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5498589209425122</v>
+        <v>0.4221517783901684</v>
       </c>
       <c r="D40" t="n">
-        <v>1.222368783044136</v>
+        <v>38.42</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2258133126291346</v>
+        <v>0.1486596816434741</v>
       </c>
       <c r="F40" t="n">
-        <v>0.160572451468428</v>
+        <v>0.1232567971212139</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_per_match</t>
+          <t>overlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.95023923444976</v>
+        <v>0.05345746943115363</v>
       </c>
       <c r="C41" t="n">
-        <v>1.418216923758719</v>
+        <v>0.03867211120554774</v>
       </c>
       <c r="D41" t="n">
-        <v>1.20101447051229</v>
+        <v>38.23</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6173605037912779</v>
+        <v>0.01489434182720722</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3442188347414352</v>
+        <v>0.01018163100257339</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.03210526315789473</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.01676470588235294</v>
       </c>
       <c r="I41" t="n">
-        <v>2.5</v>
+        <v>0.07263157894736842</v>
       </c>
       <c r="J41" t="n">
-        <v>1.916666666666667</v>
+        <v>0.05470588235294118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.110021265284423</v>
+        <v>0.2245614035087719</v>
       </c>
       <c r="C42" t="n">
-        <v>4.982115691542936</v>
+        <v>0.1633053362619926</v>
       </c>
       <c r="D42" t="n">
-        <v>1.192935012822867</v>
+        <v>37.51</v>
       </c>
       <c r="E42" t="n">
-        <v>0.917109540192699</v>
+        <v>0.09375324168215329</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9447104675515823</v>
+        <v>0.07766236884040688</v>
       </c>
       <c r="G42" t="n">
-        <v>4.973684210526316</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="I42" t="n">
-        <v>7.303030303030303</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J42" t="n">
-        <v>6.416666666666667</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_received_threat_per_match</t>
+          <t>count_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01541387559808612</v>
+        <v>1.95023923444976</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01158460081726336</v>
+        <v>1.418216923758719</v>
       </c>
       <c r="D43" t="n">
-        <v>1.188049457617869</v>
+        <v>37.51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002067936071918651</v>
+        <v>0.6173605037912779</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002924079597126476</v>
+        <v>0.3442188347414352</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01194444444444445</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.004615384615384615</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01722222222222222</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01710526315789474</v>
+        <v>1.916666666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_received_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5843434343434344</v>
+        <v>0.6389154704944179</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4221517783901684</v>
+        <v>0.4668092119949705</v>
       </c>
       <c r="D44" t="n">
-        <v>1.174300235793859</v>
+        <v>36.87</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1486596816434741</v>
+        <v>0.1611967658869108</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1232567971212139</v>
+        <v>0.1602509746347995</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>count_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.00769750132908</v>
+        <v>24.50361509835194</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8717483937191367</v>
+        <v>17.93954884902253</v>
       </c>
       <c r="D45" t="n">
-        <v>1.172944365463173</v>
+        <v>36.59</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1015630193224277</v>
+        <v>4.570415882513085</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09570126441447321</v>
+        <v>2.960370400683118</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8591666666666666</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7421621621621621</v>
+        <v>11.02941176470588</v>
       </c>
       <c r="I45" t="n">
-        <v>1.136060606060606</v>
+        <v>30.19444444444444</v>
       </c>
       <c r="J45" t="n">
-        <v>1.039722222222222</v>
+        <v>22.89473684210526</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5675704412546518</v>
+        <v>1.889393939393939</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3768216820229204</v>
+        <v>1.39378964580203</v>
       </c>
       <c r="D46" t="n">
-        <v>1.172279526087002</v>
+        <v>35.56</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1425083232341872</v>
+        <v>0.796741991951835</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1474204461940654</v>
+        <v>0.4166716896446805</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4444444444444444</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7894736842105263</v>
+        <v>2.789473684210526</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6052631578947368</v>
+        <v>2.421052631578947</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_received_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6.239845826687932</v>
+        <v>0.1607852206273259</v>
       </c>
       <c r="C47" t="n">
-        <v>5.047901122127127</v>
+        <v>0.1188163248081205</v>
       </c>
       <c r="D47" t="n">
-        <v>1.123705285029684</v>
+        <v>35.32</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8935879445626359</v>
+        <v>0.04356011234554403</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8796322548198012</v>
+        <v>0.02483513913945386</v>
       </c>
       <c r="G47" t="n">
-        <v>5.277777777777778</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="H47" t="n">
-        <v>3.307692307692307</v>
+        <v>0.07294117647058823</v>
       </c>
       <c r="I47" t="n">
-        <v>7.636363636363637</v>
+        <v>0.2136842105263158</v>
       </c>
       <c r="J47" t="n">
-        <v>6.702702702702703</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_threat_per_match</t>
+          <t>count_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01007177033492823</v>
+        <v>11.69250398724083</v>
       </c>
       <c r="C48" t="n">
-        <v>0.007186543889175469</v>
+        <v>8.761812459382121</v>
       </c>
       <c r="D48" t="n">
-        <v>1.09780336461723</v>
+        <v>33.45</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002172614766123491</v>
+        <v>2.928939166341292</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002278533839630435</v>
+        <v>1.651226374042005</v>
       </c>
       <c r="G48" t="n">
-        <v>0.008055555555555555</v>
+        <v>7.763157894736842</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002307692307692307</v>
+        <v>4.941176470588236</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01368421052631579</v>
+        <v>15.18421052631579</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01105263157894737</v>
+        <v>11.1578947368421</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>support_runs_received_threat_per_match</t>
+          <t>pulling_wide_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.09574667729930889</v>
+        <v>0.01541387559808612</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07476384818969957</v>
+        <v>0.01158460081726336</v>
       </c>
       <c r="D49" t="n">
-        <v>1.076140464788464</v>
+        <v>33.05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02605573045293509</v>
+        <v>0.002067936071918651</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01480967083500978</v>
+        <v>0.002924079597126476</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06157894736842105</v>
+        <v>0.01194444444444445</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04884615384615384</v>
+        <v>0.004615384615384615</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1339473684210526</v>
+        <v>0.01722222222222222</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1071052631578947</v>
+        <v>0.01710526315789474</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_per_match</t>
+          <t>runs_in_behind_received_threat_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6389154704944179</v>
+        <v>0.1696780967570441</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4668092119949705</v>
+        <v>0.1287060918742033</v>
       </c>
       <c r="D50" t="n">
-        <v>1.0608179067574</v>
+        <v>31.83</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1611967658869108</v>
+        <v>0.03127567638187542</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1602509746347995</v>
+        <v>0.02658943881130216</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.1352631578947369</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.08756756756756758</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.2112121212121212</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.1845945945945946</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12.63383838383838</v>
+        <v>0.09417251461988305</v>
       </c>
       <c r="C51" t="n">
-        <v>10.76260943146392</v>
+        <v>0.07209158803106172</v>
       </c>
       <c r="D51" t="n">
-        <v>1.056521328532287</v>
+        <v>30.63</v>
       </c>
       <c r="E51" t="n">
-        <v>1.337709592557119</v>
+        <v>0.04443272246543032</v>
       </c>
       <c r="F51" t="n">
-        <v>1.49567329482411</v>
+        <v>0.01751926530229367</v>
       </c>
       <c r="G51" t="n">
-        <v>11.60526315789474</v>
+        <v>0.04815789473684211</v>
       </c>
       <c r="H51" t="n">
-        <v>7.384615384615385</v>
+        <v>0.04611111111111111</v>
       </c>
       <c r="I51" t="n">
-        <v>14.6969696969697</v>
+        <v>0.1563157894736842</v>
       </c>
       <c r="J51" t="n">
-        <v>13.33333333333333</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_in_sample</t>
+          <t>count_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>31.62565124933546</v>
+        <v>6.410127591706539</v>
       </c>
       <c r="C52" t="n">
-        <v>27.26498925353415</v>
+        <v>4.920358627262652</v>
       </c>
       <c r="D52" t="n">
-        <v>1.053066162530222</v>
+        <v>30.28</v>
       </c>
       <c r="E52" t="n">
-        <v>2.963694761078351</v>
+        <v>0.3355875639791827</v>
       </c>
       <c r="F52" t="n">
-        <v>3.542640656042206</v>
+        <v>0.905050512448931</v>
       </c>
       <c r="G52" t="n">
-        <v>27.27777777777778</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="H52" t="n">
-        <v>20.96153846153846</v>
+        <v>3.115384615384615</v>
       </c>
       <c r="I52" t="n">
-        <v>35.03030303030303</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>32.44736842105263</v>
+        <v>7.026315789473684</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>count_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>31.62565124933546</v>
+        <v>1.582775119617225</v>
       </c>
       <c r="C53" t="n">
-        <v>27.26498925353415</v>
+        <v>1.215709415910655</v>
       </c>
       <c r="D53" t="n">
-        <v>1.053066162530222</v>
+        <v>30.19</v>
       </c>
       <c r="E53" t="n">
-        <v>2.963694761078351</v>
+        <v>0.7297789631248081</v>
       </c>
       <c r="F53" t="n">
-        <v>3.542640656042206</v>
+        <v>0.3288077562611461</v>
       </c>
       <c r="G53" t="n">
-        <v>27.27777777777778</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H53" t="n">
-        <v>20.96153846153846</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I53" t="n">
-        <v>35.03030303030303</v>
+        <v>2.657894736842105</v>
       </c>
       <c r="J53" t="n">
-        <v>32.44736842105263</v>
+        <v>1.888888888888889</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_threat_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04955927698032962</v>
+        <v>1.196225412014886</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03972757239599345</v>
+        <v>0.9238686446116787</v>
       </c>
       <c r="D54" t="n">
-        <v>1.052236568014759</v>
+        <v>29.48</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00909323301329319</v>
+        <v>0.4053155069910093</v>
       </c>
       <c r="F54" t="n">
-        <v>0.008189542166967089</v>
+        <v>0.275707810489284</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03722222222222223</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01884615384615385</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I54" t="n">
-        <v>0.05973684210526316</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04944444444444444</v>
+        <v>1.526315789473684</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>support_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.888755980861244</v>
+        <v>0.09574667729930889</v>
       </c>
       <c r="C55" t="n">
-        <v>2.288609123361446</v>
+        <v>0.07476384818969957</v>
       </c>
       <c r="D55" t="n">
-        <v>1.048538301083817</v>
+        <v>28.07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.599646850143074</v>
+        <v>0.02605573045293509</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5616363276511405</v>
+        <v>0.01480967083500978</v>
       </c>
       <c r="G55" t="n">
-        <v>2.184210526315789</v>
+        <v>0.06157894736842105</v>
       </c>
       <c r="H55" t="n">
-        <v>1.6</v>
+        <v>0.04884615384615384</v>
       </c>
       <c r="I55" t="n">
-        <v>3.606060606060606</v>
+        <v>0.1339473684210526</v>
       </c>
       <c r="J55" t="n">
-        <v>3.378378378378379</v>
+        <v>0.1071052631578947</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>count_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2487772461456672</v>
+        <v>1.255608718766614</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1759954574041261</v>
+        <v>0.9850072331032084</v>
       </c>
       <c r="D56" t="n">
-        <v>1.011782210916323</v>
+        <v>27.47</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06318070761362575</v>
+        <v>0.3482246429293444</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07611795573018633</v>
+        <v>0.2643125223889809</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2647058823529412</v>
+        <v>1.459459459459459</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1609250398724083</v>
+        <v>2.888755980861244</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09349660363592253</v>
+        <v>2.288609123361446</v>
       </c>
       <c r="D57" t="n">
-        <v>1.011447253995833</v>
+        <v>26.22</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01852587257434432</v>
+        <v>0.599646850143074</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07025673482309791</v>
+        <v>0.5616363276511405</v>
       </c>
       <c r="G57" t="n">
-        <v>0.131578947368421</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1818181818181818</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2368421052631579</v>
+        <v>3.378378378378379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_targeted_threat_per_match</t>
+          <t>count_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01890988835725678</v>
+        <v>4.641919191919192</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01551567903936325</v>
+        <v>3.681713495041669</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9903048751487964</v>
+        <v>26.08</v>
       </c>
       <c r="E58" t="n">
-        <v>0.002917068769765296</v>
+        <v>1.960578610630171</v>
       </c>
       <c r="F58" t="n">
-        <v>0.003444434915298458</v>
+        <v>1.000767124053782</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01416666666666667</v>
+        <v>2.552631578947369</v>
       </c>
       <c r="H58" t="n">
-        <v>0.007307692307692308</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02131578947368421</v>
+        <v>6.947368421052632</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02171428571428571</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_received_per_match</t>
+          <t>runs_in_behind_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9.875784157363105</v>
+        <v>0.3566004784688995</v>
       </c>
       <c r="C59" t="n">
-        <v>8.250683478020939</v>
+        <v>0.2834167920088973</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9832677573530993</v>
+        <v>25.82</v>
       </c>
       <c r="E59" t="n">
-        <v>2.318992032277905</v>
+        <v>0.05298306553535625</v>
       </c>
       <c r="F59" t="n">
-        <v>1.317922039113902</v>
+        <v>0.04672825205031983</v>
       </c>
       <c r="G59" t="n">
-        <v>6.842105263157895</v>
+        <v>0.3081578947368421</v>
       </c>
       <c r="H59" t="n">
-        <v>5.647058823529412</v>
+        <v>0.2146153846153846</v>
       </c>
       <c r="I59" t="n">
-        <v>12.42424242424242</v>
+        <v>0.4384848484848485</v>
       </c>
       <c r="J59" t="n">
-        <v>10.26315789473684</v>
+        <v>0.3766666666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_received_per_match</t>
+          <t>count_dangerous_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.26735778841042</v>
+        <v>1.189101541733121</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8832013720249015</v>
+        <v>0.9528868323295566</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9637836080968663</v>
+        <v>24.79</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5530026459062097</v>
+        <v>0.2435323081993671</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3357375580163098</v>
+        <v>0.2400878738984165</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="I60" t="n">
-        <v>1.894736842105263</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="J60" t="n">
-        <v>1.868421052631579</v>
+        <v>1.473684210526316</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.235406698564593</v>
+        <v>0.04955927698032962</v>
       </c>
       <c r="C61" t="n">
-        <v>1.842267847577445</v>
+        <v>0.03972757239599345</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9630658917871042</v>
+        <v>24.75</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4477579669314877</v>
+        <v>0.00909323301329319</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3836469191037405</v>
+        <v>0.008189542166967089</v>
       </c>
       <c r="G61" t="n">
-        <v>1.605263157894737</v>
+        <v>0.03722222222222223</v>
       </c>
       <c r="H61" t="n">
-        <v>1.230769230769231</v>
+        <v>0.01884615384615385</v>
       </c>
       <c r="I61" t="n">
-        <v>2.75</v>
+        <v>0.05973684210526316</v>
       </c>
       <c r="J61" t="n">
-        <v>2.763157894736842</v>
+        <v>0.04944444444444444</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_threat_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.08378389154704943</v>
+        <v>16.50730994152047</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0699325293670495</v>
+        <v>13.28756810632972</v>
       </c>
       <c r="D62" t="n">
-        <v>0.958128109956542</v>
+        <v>24.23</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01001177584713044</v>
+        <v>0.9806781722398074</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01405253013233697</v>
+        <v>2.108957235659546</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07138888888888889</v>
+        <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>0.045</v>
+        <v>9.076923076923077</v>
       </c>
       <c r="I62" t="n">
-        <v>0.095</v>
+        <v>17.60526315789474</v>
       </c>
       <c r="J62" t="n">
-        <v>0.08914285714285715</v>
+        <v>17.47368421052632</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.255608718766614</v>
+        <v>6.239845826687932</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9850072331032084</v>
+        <v>5.047901122127127</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9548064710052774</v>
+        <v>23.61</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3482246429293444</v>
+        <v>0.8935879445626359</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2643125223889809</v>
+        <v>0.8796322548198012</v>
       </c>
       <c r="G63" t="n">
-        <v>0.868421052631579</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5135135135135135</v>
+        <v>3.307692307692307</v>
       </c>
       <c r="I63" t="n">
-        <v>1.757575757575758</v>
+        <v>7.636363636363637</v>
       </c>
       <c r="J63" t="n">
-        <v>1.459459459459459</v>
+        <v>6.702702702702703</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_targeted_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.889393939393939</v>
+        <v>2.138649654439128</v>
       </c>
       <c r="C64" t="n">
-        <v>1.39378964580203</v>
+        <v>1.731347036997192</v>
       </c>
       <c r="D64" t="n">
-        <v>0.92960292631046</v>
+        <v>23.53</v>
       </c>
       <c r="E64" t="n">
-        <v>0.796741991951835</v>
+        <v>0.3744843931648684</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4166716896446805</v>
+        <v>0.3421183628812165</v>
       </c>
       <c r="G64" t="n">
-        <v>1.166666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8888888888888888</v>
+        <v>1.085714285714286</v>
       </c>
       <c r="I64" t="n">
-        <v>2.789473684210526</v>
+        <v>2.527777777777778</v>
       </c>
       <c r="J64" t="n">
-        <v>2.421052631578947</v>
+        <v>2.541666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_received_per_match</t>
+          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.189101541733121</v>
+        <v>0.1676294524189261</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9528868323295566</v>
+        <v>0.1360603000220647</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9250376461248725</v>
+        <v>23.2</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2435323081993671</v>
+        <v>0.03816570003531523</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2400878738984165</v>
+        <v>0.0226078902623752</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.1244736842105263</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="I65" t="n">
-        <v>1.578947368421053</v>
+        <v>0.213030303030303</v>
       </c>
       <c r="J65" t="n">
-        <v>1.473684210526316</v>
+        <v>0.18125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
+          <t>count_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.06504518872939927</v>
+        <v>7.180834662413609</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03208811863610625</v>
+        <v>5.836044203118507</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9076608609400234</v>
+        <v>23.04</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05404550961179678</v>
+        <v>0.3890575492131784</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02915519717854527</v>
+        <v>0.9626624363982835</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>3.692307692307693</v>
       </c>
       <c r="I66" t="n">
-        <v>0.131578947368421</v>
+        <v>7.611111111111111</v>
       </c>
       <c r="J66" t="n">
-        <v>0.08333333333333333</v>
+        <v>7.894736842105263</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>14.19114832535885</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C67" t="n">
-        <v>12.36036894087977</v>
+        <v>0.0137468671679198</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9069511263314931</v>
+        <v>22.79</v>
       </c>
       <c r="E67" t="n">
-        <v>4.018394239888528</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F67" t="n">
-        <v>1.750690583343344</v>
+        <v>0.02129033999860699</v>
       </c>
       <c r="G67" t="n">
-        <v>8.789473684210526</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>8.828571428571429</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>19.6969696969697</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J67" t="n">
-        <v>15.97368421052632</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_in_sample</t>
+          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>55.0334928229665</v>
+        <v>6.110021265284423</v>
       </c>
       <c r="C68" t="n">
-        <v>51.07002133321019</v>
+        <v>4.982115691542936</v>
       </c>
       <c r="D68" t="n">
-        <v>0.905166334247578</v>
+        <v>22.64</v>
       </c>
       <c r="E68" t="n">
-        <v>8.842298859496832</v>
+        <v>0.917109540192699</v>
       </c>
       <c r="F68" t="n">
-        <v>3.884576039861682</v>
+        <v>0.9447104675515823</v>
       </c>
       <c r="G68" t="n">
-        <v>42.02631578947368</v>
+        <v>4.973684210526316</v>
       </c>
       <c r="H68" t="n">
-        <v>45.17142857142857</v>
+        <v>3.8</v>
       </c>
       <c r="I68" t="n">
-        <v>66.27272727272727</v>
+        <v>7.303030303030303</v>
       </c>
       <c r="J68" t="n">
-        <v>59.23684210526316</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_per_match</t>
+          <t>pulling_wide_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>55.0334928229665</v>
+        <v>0.01890988835725678</v>
       </c>
       <c r="C69" t="n">
-        <v>51.07002133321019</v>
+        <v>0.01551567903936325</v>
       </c>
       <c r="D69" t="n">
-        <v>0.905166334247578</v>
+        <v>21.88</v>
       </c>
       <c r="E69" t="n">
-        <v>8.842298859496832</v>
+        <v>0.002917068769765296</v>
       </c>
       <c r="F69" t="n">
-        <v>3.884576039861682</v>
+        <v>0.003444434915298458</v>
       </c>
       <c r="G69" t="n">
-        <v>42.02631578947368</v>
+        <v>0.01416666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>45.17142857142857</v>
+        <v>0.007307692307692308</v>
       </c>
       <c r="I69" t="n">
-        <v>66.27272727272727</v>
+        <v>0.02131578947368421</v>
       </c>
       <c r="J69" t="n">
-        <v>59.23684210526316</v>
+        <v>0.02171428571428571</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_targeted_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>11.66584263689527</v>
+        <v>0.07256778309409888</v>
       </c>
       <c r="C70" t="n">
-        <v>10.074850582219</v>
+        <v>0.09229862410976962</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9003313646869413</v>
+        <v>-21.38</v>
       </c>
       <c r="E70" t="n">
-        <v>2.369260787033432</v>
+        <v>0.04340490091569245</v>
       </c>
       <c r="F70" t="n">
-        <v>1.53249386062638</v>
+        <v>0.06334011890589335</v>
       </c>
       <c r="G70" t="n">
-        <v>8.578947368421053</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="H70" t="n">
-        <v>7.205882352941177</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>14.42424242424242</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J70" t="n">
-        <v>12.10526315789474</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_received_per_match</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.04925571504518873</v>
+        <v>2.235406698564593</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02178253441411336</v>
+        <v>1.842267847577445</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8953229620716904</v>
+        <v>21.34</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03925712581767262</v>
+        <v>0.4477579669314877</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02548946540803562</v>
+        <v>0.3836469191037405</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1052631578947368</v>
+        <v>2.75</v>
       </c>
       <c r="J71" t="n">
-        <v>0.08108108108108109</v>
+        <v>2.763157894736842</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_targeted_per_match</t>
+          <t>pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5.709117490696437</v>
+        <v>0.08378389154704943</v>
       </c>
       <c r="C72" t="n">
-        <v>4.925580761757232</v>
+        <v>0.0699325293670495</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8939858265097537</v>
+        <v>19.81</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8538214324451984</v>
+        <v>0.01001177584713044</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8709686430457627</v>
+        <v>0.01405253013233697</v>
       </c>
       <c r="G72" t="n">
-        <v>4.842105263157895</v>
+        <v>0.07138888888888889</v>
       </c>
       <c r="H72" t="n">
-        <v>3.269230769230769</v>
+        <v>0.045</v>
       </c>
       <c r="I72" t="n">
-        <v>6.757575757575758</v>
+        <v>0.095</v>
       </c>
       <c r="J72" t="n">
-        <v>6.657142857142857</v>
+        <v>0.08914285714285715</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2507177033492823</v>
+        <v>0.2331557682083998</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1590051249493974</v>
+        <v>0.1946773425383332</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8914248448386057</v>
+        <v>19.77</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09731312134245111</v>
+        <v>0.04330980463800206</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09874544844503663</v>
+        <v>0.02587580795435582</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1876315789473684</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.1368571428571429</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.2796969696969697</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.2410526315789474</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>count_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.090855927698033</v>
+        <v>9.875784157363105</v>
       </c>
       <c r="C74" t="n">
-        <v>1.751288042712191</v>
+        <v>8.250683478020939</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8834821824907717</v>
+        <v>19.7</v>
       </c>
       <c r="E74" t="n">
-        <v>0.413701985239544</v>
+        <v>2.318992032277905</v>
       </c>
       <c r="F74" t="n">
-        <v>0.386799156805913</v>
+        <v>1.317922039113902</v>
       </c>
       <c r="G74" t="n">
-        <v>1.552631578947368</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="H74" t="n">
-        <v>1.192307692307692</v>
+        <v>5.647058823529412</v>
       </c>
       <c r="I74" t="n">
-        <v>2.583333333333333</v>
+        <v>12.42424242424242</v>
       </c>
       <c r="J74" t="n">
-        <v>2.684210526315789</v>
+        <v>10.26315789473684</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09417251461988305</v>
+        <v>3.101887293992557</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07209158803106172</v>
+        <v>2.591828157725991</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8770283790165582</v>
+        <v>19.68</v>
       </c>
       <c r="E75" t="n">
-        <v>0.04443272246543032</v>
+        <v>0.496537503922399</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01751926530229367</v>
+        <v>0.3806821816503352</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04815789473684211</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="H75" t="n">
-        <v>0.04611111111111111</v>
+        <v>1.742857142857143</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1563157894736842</v>
+        <v>3.75</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1166666666666667</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>support_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1237913343965975</v>
+        <v>12.32400318979267</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1047038671832789</v>
+        <v>10.30823643566678</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8632658559870358</v>
+        <v>19.55</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02474833020498814</v>
+        <v>0.8837352411906336</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02077817289991378</v>
+        <v>1.355567944041469</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0886842105263158</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0673076923076923</v>
+        <v>8.028571428571428</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1573684210526316</v>
+        <v>13.21212121212121</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1407894736842105</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.196225412014886</v>
+        <v>2.090855927698033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9238686446116786</v>
+        <v>1.751288042712191</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8573048057909356</v>
+        <v>19.39</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4053155069910093</v>
+        <v>0.413701985239544</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275707810489284</v>
+        <v>0.386799156805913</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7894736842105263</v>
+        <v>1.552631578947368</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5294117647058824</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="I77" t="n">
-        <v>1.868421052631579</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="J77" t="n">
-        <v>1.526315789473684</v>
+        <v>2.684210526315789</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
+          <t>count_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.483280170122276</v>
+        <v>0.1699893673577884</v>
       </c>
       <c r="C78" t="n">
-        <v>4.740559079134931</v>
+        <v>0.14296735053701</v>
       </c>
       <c r="D78" t="n">
-        <v>0.855325658256492</v>
+        <v>18.9</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8713497649369731</v>
+        <v>0.07606055979778513</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8882573413097274</v>
+        <v>0.07324221242898331</v>
       </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H78" t="n">
-        <v>3.153846153846154</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>6.575757575757576</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="J78" t="n">
-        <v>6.485714285714286</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>support_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>18.57286018075492</v>
+        <v>0.1237913343965975</v>
       </c>
       <c r="C79" t="n">
-        <v>16.69035566015442</v>
+        <v>0.1047038671832789</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8416593829100643</v>
+        <v>18.23</v>
       </c>
       <c r="E79" t="n">
-        <v>4.40752280950431</v>
+        <v>0.02474833020498814</v>
       </c>
       <c r="F79" t="n">
-        <v>2.008154315611007</v>
+        <v>0.02077817289991378</v>
       </c>
       <c r="G79" t="n">
-        <v>12.6578947368421</v>
+        <v>0.0886842105263158</v>
       </c>
       <c r="H79" t="n">
-        <v>12.68571428571429</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="I79" t="n">
-        <v>24.42424242424243</v>
+        <v>0.1573684210526316</v>
       </c>
       <c r="J79" t="n">
-        <v>20.97368421052632</v>
+        <v>0.1407894736842105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.582775119617225</v>
+        <v>1.507123870281765</v>
       </c>
       <c r="C80" t="n">
-        <v>1.215709415910655</v>
+        <v>1.276747437227314</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8416081617550293</v>
+        <v>18.04</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7297789631248081</v>
+        <v>0.4252830270411392</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3288077562611461</v>
+        <v>0.3072461484042395</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7105263157894737</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="I80" t="n">
-        <v>2.657894736842105</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="J80" t="n">
-        <v>1.888888888888889</v>
+        <v>1.842105263157895</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_in_sample</t>
+          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10.09973418394471</v>
+        <v>0.1294790005316321</v>
       </c>
       <c r="C81" t="n">
-        <v>8.777814870461928</v>
+        <v>0.1578801093816574</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8015950003267095</v>
+        <v>-17.99</v>
       </c>
       <c r="E81" t="n">
-        <v>1.652656525949877</v>
+        <v>0.06979015591657083</v>
       </c>
       <c r="F81" t="n">
-        <v>1.636870515996686</v>
+        <v>0.09671950371610707</v>
       </c>
       <c r="G81" t="n">
-        <v>8.878787878787879</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H81" t="n">
-        <v>5.382352941176471</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="I81" t="n">
-        <v>12.63888888888889</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="J81" t="n">
-        <v>11.22857142857143</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>10.09973418394471</v>
+        <v>12.63383838383838</v>
       </c>
       <c r="C82" t="n">
-        <v>8.777814870461928</v>
+        <v>10.76260943146392</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8015950003267095</v>
+        <v>17.39</v>
       </c>
       <c r="E82" t="n">
-        <v>1.652656525949877</v>
+        <v>1.337709592557119</v>
       </c>
       <c r="F82" t="n">
-        <v>1.636870515996686</v>
+        <v>1.49567329482411</v>
       </c>
       <c r="G82" t="n">
-        <v>8.878787878787879</v>
+        <v>11.60526315789474</v>
       </c>
       <c r="H82" t="n">
-        <v>5.382352941176471</v>
+        <v>7.384615384615385</v>
       </c>
       <c r="I82" t="n">
-        <v>12.63888888888889</v>
+        <v>14.6969696969697</v>
       </c>
       <c r="J82" t="n">
-        <v>11.22857142857143</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2245614035087719</v>
+        <v>1.037533227006911</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1633053362619926</v>
+        <v>0.8840712118575895</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7962389351549595</v>
+        <v>17.36</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09375324168215329</v>
+        <v>0.146835000062246</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07766236884040688</v>
+        <v>0.3053415926675488</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H83" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2972972972972973</v>
+        <v>1.526315789473684</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2353003721424774</v>
+        <v>1.7050225943647</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1554686214128939</v>
+        <v>1.462017153725358</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7850886671058774</v>
+        <v>16.62</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1253309874930358</v>
+        <v>0.4962385762939048</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09647037245776822</v>
+        <v>0.3141324208423985</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05263157894736842</v>
+        <v>1.243684210526316</v>
       </c>
       <c r="H84" t="n">
-        <v>0.02941176470588235</v>
+        <v>1.111538461538462</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3636363636363636</v>
+        <v>2.473636363636364</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3888888888888889</v>
+        <v>2.128421052631579</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>cross_receiver_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.507123870281765</v>
+        <v>0.1621257309941521</v>
       </c>
       <c r="C85" t="n">
-        <v>1.276747437227314</v>
+        <v>0.1391846416330936</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7848505118410606</v>
+        <v>16.48</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4252830270411392</v>
+        <v>0.03976040766190991</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3072461484042395</v>
+        <v>0.04233066063748865</v>
       </c>
       <c r="G85" t="n">
-        <v>1.052631578947368</v>
+        <v>0.1147368421052632</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8</v>
+        <v>0.08730769230769231</v>
       </c>
       <c r="I85" t="n">
-        <v>2.181818181818182</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="J85" t="n">
-        <v>1.842105263157895</v>
+        <v>0.2323684210526316</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_per_match</t>
+          <t>count_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.641919191919192</v>
+        <v>17.22105263157895</v>
       </c>
       <c r="C86" t="n">
-        <v>3.681713495041668</v>
+        <v>14.79164368634957</v>
       </c>
       <c r="D86" t="n">
-        <v>0.779472086431626</v>
+        <v>16.42</v>
       </c>
       <c r="E86" t="n">
-        <v>1.960578610630171</v>
+        <v>2.254802005360134</v>
       </c>
       <c r="F86" t="n">
-        <v>1.000767124053782</v>
+        <v>1.708350787195889</v>
       </c>
       <c r="G86" t="n">
-        <v>2.552631578947369</v>
+        <v>14.36111111111111</v>
       </c>
       <c r="H86" t="n">
-        <v>2.388888888888889</v>
+        <v>12.38235294117647</v>
       </c>
       <c r="I86" t="n">
-        <v>6.947368421052632</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="J86" t="n">
-        <v>6.083333333333333</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_in_sample</t>
+          <t>cross_receiver_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.641919191919192</v>
+        <v>0.4489463051568315</v>
       </c>
       <c r="C87" t="n">
-        <v>3.681713495041669</v>
+        <v>0.3863205116064249</v>
       </c>
       <c r="D87" t="n">
-        <v>0.779472086431626</v>
+        <v>16.21</v>
       </c>
       <c r="E87" t="n">
-        <v>1.960578610630171</v>
+        <v>0.1214326827953172</v>
       </c>
       <c r="F87" t="n">
-        <v>1.000767124053782</v>
+        <v>0.1000294934885523</v>
       </c>
       <c r="G87" t="n">
-        <v>2.552631578947369</v>
+        <v>0.303421052631579</v>
       </c>
       <c r="H87" t="n">
-        <v>2.388888888888889</v>
+        <v>0.2246153846153846</v>
       </c>
       <c r="I87" t="n">
-        <v>6.947368421052632</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="J87" t="n">
-        <v>6.083333333333333</v>
+        <v>0.580857142857143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_goal_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1321371610845295</v>
+        <v>31.62565124933546</v>
       </c>
       <c r="C88" t="n">
-        <v>0.08537366373279684</v>
+        <v>27.26498925353415</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7791316130543701</v>
+        <v>15.99</v>
       </c>
       <c r="E88" t="n">
-        <v>0.08510527662611968</v>
+        <v>2.963694761078351</v>
       </c>
       <c r="F88" t="n">
-        <v>0.05575785082160962</v>
+        <v>3.542640656042206</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02631578947368421</v>
+        <v>27.27777777777778</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02702702702702703</v>
+        <v>20.96153846153846</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2631578947368421</v>
+        <v>35.03030303030303</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2368421052631579</v>
+        <v>32.44736842105263</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
+          <t>count_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03851674641148325</v>
+        <v>5.709117490696437</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02426456974444591</v>
+        <v>4.925580761757232</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7542472332656507</v>
+        <v>15.91</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01432832373646862</v>
+        <v>0.8538214324451984</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02165258693307119</v>
+        <v>0.8709686430457627</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02631578947368421</v>
+        <v>4.842105263157895</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>3.269230769230769</v>
       </c>
       <c r="I89" t="n">
-        <v>0.05555555555555555</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="J89" t="n">
-        <v>0.08823529411764706</v>
+        <v>6.657142857142857</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_per_match</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>21.77347155768209</v>
+        <v>1.678229665071771</v>
       </c>
       <c r="C90" t="n">
-        <v>19.16856160791145</v>
+        <v>1.448975451994028</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7498063421217834</v>
+        <v>15.82</v>
       </c>
       <c r="E90" t="n">
-        <v>4.74374069321883</v>
+        <v>0.2268988782847069</v>
       </c>
       <c r="F90" t="n">
-        <v>3.193278687912127</v>
+        <v>0.3666752740393601</v>
       </c>
       <c r="G90" t="n">
-        <v>17</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="H90" t="n">
-        <v>14.30769230769231</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="I90" t="n">
-        <v>28.3030303030303</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="J90" t="n">
-        <v>24.68421052631579</v>
+        <v>2.078947368421053</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_in_sample</t>
+          <t>count_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>21.77347155768209</v>
+        <v>11.66584263689527</v>
       </c>
       <c r="C91" t="n">
-        <v>19.16856160791145</v>
+        <v>10.074850582219</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7498063421217834</v>
+        <v>15.79</v>
       </c>
       <c r="E91" t="n">
-        <v>4.74374069321883</v>
+        <v>2.369260787033432</v>
       </c>
       <c r="F91" t="n">
-        <v>3.193278687912127</v>
+        <v>1.53249386062638</v>
       </c>
       <c r="G91" t="n">
-        <v>17</v>
+        <v>8.578947368421053</v>
       </c>
       <c r="H91" t="n">
-        <v>14.30769230769231</v>
+        <v>7.205882352941177</v>
       </c>
       <c r="I91" t="n">
-        <v>28.3030303030303</v>
+        <v>14.42424242424242</v>
       </c>
       <c r="J91" t="n">
-        <v>24.68421052631579</v>
+        <v>12.10526315789474</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7.109383306751728</v>
+        <v>5.483280170122276</v>
       </c>
       <c r="C92" t="n">
-        <v>6.385488865179269</v>
+        <v>4.740559079134931</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7459942506383959</v>
+        <v>15.67</v>
       </c>
       <c r="E92" t="n">
-        <v>1.161674334033671</v>
+        <v>0.8713497649369731</v>
       </c>
       <c r="F92" t="n">
-        <v>1.009981621475412</v>
+        <v>0.8882573413097274</v>
       </c>
       <c r="G92" t="n">
-        <v>5.894736842105263</v>
+        <v>4.5</v>
       </c>
       <c r="H92" t="n">
-        <v>4.945945945945946</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="I92" t="n">
-        <v>8.878787878787879</v>
+        <v>6.575757575757576</v>
       </c>
       <c r="J92" t="n">
-        <v>8.210526315789474</v>
+        <v>6.485714285714286</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_shot_per_match</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.204040404040404</v>
+        <v>1.00769750132908</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1436146002090274</v>
+        <v>0.8717483937191367</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7427813527082076</v>
+        <v>15.59</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1027550719386078</v>
+        <v>0.1015630193224277</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08289199716448238</v>
+        <v>0.09570126441447321</v>
       </c>
       <c r="G93" t="n">
-        <v>0.131578947368421</v>
+        <v>0.8591666666666666</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.7421621621621621</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3684210526315789</v>
+        <v>1.136060606060606</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2647058823529412</v>
+        <v>1.039722222222222</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01658692185007974</v>
+        <v>0.8037418926103136</v>
       </c>
       <c r="C94" t="n">
-        <v>0.005455455455455455</v>
+        <v>0.6963516913470473</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7184212081070998</v>
+        <v>15.42</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02404540946696574</v>
+        <v>0.09090443698623195</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01129505392611557</v>
+        <v>0.07029692593857022</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.5602857142857143</v>
       </c>
       <c r="I94" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.916969696969697</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.8616666666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>20.90313662945242</v>
+        <v>10.09973418394471</v>
       </c>
       <c r="C95" t="n">
-        <v>18.50066851085427</v>
+        <v>8.777814870461928</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7172055290186773</v>
+        <v>15.06</v>
       </c>
       <c r="E95" t="n">
-        <v>4.622369856057999</v>
+        <v>1.652656525949877</v>
       </c>
       <c r="F95" t="n">
-        <v>3.156198708810297</v>
+        <v>1.636870515996686</v>
       </c>
       <c r="G95" t="n">
-        <v>16.52631578947368</v>
+        <v>8.878787878787879</v>
       </c>
       <c r="H95" t="n">
-        <v>13.96153846153846</v>
+        <v>5.382352941176471</v>
       </c>
       <c r="I95" t="n">
-        <v>27.36363636363636</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="J95" t="n">
-        <v>24.13157894736842</v>
+        <v>11.22857142857143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.7050225943647</v>
+        <v>14.19114832535885</v>
       </c>
       <c r="C96" t="n">
-        <v>1.462017153725358</v>
+        <v>12.36036894087977</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7085013937317882</v>
+        <v>14.81</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4962385762939048</v>
+        <v>4.018394239888528</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3141324208423985</v>
+        <v>1.750690583343344</v>
       </c>
       <c r="G96" t="n">
-        <v>1.243684210526316</v>
+        <v>8.789473684210526</v>
       </c>
       <c r="H96" t="n">
-        <v>1.111538461538462</v>
+        <v>8.828571428571429</v>
       </c>
       <c r="I96" t="n">
-        <v>2.473636363636364</v>
+        <v>19.6969696969697</v>
       </c>
       <c r="J96" t="n">
-        <v>2.128421052631579</v>
+        <v>15.97368421052632</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>support_runs_threat_per_match</t>
+          <t>count_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.4689072301967039</v>
+        <v>21.77347155768209</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4296814723766736</v>
+        <v>19.16856160791145</v>
       </c>
       <c r="D97" t="n">
-        <v>0.706495527895255</v>
+        <v>13.59</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07816800023539332</v>
+        <v>4.74374069321883</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0575769020550553</v>
+        <v>3.193278687912127</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3673684210526316</v>
+        <v>17</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3353846153846154</v>
+        <v>14.30769230769231</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5763636363636363</v>
+        <v>28.3030303030303</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5281578947368422</v>
+        <v>24.68421052631579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.678229665071771</v>
+        <v>20.90313662945242</v>
       </c>
       <c r="C98" t="n">
-        <v>1.448975451994028</v>
+        <v>18.50066851085427</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7034095502802293</v>
+        <v>12.99</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2268988782847069</v>
+        <v>4.622369856057999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3666752740393601</v>
+        <v>3.156198708810297</v>
       </c>
       <c r="G98" t="n">
-        <v>1.394736842105263</v>
+        <v>16.52631578947368</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8378378378378378</v>
+        <v>13.96153846153846</v>
       </c>
       <c r="I98" t="n">
-        <v>1.973684210526316</v>
+        <v>27.36363636363636</v>
       </c>
       <c r="J98" t="n">
-        <v>2.078947368421053</v>
+        <v>24.13157894736842</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1902179691653376</v>
+        <v>7.109383306751728</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1276270691131372</v>
+        <v>6.385488865179268</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6896384374755489</v>
+        <v>11.34</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07006619529674329</v>
+        <v>1.161674334033671</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1002767441457505</v>
+        <v>1.009981621475412</v>
       </c>
       <c r="G99" t="n">
-        <v>0.07894736842105263</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>4.945945945945946</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2727272727272727</v>
+        <v>8.878787878787879</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3428571428571429</v>
+        <v>8.210526315789474</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.02264752791068581</v>
+        <v>18.57286018075492</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01214882950177068</v>
+        <v>16.69035566015442</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6761234037828134</v>
+        <v>11.28</v>
       </c>
       <c r="E100" t="n">
-        <v>0.02496789704353155</v>
+        <v>4.40752280950431</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0157599146511331</v>
+        <v>2.008154315611007</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>12.6578947368421</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>12.68571428571429</v>
       </c>
       <c r="I100" t="n">
-        <v>0.06060606060606061</v>
+        <v>24.42424242424243</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04166666666666666</v>
+        <v>20.97368421052632</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
+          <t>count_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01161616161616162</v>
+        <v>2.123365231259968</v>
       </c>
       <c r="C101" t="n">
-        <v>0.003659147869674185</v>
+        <v>1.935329818301955</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6666666666666665</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01593112151069445</v>
+        <v>0.5718593535152152</v>
       </c>
       <c r="F101" t="n">
-        <v>0.009665870957924205</v>
+        <v>0.4665973045974964</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0303030303030303</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02857142857142857</v>
+        <v>2.777777777777778</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_received_per_match</t>
+          <t>support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01161616161616162</v>
+        <v>0.4689072301967039</v>
       </c>
       <c r="C102" t="n">
-        <v>0.003659147869674185</v>
+        <v>0.4296814723766736</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6666666666666665</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01593112151069445</v>
+        <v>0.07816800023539332</v>
       </c>
       <c r="F102" t="n">
-        <v>0.009665870957924205</v>
+        <v>0.05757690205505529</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.3673684210526316</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.3353846153846154</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.5763636363636363</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5281578947368422</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_targeted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.4489463051568315</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3863205116064249</v>
+        <v>0.0183908233753435</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6398402363511736</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1214326827953172</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1000294934885523</v>
+        <v>0.02188008093373701</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3034210526315789</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2246153846153846</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J103" t="n">
-        <v>0.580857142857143</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.037533227006911</v>
+        <v>0.08569909622541202</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8840712118575896</v>
+        <v>0.07942198279659579</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6390205640894511</v>
+        <v>7.9</v>
       </c>
       <c r="E104" t="n">
-        <v>0.146835000062246</v>
+        <v>0.08226499096699409</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3053415926675488</v>
+        <v>0.05261543404094311</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8157894736842105</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1.181818181818182</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="J104" t="n">
-        <v>1.526315789473684</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_received_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1621257309941521</v>
+        <v>55.0334928229665</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1391846416330936</v>
+        <v>51.07002133321019</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6060346233494153</v>
+        <v>7.76</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03976040766190991</v>
+        <v>8.842298859496832</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04233066063748865</v>
+        <v>3.884576039861682</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1147368421052632</v>
+        <v>42.02631578947368</v>
       </c>
       <c r="H105" t="n">
-        <v>0.08730769230769231</v>
+        <v>45.17142857142857</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1966666666666667</v>
+        <v>66.27272727272727</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2323684210526316</v>
+        <v>59.23684210526316</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_support_runs_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.05956937799043063</v>
+        <v>35.92812333864966</v>
       </c>
       <c r="C106" t="n">
-        <v>0.03981635107022104</v>
+        <v>33.88332973380961</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5897678246195885</v>
+        <v>6.03</v>
       </c>
       <c r="E106" t="n">
-        <v>0.03296499566453829</v>
+        <v>6.092410964248513</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03949984891898353</v>
+        <v>3.635512848420735</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02777777777777778</v>
+        <v>29.10526315789474</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>26.38461538461538</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1052631578947368</v>
+        <v>45.42424242424242</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1176470588235294</v>
+        <v>39.44736842105263</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>35.92812333864966</v>
+        <v>2.563928761297182</v>
       </c>
       <c r="C107" t="n">
-        <v>33.88332973380961</v>
+        <v>2.435432190091633</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5718580401239695</v>
+        <v>5.28</v>
       </c>
       <c r="E107" t="n">
-        <v>6.092410964248513</v>
+        <v>0.5922107746758827</v>
       </c>
       <c r="F107" t="n">
-        <v>3.635512848420735</v>
+        <v>0.512764894820873</v>
       </c>
       <c r="G107" t="n">
-        <v>29.10526315789474</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="H107" t="n">
-        <v>26.38461538461538</v>
+        <v>1.617647058823529</v>
       </c>
       <c r="I107" t="n">
-        <v>45.42424242424242</v>
+        <v>3.305555555555555</v>
       </c>
       <c r="J107" t="n">
-        <v>39.44736842105263</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_in_sample</t>
+          <t>count_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>35.92812333864966</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C108" t="n">
-        <v>33.88332973380961</v>
+        <v>0.01272944771396784</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5718580401239695</v>
+        <v>-4.78</v>
       </c>
       <c r="E108" t="n">
-        <v>6.092410964248513</v>
+        <v>0.02710385427272472</v>
       </c>
       <c r="F108" t="n">
-        <v>3.635512848420735</v>
+        <v>0.02020246296458674</v>
       </c>
       <c r="G108" t="n">
-        <v>29.10526315789474</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>26.38461538461538</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>45.42424242424242</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J108" t="n">
-        <v>39.44736842105263</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_received_per_match</t>
+          <t>pulling_half_space_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.123365231259968</v>
+        <v>0.01401382243487507</v>
       </c>
       <c r="C109" t="n">
-        <v>1.935329818301955</v>
+        <v>0.01350771071312867</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4859928187886963</v>
+        <v>3.75</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5718593535152152</v>
+        <v>0.004733384544758218</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4665973045974964</v>
+        <v>0.004369807069766409</v>
       </c>
       <c r="G109" t="n">
-        <v>1.526315789473684</v>
+        <v>0.009210526315789475</v>
       </c>
       <c r="H109" t="n">
-        <v>1.235294117647059</v>
+        <v>0.006538461538461539</v>
       </c>
       <c r="I109" t="n">
-        <v>2.888888888888889</v>
+        <v>0.02</v>
       </c>
       <c r="J109" t="n">
-        <v>2.777777777777778</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_per_match</t>
+          <t>pulling_half_space_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1699893673577884</v>
+        <v>0.01896810207336523</v>
       </c>
       <c r="C110" t="n">
-        <v>0.14296735053701</v>
+        <v>0.01925051547822446</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4757905434027205</v>
+        <v>-1.47</v>
       </c>
       <c r="E110" t="n">
-        <v>0.07606055979778513</v>
+        <v>0.004412256432500835</v>
       </c>
       <c r="F110" t="n">
-        <v>0.07324221242898331</v>
+        <v>0.005812319130930194</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.01444444444444445</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>0.008857142857142857</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.02552631578947369</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.03138888888888889</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
+          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.005555555555555555</v>
       </c>
       <c r="C111" t="n">
-        <v>0.009117237538290168</v>
+        <v>0.005510999721526037</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4573295603800235</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.01242259987499883</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01665352644916904</v>
+        <v>0.01141704701484088</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4215,349 +4214,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2.563928761297182</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2.435432190091633</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.3647047834934663</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.5922107746758827</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.512764894820873</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.921052631578947</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1.617647058823529</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.305555555555555</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.07256778309409888</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.09229862410976961</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.2810913475705226</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.04340490091569245</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.06334011890589335</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.1294790005316321</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.1578801093816574</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.2672612419124244</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.06979015591657083</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.09671950371610707</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>pulling_half_space_runs_received_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.01401382243487507</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.01350771071312867</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.2302195406498259</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.004733384544758219</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.004369807069766409</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.009210526315789473</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.006538461538461539</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.01687931951089846</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0137468671679198</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.1987615979999813</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.01547451310773831</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.02129033999860699</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.08569909622541202</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.07942198279659579</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.09844336597897055</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.08226499096699409</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.05261543404094311</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.01687931951089846</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.0183908233753435</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.09179045210953524</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.01547451310773831</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.02188008093373701</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>count_underlap_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.01212121212121212</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.01272944771396784</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.09009831711993141</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.02710385427272472</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.02020246296458674</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>pulling_half_space_runs_targeted_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.01896810207336523</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.01925051547822445</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.07201625681617016</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.004412256432500835</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.005812319130930194</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.01444444444444445</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.008857142857142857</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.02552631578947369</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.03138888888888889</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.005555555555555555</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.005510999721526037</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.01242259987499883</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.01141704701484088</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="J121" t="n">
         <v>0.02857142857142857</v>
       </c>
     </row>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_running.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01161616161616162</v>
+        <v>0.0108615328227313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003659147869674185</v>
+        <v>0.003433857524291165</v>
       </c>
       <c r="D2" t="n">
-        <v>217.46</v>
+        <v>216.31</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01593112151069445</v>
+        <v>0.01488712507852638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009665870957924205</v>
+        <v>0.009071833310878515</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02807829351363341</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02687529861442905</v>
       </c>
     </row>
     <row r="3">
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01161616161616162</v>
+        <v>0.0108615328227313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003659147869674185</v>
+        <v>0.003433857524291165</v>
       </c>
       <c r="D3" t="n">
-        <v>217.46</v>
+        <v>216.31</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01593112151069445</v>
+        <v>0.01488712507852638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009665870957924205</v>
+        <v>0.009071833310878515</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02807829351363341</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02687529861442905</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01658692185007974</v>
+        <v>0.01555592387259319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005455455455455455</v>
+        <v>0.005113523198342155</v>
       </c>
       <c r="D4" t="n">
-        <v>204.04</v>
+        <v>204.21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02404540946696574</v>
+        <v>0.02235542068578485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01129505392611557</v>
+        <v>0.01059075295256958</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04848560510654568</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02651675859142979</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1001860712387028</v>
+        <v>0.09655317402261138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03882712587046952</v>
+        <v>0.03673394037524897</v>
       </c>
       <c r="D5" t="n">
-        <v>158.03</v>
+        <v>162.84</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03983455584084358</v>
+        <v>0.03756274311197381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02987424200100699</v>
+        <v>0.0278635123278185</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05598061488711422</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1448647693040279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1103649688371581</v>
       </c>
     </row>
     <row r="6">
@@ -623,19 +623,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04925571504518873</v>
+        <v>0.0472233172996896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02178253441411336</v>
+        <v>0.02108723673236248</v>
       </c>
       <c r="D6" t="n">
-        <v>126.12</v>
+        <v>123.94</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03925712581767262</v>
+        <v>0.03741845801076487</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02548946540803562</v>
+        <v>0.02444696585426488</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -644,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1002019884516754</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07720046181477142</v>
       </c>
     </row>
     <row r="7">
@@ -657,19 +657,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06504518872939927</v>
+        <v>0.0637915906567635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03208811863610625</v>
+        <v>0.03099983758319875</v>
       </c>
       <c r="D7" t="n">
-        <v>102.71</v>
+        <v>105.78</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05404550961179678</v>
+        <v>0.0528484546826546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02915519717854527</v>
+        <v>0.0279380165008789</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1248312226959437</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08158226691589889</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002874269005847954</v>
+        <v>0.002763589936062768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001468633392008005</v>
+        <v>0.001396307562768304</v>
       </c>
       <c r="D8" t="n">
-        <v>95.70999999999999</v>
+        <v>97.92</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001009809619684448</v>
+        <v>0.0009314413697192156</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008775390295247377</v>
+        <v>0.0008239789160051311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001670977627195294</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004210526315789474</v>
+        <v>0.00403487687129256</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003157894736842105</v>
+        <v>0.00296858472027114</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003312068048910154</v>
+        <v>0.003193086327252297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001734415354693992</v>
+        <v>0.001649209708262542</v>
       </c>
       <c r="D9" t="n">
-        <v>90.95999999999999</v>
+        <v>93.61</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0007287627243812491</v>
+        <v>0.0006384707192208928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008949722167669929</v>
+        <v>0.0008394157827254227</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002222222222222222</v>
+        <v>0.002267537157401568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0005882352941176471</v>
+        <v>0.0005426135524366665</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004210526315789474</v>
+        <v>0.00403487687129256</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003947368421052632</v>
+        <v>0.003695186138432149</v>
       </c>
     </row>
     <row r="10">
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02264752791068581</v>
+        <v>0.02169735854045725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01214882950177068</v>
+        <v>0.01188876673224297</v>
       </c>
       <c r="D10" t="n">
-        <v>86.42</v>
+        <v>82.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02496789704353155</v>
+        <v>0.02387767090245377</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0157599146511331</v>
+        <v>0.01537243071109601</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05793299324250028</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03923373892300771</v>
       </c>
     </row>
     <row r="11">
@@ -793,19 +793,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.01628943236514609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009117237538290168</v>
+        <v>0.009212937810109848</v>
       </c>
       <c r="D11" t="n">
-        <v>85.14</v>
+        <v>76.81</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.0148846001233821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01665352644916904</v>
+        <v>0.01654131985349729</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02821248515317969</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04925718938017782</v>
       </c>
     </row>
     <row r="12">
@@ -827,65 +827,65 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1609250398724083</v>
+        <v>0.1533342641755257</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09349660363592253</v>
+        <v>0.08996931900077904</v>
       </c>
       <c r="D12" t="n">
-        <v>72.12</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01852587257434432</v>
+        <v>0.01731736435794207</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07025673482309791</v>
+        <v>0.06686978286259729</v>
       </c>
       <c r="G12" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1268711052221529</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1738896540316879</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2209230704328839</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_received_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4093301435406699</v>
+        <v>0.2396468972552344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2514542520270075</v>
+        <v>0.1489317044985864</v>
       </c>
       <c r="D13" t="n">
-        <v>62.79</v>
+        <v>60.91</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1726452360249429</v>
+        <v>0.09349020620323822</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08415192280206442</v>
+        <v>0.09133904277684157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1346528290757615</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.02658219436014443</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.3787641257991615</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3903931134024621</v>
       </c>
     </row>
     <row r="14">
@@ -895,541 +895,541 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0255571504518873</v>
+        <v>0.02454370937779884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01598727204563118</v>
+        <v>0.01547199386808317</v>
       </c>
       <c r="D14" t="n">
-        <v>59.86</v>
+        <v>58.63</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01000049028505908</v>
+        <v>0.00956026056754317</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005462924305397619</v>
+        <v>0.005062186318709964</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01555555555555556</v>
+        <v>0.01503779313033606</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008888888888888889</v>
+        <v>0.008605474107203519</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03631578947368421</v>
+        <v>0.03514571714252352</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03026315789473684</v>
+        <v>0.02855673545761915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_targeted_per_match</t>
+          <t>count_dangerous_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6807549175970229</v>
+        <v>0.3887730898889229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.426165852342323</v>
+        <v>0.245163276428019</v>
       </c>
       <c r="D15" t="n">
-        <v>59.74</v>
+        <v>58.58</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2649995267364523</v>
+        <v>0.1642445237405853</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1303851363465402</v>
+        <v>0.08130255240564271</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2099827692682384</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1075862155483679</v>
       </c>
       <c r="I15" t="n">
-        <v>1.052631578947368</v>
+        <v>0.5778237928695761</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4091822496236099</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
+          <t>count_dangerous_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03851674641148325</v>
+        <v>0.6533303574119167</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02426456974444591</v>
+        <v>0.4124696788355446</v>
       </c>
       <c r="D16" t="n">
-        <v>58.74</v>
+        <v>58.39</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01432832373646862</v>
+        <v>0.2578504194663099</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02165258693307119</v>
+        <v>0.1229488980793729</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.3093594861819149</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.2173753411302542</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05555555555555555</v>
+        <v>1.026580305392398</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.6488118751167822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>coming_short_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2507177033492823</v>
+        <v>0.01996817150384091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1590051249493974</v>
+        <v>0.0126597792329731</v>
       </c>
       <c r="D17" t="n">
-        <v>57.68</v>
+        <v>57.73</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09731312134245111</v>
+        <v>0.007653767118515688</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09874544844503663</v>
+        <v>0.003749904373081848</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.01104696752401657</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.007139292137276339</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.03045094232359548</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.01767663613495588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_received_threat_per_match</t>
+          <t>count_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02078468899521531</v>
+        <v>8.269718646758058</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01320592382604767</v>
+        <v>5.298214672507816</v>
       </c>
       <c r="D18" t="n">
-        <v>57.39</v>
+        <v>56.09</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008069903828416306</v>
+        <v>2.489794169416449</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003881906688473754</v>
+        <v>1.075397196060875</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01131578947368421</v>
+        <v>5.098028980784872</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007647058823529412</v>
+        <v>3.322244035956066</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03181818181818182</v>
+        <v>11.06479055512977</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01810810810810811</v>
+        <v>7.310234038412121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_received_per_match</t>
+          <t>count_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.560180754917598</v>
+        <v>0.1268876336270588</v>
       </c>
       <c r="C19" t="n">
-        <v>5.487692351113404</v>
+        <v>0.08163736245478206</v>
       </c>
       <c r="D19" t="n">
-        <v>55.99</v>
+        <v>55.43</v>
       </c>
       <c r="E19" t="n">
-        <v>2.652471556075722</v>
+        <v>0.08144957433749614</v>
       </c>
       <c r="F19" t="n">
-        <v>1.13769939141661</v>
+        <v>0.05219979213558672</v>
       </c>
       <c r="G19" t="n">
-        <v>5.184210526315789</v>
+        <v>0.02526208004598821</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>0.02419127232652842</v>
       </c>
       <c r="I19" t="n">
-        <v>11.57575757575758</v>
+        <v>0.252361210306705</v>
       </c>
       <c r="J19" t="n">
-        <v>7.684210526315789</v>
+        <v>0.2223843233498421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_goal_per_match</t>
+          <t>underlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1321371610845295</v>
+        <v>0.03834937599025301</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08537366373279684</v>
+        <v>0.02490182007157139</v>
       </c>
       <c r="D20" t="n">
-        <v>54.78</v>
+        <v>54</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08510527662611968</v>
+        <v>0.01465523414048533</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05575785082160962</v>
+        <v>0.006950964283910171</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02553030271281544</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.01669388595570355</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.05710455512890823</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.04052808232820046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_targeted_threat_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03962573099415204</v>
+        <v>0.2283584228980305</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02572860014949798</v>
+        <v>0.1484591061804211</v>
       </c>
       <c r="D21" t="n">
-        <v>54.01</v>
+        <v>53.82</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01503091285315039</v>
+        <v>0.1219100079781161</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007259701227214274</v>
+        <v>0.0943934349148578</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02578947368421053</v>
+        <v>0.05011758759666116</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0175</v>
+        <v>0.02772660336785809</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05789473684210527</v>
+        <v>0.3506337760659241</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.3860026225382219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>coming_short_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2353003721424774</v>
+        <v>0.02340611948725218</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1554686214128939</v>
+        <v>0.01540279366538995</v>
       </c>
       <c r="D22" t="n">
-        <v>51.35</v>
+        <v>51.96</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1253309874930358</v>
+        <v>0.007032970989120905</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09647037245776822</v>
+        <v>0.003944744466814891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.01596720575407844</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.009079513538916928</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.03218820394228892</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.02066875068817911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_targeted_threat_per_match</t>
+          <t>count_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02431791600212653</v>
+        <v>8.856488902235146</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01608670255837439</v>
+        <v>5.933489130157511</v>
       </c>
       <c r="D23" t="n">
-        <v>51.17</v>
+        <v>49.26</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007515940525826897</v>
+        <v>2.433031721034668</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004093864668133211</v>
+        <v>1.12714969599142</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01605263157894737</v>
+        <v>5.750990902834222</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009705882352941177</v>
+        <v>3.825754146118223</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03363636363636364</v>
+        <v>11.55701221528646</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02162162162162162</v>
+        <v>7.908088104100122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5675704412546518</v>
+        <v>0.05681228979226562</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3768216820229204</v>
+        <v>0.03810192933215571</v>
       </c>
       <c r="D24" t="n">
-        <v>50.62</v>
+        <v>49.11</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1425083232341872</v>
+        <v>0.03166013973026639</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1474204461940654</v>
+        <v>0.03747740255472385</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.0258585022755482</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.09873827165058077</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.1085005051905936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05956937799043063</v>
+        <v>5.210455429491545</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03981635107022104</v>
+        <v>3.506315194258739</v>
       </c>
       <c r="D25" t="n">
-        <v>49.61</v>
+        <v>48.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03296499566453829</v>
+        <v>0.9839529861600657</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03949984891898353</v>
+        <v>0.9923031963287506</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02777777777777778</v>
+        <v>4.31490718325677</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.184132618898196</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1052631578947368</v>
+        <v>6.624464228384948</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1176470588235294</v>
+        <v>6.495733564807252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_targeted_per_match</t>
+          <t>count_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.171398192450825</v>
+        <v>0.5443417779388704</v>
       </c>
       <c r="C26" t="n">
-        <v>6.149956647696586</v>
+        <v>0.3676900685475752</v>
       </c>
       <c r="D26" t="n">
-        <v>49.13</v>
+        <v>48.04</v>
       </c>
       <c r="E26" t="n">
-        <v>2.602371309465704</v>
+        <v>0.1303417357054947</v>
       </c>
       <c r="F26" t="n">
-        <v>1.198023267523639</v>
+        <v>0.1356359562644221</v>
       </c>
       <c r="G26" t="n">
-        <v>5.842105263157895</v>
+        <v>0.4242862332515241</v>
       </c>
       <c r="H26" t="n">
-        <v>4.029411764705882</v>
+        <v>0.02751620398679222</v>
       </c>
       <c r="I26" t="n">
-        <v>12.09090909090909</v>
+        <v>0.7507947158712036</v>
       </c>
       <c r="J26" t="n">
-        <v>8.315789473684211</v>
+        <v>0.5768570784541197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1902179691653376</v>
+        <v>5.385738434492062</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1276270691131372</v>
+        <v>3.639032801041</v>
       </c>
       <c r="D27" t="n">
-        <v>49.04</v>
+        <v>48</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07006619529674329</v>
+        <v>1.041369526208751</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1002767441457505</v>
+        <v>1.002283371179423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07894736842105263</v>
+        <v>4.486817038440566</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.319687304100812</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2727272727272727</v>
+        <v>6.915031576279023</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3428571428571429</v>
+        <v>6.671467348738467</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.331100478468899</v>
+        <v>0.1814250291109226</v>
       </c>
       <c r="C28" t="n">
-        <v>3.608624054599287</v>
+        <v>0.1247918645345209</v>
       </c>
       <c r="D28" t="n">
-        <v>47.73</v>
+        <v>45.38</v>
       </c>
       <c r="E28" t="n">
-        <v>1.014313017392277</v>
+        <v>0.0658852354045555</v>
       </c>
       <c r="F28" t="n">
-        <v>1.023821040599664</v>
+        <v>0.09479819990654553</v>
       </c>
       <c r="G28" t="n">
-        <v>4.305555555555555</v>
+        <v>0.07881910805350081</v>
       </c>
       <c r="H28" t="n">
-        <v>2.294117647058823</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.694444444444445</v>
+        <v>0.2616559131388164</v>
       </c>
       <c r="J28" t="n">
-        <v>6.789473684210527</v>
+        <v>0.3288538784093079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.512945241892611</v>
+        <v>0.239755920283653</v>
       </c>
       <c r="C29" t="n">
-        <v>3.74797333328293</v>
+        <v>0.166335826130847</v>
       </c>
       <c r="D29" t="n">
-        <v>47.09</v>
+        <v>44.14</v>
       </c>
       <c r="E29" t="n">
-        <v>1.073892963302407</v>
+        <v>0.06039798430414437</v>
       </c>
       <c r="F29" t="n">
-        <v>1.03542807111313</v>
+        <v>0.07154420840113322</v>
       </c>
       <c r="G29" t="n">
-        <v>4.472222222222222</v>
+        <v>0.1795021619615148</v>
       </c>
       <c r="H29" t="n">
-        <v>2.441176470588236</v>
+        <v>0.03587830080367394</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>0.3139493106178282</v>
       </c>
       <c r="J29" t="n">
-        <v>6.973684210526316</v>
+        <v>0.2491913911424775</v>
       </c>
     </row>
     <row r="30">
@@ -1439,31 +1439,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.306406166932483</v>
+        <v>5.082247390944422</v>
       </c>
       <c r="C30" t="n">
-        <v>3.687351523435116</v>
+        <v>3.53540158098856</v>
       </c>
       <c r="D30" t="n">
-        <v>43.91</v>
+        <v>43.75</v>
       </c>
       <c r="E30" t="n">
-        <v>1.346327977834414</v>
+        <v>1.266106285964741</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7596541474994526</v>
+        <v>0.7241083481962106</v>
       </c>
       <c r="G30" t="n">
-        <v>3.552631578947369</v>
+        <v>3.457553386186152</v>
       </c>
       <c r="H30" t="n">
-        <v>1.794117647058824</v>
+        <v>1.701415062672218</v>
       </c>
       <c r="I30" t="n">
-        <v>7.052631578947368</v>
+        <v>6.760654984314604</v>
       </c>
       <c r="J30" t="n">
-        <v>4.861111111111111</v>
+        <v>4.75806602673171</v>
       </c>
     </row>
     <row r="31">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.26735778841042</v>
+        <v>1.218208016584796</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8832013720249015</v>
+        <v>0.8514421926866119</v>
       </c>
       <c r="D31" t="n">
-        <v>43.5</v>
+        <v>43.08</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5530026459062097</v>
+        <v>0.5271791899101006</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3357375580163098</v>
+        <v>0.3133450686307512</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.80262554386426</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4502559367639142</v>
       </c>
       <c r="I31" t="n">
-        <v>1.894736842105263</v>
+        <v>1.830581113649898</v>
       </c>
       <c r="J31" t="n">
-        <v>1.868421052631579</v>
+        <v>1.770640771651173</v>
       </c>
     </row>
     <row r="32">
@@ -1507,31 +1507,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.204040404040404</v>
+        <v>0.2005986205442433</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1436146002090274</v>
+        <v>0.1406430276272646</v>
       </c>
       <c r="D32" t="n">
-        <v>42.07</v>
+        <v>42.63</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1027550719386078</v>
+        <v>0.1084149362120608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08289199716448238</v>
+        <v>0.0767811526476926</v>
       </c>
       <c r="G32" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1279447018048879</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3782870350047623</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2500393633235942</v>
       </c>
     </row>
     <row r="33">
@@ -1541,31 +1541,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.7785220627325891</v>
+        <v>0.7463928979026887</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5498589209425122</v>
+        <v>0.5241726746086717</v>
       </c>
       <c r="D33" t="n">
-        <v>41.59</v>
+        <v>42.39</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2258133126291346</v>
+        <v>0.214559084974397</v>
       </c>
       <c r="F33" t="n">
-        <v>0.160572451468428</v>
+        <v>0.1521415813796419</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4691513112831923</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2607472630469453</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0.9632437208758406</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7380812376620561</v>
       </c>
     </row>
     <row r="34">
@@ -1575,167 +1575,167 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.16629452418926</v>
+        <v>12.83987467691168</v>
       </c>
       <c r="C34" t="n">
-        <v>9.306483239610175</v>
+        <v>9.047001829417592</v>
       </c>
       <c r="D34" t="n">
-        <v>41.47</v>
+        <v>41.92</v>
       </c>
       <c r="E34" t="n">
-        <v>2.35979705714161</v>
+        <v>2.333756758844214</v>
       </c>
       <c r="F34" t="n">
-        <v>2.390773760386371</v>
+        <v>2.312351170806609</v>
       </c>
       <c r="G34" t="n">
-        <v>11.13888888888889</v>
+        <v>10.99738283459159</v>
       </c>
       <c r="H34" t="n">
-        <v>6.941176470588236</v>
+        <v>6.600584215208052</v>
       </c>
       <c r="I34" t="n">
-        <v>17.08333333333333</v>
+        <v>16.7738808364213</v>
       </c>
       <c r="J34" t="n">
-        <v>16.39473684210526</v>
+        <v>15.76917630201898</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>count_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2487772461456672</v>
+        <v>3.96886244339679</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1759954574041261</v>
+        <v>2.814443222527223</v>
       </c>
       <c r="D35" t="n">
-        <v>41.35</v>
+        <v>41.02</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06318070761362575</v>
+        <v>1.188653955905876</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07611795573018633</v>
+        <v>0.5887521880335334</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1842105263157895</v>
+        <v>2.411356652814333</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03846153846153846</v>
+        <v>1.230549481428742</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3333333333333333</v>
+        <v>5.529098958999732</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2647058823529412</v>
+        <v>3.554026887468047</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_received_per_match</t>
+          <t>dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.144843168527379</v>
+        <v>0.009737768136626402</v>
       </c>
       <c r="C36" t="n">
-        <v>2.933178155190539</v>
+        <v>0.006955065248759901</v>
       </c>
       <c r="D36" t="n">
-        <v>41.31</v>
+        <v>40.01</v>
       </c>
       <c r="E36" t="n">
-        <v>1.256242769639731</v>
+        <v>0.002132340803144398</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6216883444705902</v>
+        <v>0.00228016074066688</v>
       </c>
       <c r="G36" t="n">
-        <v>2.473684210526316</v>
+        <v>0.007892370976956886</v>
       </c>
       <c r="H36" t="n">
-        <v>1.294117647058824</v>
+        <v>0.002150796243507813</v>
       </c>
       <c r="I36" t="n">
-        <v>5.763157894736842</v>
+        <v>0.01328065611773485</v>
       </c>
       <c r="J36" t="n">
-        <v>3.763157894736842</v>
+        <v>0.01055190151948413</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_threat_per_match</t>
+          <t>overlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01007177033492823</v>
+        <v>0.06559691662723803</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007186543889175469</v>
+        <v>0.04703423801051078</v>
       </c>
       <c r="D37" t="n">
-        <v>40.15</v>
+        <v>39.47</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002172614766123491</v>
+        <v>0.01569330163400764</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002278533839630435</v>
+        <v>0.01132012639320444</v>
       </c>
       <c r="G37" t="n">
-        <v>0.008055555555555555</v>
+        <v>0.04317832062407325</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002307692307692307</v>
+        <v>0.02308312542278387</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01368421052631579</v>
+        <v>0.08629308887260034</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01105263157894737</v>
+        <v>0.06236277647878544</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_targeted_threat_per_match</t>
+          <t>overlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06832987772461456</v>
+        <v>0.05126162034595401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04922976724044836</v>
+        <v>0.03696214526263544</v>
       </c>
       <c r="D38" t="n">
-        <v>38.8</v>
+        <v>38.69</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01663307124078225</v>
+        <v>0.01419356161299615</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01199298329049368</v>
+        <v>0.009593113923744231</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04421052631578947</v>
+        <v>0.03132184182285013</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02441176470588235</v>
+        <v>0.01590620677431664</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08973684210526316</v>
+        <v>0.07007091725713234</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0668421052631579</v>
+        <v>0.05192353853216369</v>
       </c>
     </row>
     <row r="39">
@@ -1745,133 +1745,133 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.07531818181818181</v>
+        <v>0.07258821936849366</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05436077565845367</v>
+        <v>0.05236229136543603</v>
       </c>
       <c r="D39" t="n">
-        <v>38.55</v>
+        <v>38.63</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01312691955729396</v>
+        <v>0.01198353796204587</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01147101625261137</v>
+        <v>0.01107734576381667</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05736842105263158</v>
+        <v>0.05619119365214294</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.0276741417741714</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09242424242424242</v>
+        <v>0.0880182198245304</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06972972972972973</v>
+        <v>0.06721041549829915</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_received_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5843434343434344</v>
+        <v>0.6181712163444252</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4221517783901684</v>
+        <v>0.4464950701310982</v>
       </c>
       <c r="D40" t="n">
-        <v>38.42</v>
+        <v>38.45</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1486596816434741</v>
+        <v>0.1509938888544949</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1232567971212139</v>
+        <v>0.1495911861844223</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.4589218446990397</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2215472121852679</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8363440174481851</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6812537884916035</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_received_threat_per_match</t>
+          <t>count_dangerous_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05345746943115363</v>
+        <v>0.5571867272114944</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03867211120554774</v>
+        <v>0.4027029557374603</v>
       </c>
       <c r="D41" t="n">
-        <v>38.23</v>
+        <v>38.36</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01489434182720722</v>
+        <v>0.1396861858462503</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01018163100257339</v>
+        <v>0.1157414881836457</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03210526315789473</v>
+        <v>0.3853418227103356</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01676470588235294</v>
+        <v>0.2248018999987785</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07263157894736842</v>
+        <v>0.6920459614671085</v>
       </c>
       <c r="J41" t="n">
-        <v>0.05470588235294118</v>
+        <v>0.5662395585903838</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2245614035087719</v>
+        <v>0.03634572454950571</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1633053362619926</v>
+        <v>0.0263415703613481</v>
       </c>
       <c r="D42" t="n">
-        <v>37.51</v>
+        <v>37.98</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09375324168215329</v>
+        <v>0.01347336313576386</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07766236884040688</v>
+        <v>0.0231848536281255</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.02550281636102013</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.05226019109148497</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.0866867928776841</v>
       </c>
     </row>
     <row r="43">
@@ -1881,65 +1881,65 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.95023923444976</v>
+        <v>1.869078189317733</v>
       </c>
       <c r="C43" t="n">
-        <v>1.418216923758719</v>
+        <v>1.356694806447072</v>
       </c>
       <c r="D43" t="n">
-        <v>37.51</v>
+        <v>37.77</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6173605037912779</v>
+        <v>0.5910169125585751</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3442188347414352</v>
+        <v>0.327674217520822</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.9747460547906094</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.814681331455434</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5</v>
+        <v>2.416969219957247</v>
       </c>
       <c r="J43" t="n">
-        <v>1.916666666666667</v>
+        <v>1.858958361015333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6389154704944179</v>
+        <v>0.2135455822917222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4668092119949705</v>
+        <v>0.1560705639876209</v>
       </c>
       <c r="D44" t="n">
-        <v>36.87</v>
+        <v>36.83</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1611967658869108</v>
+        <v>0.08986115451384043</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1602509746347995</v>
+        <v>0.07432276651669238</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.09977392064587304</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.05515988039423846</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.3207538680717995</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.2870960312867608</v>
       </c>
     </row>
     <row r="45">
@@ -1949,167 +1949,167 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24.50361509835194</v>
+        <v>23.67740582619033</v>
       </c>
       <c r="C45" t="n">
-        <v>17.93954884902253</v>
+        <v>17.3490551456289</v>
       </c>
       <c r="D45" t="n">
-        <v>36.59</v>
+        <v>36.48</v>
       </c>
       <c r="E45" t="n">
-        <v>4.570415882513085</v>
+        <v>4.223124507047757</v>
       </c>
       <c r="F45" t="n">
-        <v>2.960370400683118</v>
+        <v>2.852713569413378</v>
       </c>
       <c r="G45" t="n">
-        <v>18.94736842105263</v>
+        <v>18.63384162798026</v>
       </c>
       <c r="H45" t="n">
-        <v>11.02941176470588</v>
+        <v>10.4752065140801</v>
       </c>
       <c r="I45" t="n">
-        <v>30.19444444444444</v>
+        <v>29.09362814533207</v>
       </c>
       <c r="J45" t="n">
-        <v>22.89473684210526</v>
+        <v>21.77893805496408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_targeted_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.889393939393939</v>
+        <v>0.1541657587763265</v>
       </c>
       <c r="C46" t="n">
-        <v>1.39378964580203</v>
+        <v>0.1136060464119979</v>
       </c>
       <c r="D46" t="n">
-        <v>35.56</v>
+        <v>35.7</v>
       </c>
       <c r="E46" t="n">
-        <v>0.796741991951835</v>
+        <v>0.04093458875584099</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4166716896446805</v>
+        <v>0.02345763952267389</v>
       </c>
       <c r="G46" t="n">
-        <v>1.166666666666667</v>
+        <v>0.09229422498071589</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.0684604833043142</v>
       </c>
       <c r="I46" t="n">
-        <v>2.789473684210526</v>
+        <v>0.2047979762834873</v>
       </c>
       <c r="J46" t="n">
-        <v>2.421052631578947</v>
+        <v>0.1471645616153139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>count_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1607852206273259</v>
+        <v>1.817436933076237</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1188163248081205</v>
+        <v>1.346874007609171</v>
       </c>
       <c r="D47" t="n">
-        <v>35.32</v>
+        <v>34.94</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04356011234554403</v>
+        <v>0.7623472041385305</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02483513913945386</v>
+        <v>0.4001069460505038</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09473684210526316</v>
+        <v>1.105456542637457</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07294117647058823</v>
+        <v>0.843342617135757</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2136842105263158</v>
+        <v>2.707695353318999</v>
       </c>
       <c r="J47" t="n">
-        <v>0.155</v>
+        <v>2.298605044433457</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_per_match</t>
+          <t>pulling_wide_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>11.69250398724083</v>
+        <v>0.01481544569889946</v>
       </c>
       <c r="C48" t="n">
-        <v>8.761812459382121</v>
+        <v>0.01103554087444833</v>
       </c>
       <c r="D48" t="n">
-        <v>33.45</v>
+        <v>34.25</v>
       </c>
       <c r="E48" t="n">
-        <v>2.928939166341292</v>
+        <v>0.001895588398172171</v>
       </c>
       <c r="F48" t="n">
-        <v>1.651226374042005</v>
+        <v>0.00276867688791367</v>
       </c>
       <c r="G48" t="n">
-        <v>7.763157894736842</v>
+        <v>0.0116049101979867</v>
       </c>
       <c r="H48" t="n">
-        <v>4.941176470588236</v>
+        <v>0.004408447400535016</v>
       </c>
       <c r="I48" t="n">
-        <v>15.18421052631579</v>
+        <v>0.01633824124226394</v>
       </c>
       <c r="J48" t="n">
-        <v>11.1578947368421</v>
+        <v>0.01608073684256258</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_received_threat_per_match</t>
+          <t>count_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01541387559808612</v>
+        <v>11.19484593043833</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01158460081726336</v>
+        <v>8.389609520948017</v>
       </c>
       <c r="D49" t="n">
-        <v>33.05</v>
+        <v>33.44</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002067936071918651</v>
+        <v>2.721270690104343</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002924079597126476</v>
+        <v>1.562141676589144</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01194444444444445</v>
+        <v>7.549982552649031</v>
       </c>
       <c r="H49" t="n">
-        <v>0.004615384615384615</v>
+        <v>4.660160919879701</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01722222222222222</v>
+        <v>14.50199999652581</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01710526315789474</v>
+        <v>10.53424182492583</v>
       </c>
     </row>
     <row r="50">
@@ -2119,99 +2119,99 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1696780967570441</v>
+        <v>0.1631735608561652</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1287060918742033</v>
+        <v>0.1235074665090477</v>
       </c>
       <c r="D50" t="n">
-        <v>31.83</v>
+        <v>32.12</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03127567638187542</v>
+        <v>0.02876063441512934</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02658943881130216</v>
+        <v>0.0246207829099551</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1352631578947369</v>
+        <v>0.1318607074029875</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08756756756756758</v>
+        <v>0.08376171231087089</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2112121212121212</v>
+        <v>0.2011843864845102</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1845945945945946</v>
+        <v>0.1777300159005155</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_threat_per_match</t>
+          <t>count_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.09417251461988305</v>
+        <v>6.170626898214217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07209158803106172</v>
+        <v>4.72263643850388</v>
       </c>
       <c r="D51" t="n">
-        <v>30.63</v>
+        <v>30.66</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04443272246543032</v>
+        <v>0.3125124285698141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01751926530229367</v>
+        <v>0.797692643028729</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04815789473684211</v>
+        <v>5.678993634758915</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04611111111111111</v>
+        <v>3.416996530099786</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1563157894736842</v>
+        <v>6.548355192717433</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1166666666666667</v>
+        <v>6.691547437760176</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_received_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6.410127591706539</v>
+        <v>1.154842370301245</v>
       </c>
       <c r="C52" t="n">
-        <v>4.920358627262652</v>
+        <v>0.887418153822037</v>
       </c>
       <c r="D52" t="n">
-        <v>30.28</v>
+        <v>30.14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3355875639791827</v>
+        <v>0.3805625478361014</v>
       </c>
       <c r="F52" t="n">
-        <v>0.905050512448931</v>
+        <v>0.261872879250975</v>
       </c>
       <c r="G52" t="n">
-        <v>5.894736842105263</v>
+        <v>0.7853253286861722</v>
       </c>
       <c r="H52" t="n">
-        <v>3.115384615384615</v>
+        <v>0.4963446359878012</v>
       </c>
       <c r="I52" t="n">
-        <v>6.833333333333333</v>
+        <v>1.792306653793551</v>
       </c>
       <c r="J52" t="n">
-        <v>7.026315789473684</v>
+        <v>1.448928168964767</v>
       </c>
     </row>
     <row r="53">
@@ -2221,65 +2221,65 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.582775119617225</v>
+        <v>1.521321949069195</v>
       </c>
       <c r="C53" t="n">
-        <v>1.215709415910655</v>
+        <v>1.173290411248746</v>
       </c>
       <c r="D53" t="n">
-        <v>30.19</v>
+        <v>29.66</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7297789631248081</v>
+        <v>0.7061422814919892</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3288077562611461</v>
+        <v>0.317903193366749</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.7063144764421444</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6330007236425181</v>
       </c>
       <c r="I53" t="n">
-        <v>2.657894736842105</v>
+        <v>2.586013155928526</v>
       </c>
       <c r="J53" t="n">
-        <v>1.888888888888889</v>
+        <v>1.833259401697616</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.196225412014886</v>
+        <v>0.09087254116430184</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9238686446116787</v>
+        <v>0.07057865908748316</v>
       </c>
       <c r="D54" t="n">
-        <v>29.48</v>
+        <v>28.75</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4053155069910093</v>
+        <v>0.0431177556036255</v>
       </c>
       <c r="F54" t="n">
-        <v>0.275707810489284</v>
+        <v>0.01813333465053433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.04761440824780126</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.04367911465564307</v>
       </c>
       <c r="I54" t="n">
-        <v>1.868421052631579</v>
+        <v>0.1527341266836293</v>
       </c>
       <c r="J54" t="n">
-        <v>1.526315789473684</v>
+        <v>0.1128897480288905</v>
       </c>
     </row>
     <row r="55">
@@ -2289,31 +2289,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.09574667729930889</v>
+        <v>0.09187676484943963</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07476384818969957</v>
+        <v>0.07177911392124715</v>
       </c>
       <c r="D55" t="n">
-        <v>28.07</v>
+        <v>28</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02605573045293509</v>
+        <v>0.02465444199277402</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01480967083500978</v>
+        <v>0.01414282402616994</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06157894736842105</v>
+        <v>0.06010963251310321</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04884615384615384</v>
+        <v>0.04740889077970235</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1339473684210526</v>
+        <v>0.1285114898374431</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1071052631578947</v>
+        <v>0.1019188677123628</v>
       </c>
     </row>
     <row r="56">
@@ -2323,65 +2323,65 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.255608718766614</v>
+        <v>1.204193670005233</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9850072331032084</v>
+        <v>0.9444578650354843</v>
       </c>
       <c r="D56" t="n">
-        <v>27.47</v>
+        <v>27.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3482246429293444</v>
+        <v>0.3208945055326123</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2643125223889809</v>
+        <v>0.2559585961904097</v>
       </c>
       <c r="G56" t="n">
-        <v>0.868421052631579</v>
+        <v>0.8537516803542399</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4768505595821581</v>
       </c>
       <c r="I56" t="n">
-        <v>1.757575757575758</v>
+        <v>1.673141479264647</v>
       </c>
       <c r="J56" t="n">
-        <v>1.459459459459459</v>
+        <v>1.410002060467914</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>runs_in_behind_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.888755980861244</v>
+        <v>0.3432604689504118</v>
       </c>
       <c r="C57" t="n">
-        <v>2.288609123361446</v>
+        <v>0.2721347134289311</v>
       </c>
       <c r="D57" t="n">
-        <v>26.22</v>
+        <v>26.14</v>
       </c>
       <c r="E57" t="n">
-        <v>0.599646850143074</v>
+        <v>0.04745584730108311</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5616363276511405</v>
+        <v>0.04372552650677546</v>
       </c>
       <c r="G57" t="n">
-        <v>2.184210526315789</v>
+        <v>0.3022640946492576</v>
       </c>
       <c r="H57" t="n">
-        <v>1.6</v>
+        <v>0.214900361179901</v>
       </c>
       <c r="I57" t="n">
-        <v>3.606060606060606</v>
+        <v>0.4176591627752634</v>
       </c>
       <c r="J57" t="n">
-        <v>3.378378378378379</v>
+        <v>0.3598940416935296</v>
       </c>
     </row>
     <row r="58">
@@ -2391,167 +2391,167 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.641919191919192</v>
+        <v>4.468992050480255</v>
       </c>
       <c r="C58" t="n">
-        <v>3.681713495041669</v>
+        <v>3.544898529189624</v>
       </c>
       <c r="D58" t="n">
-        <v>26.08</v>
+        <v>26.07</v>
       </c>
       <c r="E58" t="n">
-        <v>1.960578610630171</v>
+        <v>1.876250553969914</v>
       </c>
       <c r="F58" t="n">
-        <v>1.000767124053782</v>
+        <v>0.9453133444086954</v>
       </c>
       <c r="G58" t="n">
-        <v>2.552631578947369</v>
+        <v>2.505200784539312</v>
       </c>
       <c r="H58" t="n">
-        <v>2.388888888888889</v>
+        <v>2.29411188558726</v>
       </c>
       <c r="I58" t="n">
-        <v>6.947368421052632</v>
+        <v>6.745670755340224</v>
       </c>
       <c r="J58" t="n">
-        <v>6.083333333333333</v>
+        <v>5.853743429737368</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3566004784688995</v>
+        <v>2.773196641783158</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2834167920088973</v>
+        <v>2.200243526452505</v>
       </c>
       <c r="D59" t="n">
-        <v>25.82</v>
+        <v>26.04</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05298306553535625</v>
+        <v>0.5524295354242883</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04672825205031983</v>
+        <v>0.5293451578111593</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3081578947368421</v>
+        <v>2.126961115341663</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2146153846153846</v>
+        <v>1.533438025695736</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4384848484848485</v>
+        <v>3.43477849444528</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3766666666666667</v>
+        <v>3.260793531700628</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_received_per_match</t>
+          <t>pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.189101541733121</v>
+        <v>0.04759744056588474</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9528868323295566</v>
+        <v>0.0379529021051246</v>
       </c>
       <c r="D60" t="n">
-        <v>24.79</v>
+        <v>25.41</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2435323081993671</v>
+        <v>0.008961305815154594</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2400878738984165</v>
+        <v>0.007673503334154931</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.03543104625070376</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.01839282400628939</v>
       </c>
       <c r="I60" t="n">
-        <v>1.578947368421053</v>
+        <v>0.05749278906834946</v>
       </c>
       <c r="J60" t="n">
-        <v>1.473684210526316</v>
+        <v>0.04722662859561707</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_threat_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.04955927698032962</v>
+        <v>15.89614297693597</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03972757239599345</v>
+        <v>12.74637692849596</v>
       </c>
       <c r="D61" t="n">
-        <v>24.75</v>
+        <v>24.71</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00909323301329319</v>
+        <v>0.9874434010390786</v>
       </c>
       <c r="F61" t="n">
-        <v>0.008189542166967089</v>
+        <v>1.885919256598078</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03722222222222223</v>
+        <v>14.49101287120651</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01884615384615385</v>
+        <v>9.248150955689313</v>
       </c>
       <c r="I61" t="n">
-        <v>0.05973684210526316</v>
+        <v>17.19006695567527</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04944444444444444</v>
+        <v>16.58498266887803</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>count_dangerous_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16.50730994152047</v>
+        <v>1.139388145442744</v>
       </c>
       <c r="C62" t="n">
-        <v>13.28756810632972</v>
+        <v>0.9151287636239284</v>
       </c>
       <c r="D62" t="n">
-        <v>24.23</v>
+        <v>24.51</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9806781722398074</v>
+        <v>0.2332964283410714</v>
       </c>
       <c r="F62" t="n">
-        <v>2.108957235659546</v>
+        <v>0.2284056672517876</v>
       </c>
       <c r="G62" t="n">
-        <v>15</v>
+        <v>0.9125794266940361</v>
       </c>
       <c r="H62" t="n">
-        <v>9.076923076923077</v>
+        <v>0.6140439781083161</v>
       </c>
       <c r="I62" t="n">
-        <v>17.60526315789474</v>
+        <v>1.516448556088234</v>
       </c>
       <c r="J62" t="n">
-        <v>17.47368421052632</v>
+        <v>1.391535927984515</v>
       </c>
     </row>
     <row r="63">
@@ -2561,31 +2561,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6.239845826687932</v>
+        <v>5.993328809024556</v>
       </c>
       <c r="C63" t="n">
-        <v>5.047901122127127</v>
+        <v>4.837484708812751</v>
       </c>
       <c r="D63" t="n">
-        <v>23.61</v>
+        <v>23.89</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8935879445626359</v>
+        <v>0.8049700740127665</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8796322548198012</v>
+        <v>0.8089740453157436</v>
       </c>
       <c r="G63" t="n">
-        <v>5.277777777777778</v>
+        <v>5.09838942732597</v>
       </c>
       <c r="H63" t="n">
-        <v>3.307692307692307</v>
+        <v>3.352592019149504</v>
       </c>
       <c r="I63" t="n">
-        <v>7.636363636363637</v>
+        <v>7.271202523701911</v>
       </c>
       <c r="J63" t="n">
-        <v>6.702702702702703</v>
+        <v>6.434932547445674</v>
       </c>
     </row>
     <row r="64">
@@ -2595,133 +2595,133 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.138649654439128</v>
+        <v>2.055600500605792</v>
       </c>
       <c r="C64" t="n">
-        <v>1.731347036997192</v>
+        <v>1.660959256644355</v>
       </c>
       <c r="D64" t="n">
-        <v>23.53</v>
+        <v>23.76</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3744843931648684</v>
+        <v>0.3470776902110138</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3421183628812165</v>
+        <v>0.3153051998304387</v>
       </c>
       <c r="G64" t="n">
-        <v>1.583333333333333</v>
+        <v>1.528313415207905</v>
       </c>
       <c r="H64" t="n">
-        <v>1.085714285714286</v>
+        <v>1.037496672202047</v>
       </c>
       <c r="I64" t="n">
-        <v>2.527777777777778</v>
+        <v>2.415798534306908</v>
       </c>
       <c r="J64" t="n">
-        <v>2.541666666666667</v>
+        <v>2.418392499065282</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
+          <t>count_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1676294524189261</v>
+        <v>6.912355493815058</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1360603000220647</v>
+        <v>5.59756998739169</v>
       </c>
       <c r="D65" t="n">
-        <v>23.2</v>
+        <v>23.49</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03816570003531523</v>
+        <v>0.3558366287894102</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0226078902623752</v>
+        <v>0.8411604364706388</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1244736842105263</v>
+        <v>6.345159741545655</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09142857142857143</v>
+        <v>3.977142041071912</v>
       </c>
       <c r="I65" t="n">
-        <v>0.213030303030303</v>
+        <v>7.28826767881225</v>
       </c>
       <c r="J65" t="n">
-        <v>0.18125</v>
+        <v>7.515093069057348</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_targeted_per_match</t>
+          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.180834662413609</v>
+        <v>0.1610921913038774</v>
       </c>
       <c r="C66" t="n">
-        <v>5.836044203118507</v>
+        <v>0.1305909823640489</v>
       </c>
       <c r="D66" t="n">
-        <v>23.04</v>
+        <v>23.36</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3890575492131784</v>
+        <v>0.03565912843783754</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9626624363982835</v>
+        <v>0.02080963977202202</v>
       </c>
       <c r="G66" t="n">
-        <v>6.578947368421052</v>
+        <v>0.1218552674065964</v>
       </c>
       <c r="H66" t="n">
-        <v>3.692307692307693</v>
+        <v>0.0874668208769183</v>
       </c>
       <c r="I66" t="n">
-        <v>7.611111111111111</v>
+        <v>0.2025620978389705</v>
       </c>
       <c r="J66" t="n">
-        <v>7.894736842105263</v>
+        <v>0.1740119368697102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
+          <t>pulling_wide_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.01818132472496091</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0137468671679198</v>
+        <v>0.0147781099376438</v>
       </c>
       <c r="D67" t="n">
-        <v>22.79</v>
+        <v>23.03</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.002726329341747828</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02129033999860699</v>
+        <v>0.003204891757824396</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.01372142925104794</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.007103267717395765</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02073250964954751</v>
       </c>
       <c r="J67" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.02071955374038765</v>
       </c>
     </row>
     <row r="68">
@@ -2731,201 +2731,201 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6.110021265284423</v>
+        <v>5.871545856660182</v>
       </c>
       <c r="C68" t="n">
-        <v>4.982115691542936</v>
+        <v>4.795293948894318</v>
       </c>
       <c r="D68" t="n">
-        <v>22.64</v>
+        <v>22.44</v>
       </c>
       <c r="E68" t="n">
-        <v>0.917109540192699</v>
+        <v>0.8211755920154995</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9447104675515823</v>
+        <v>0.8968767368228516</v>
       </c>
       <c r="G68" t="n">
-        <v>4.973684210526316</v>
+        <v>4.857102389375071</v>
       </c>
       <c r="H68" t="n">
-        <v>3.8</v>
+        <v>3.643522087985187</v>
       </c>
       <c r="I68" t="n">
-        <v>7.303030303030303</v>
+        <v>6.951858984870129</v>
       </c>
       <c r="J68" t="n">
-        <v>6.416666666666667</v>
+        <v>6.117839858321168</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_targeted_threat_per_match</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01890988835725678</v>
+        <v>2.134464708927852</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01551567903936325</v>
+        <v>1.756360019721728</v>
       </c>
       <c r="D69" t="n">
-        <v>21.88</v>
+        <v>21.53</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002917068769765296</v>
+        <v>0.414946940868748</v>
       </c>
       <c r="F69" t="n">
-        <v>0.003444434915298458</v>
+        <v>0.3560372178758435</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01416666666666667</v>
+        <v>1.554292041877863</v>
       </c>
       <c r="H69" t="n">
-        <v>0.007307692307692308</v>
+        <v>1.197890501875782</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02131578947368421</v>
+        <v>2.609407436007097</v>
       </c>
       <c r="J69" t="n">
-        <v>0.02171428571428571</v>
+        <v>2.604840563508638</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
+          <t>count_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.07256778309409888</v>
+        <v>0.1639629110800871</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09229862410976962</v>
+        <v>0.1359389508296633</v>
       </c>
       <c r="D70" t="n">
-        <v>-21.38</v>
+        <v>20.62</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04340490091569245</v>
+        <v>0.07459502679918123</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06334011890589335</v>
+        <v>0.06847686478065917</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.05284408831775845</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.2340801293345636</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2637094138454423</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.235406698564593</v>
+        <v>0.08060965630112081</v>
       </c>
       <c r="C71" t="n">
-        <v>1.842267847577445</v>
+        <v>0.06694444744929279</v>
       </c>
       <c r="D71" t="n">
-        <v>21.34</v>
+        <v>20.41</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4477579669314877</v>
+        <v>0.009009958464660487</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3836469191037405</v>
+        <v>0.01265138149786899</v>
       </c>
       <c r="G71" t="n">
-        <v>1.605263157894737</v>
+        <v>0.06873201645518255</v>
       </c>
       <c r="H71" t="n">
-        <v>1.230769230769231</v>
+        <v>0.04676966382880717</v>
       </c>
       <c r="I71" t="n">
-        <v>2.75</v>
+        <v>0.09110685200583868</v>
       </c>
       <c r="J71" t="n">
-        <v>2.763157894736842</v>
+        <v>0.08492421096505991</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_threat_per_match</t>
+          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08378389154704943</v>
+        <v>0.2242499104351012</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0699325293670495</v>
+        <v>0.1869038292600075</v>
       </c>
       <c r="D72" t="n">
-        <v>19.81</v>
+        <v>19.98</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01001177584713044</v>
+        <v>0.04061615549619277</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01405253013233697</v>
+        <v>0.02338277786551628</v>
       </c>
       <c r="G72" t="n">
-        <v>0.07138888888888889</v>
+        <v>0.1804808295899445</v>
       </c>
       <c r="H72" t="n">
-        <v>0.045</v>
+        <v>0.1311880565563185</v>
       </c>
       <c r="I72" t="n">
-        <v>0.095</v>
+        <v>0.2662192208185992</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08914285714285715</v>
+        <v>0.228487791565791</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2331557682083998</v>
+        <v>2.986230833831203</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1946773425383332</v>
+        <v>2.489326001510335</v>
       </c>
       <c r="D73" t="n">
-        <v>19.77</v>
+        <v>19.96</v>
       </c>
       <c r="E73" t="n">
-        <v>0.04330980463800206</v>
+        <v>0.4576834227992162</v>
       </c>
       <c r="F73" t="n">
-        <v>0.02587580795435582</v>
+        <v>0.3482169118372642</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1876315789473684</v>
+        <v>2.375636380599106</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1368571428571429</v>
+        <v>1.666183432581462</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2796969696969697</v>
+        <v>3.594959271734556</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2410526315789474</v>
+        <v>3.20018450030396</v>
       </c>
     </row>
     <row r="74">
@@ -2935,167 +2935,167 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.875784157363105</v>
+        <v>9.506829432551683</v>
       </c>
       <c r="C74" t="n">
-        <v>8.250683478020939</v>
+        <v>7.929762907964427</v>
       </c>
       <c r="D74" t="n">
-        <v>19.7</v>
+        <v>19.89</v>
       </c>
       <c r="E74" t="n">
-        <v>2.318992032277905</v>
+        <v>2.178880100369389</v>
       </c>
       <c r="F74" t="n">
-        <v>1.317922039113902</v>
+        <v>1.266365965126013</v>
       </c>
       <c r="G74" t="n">
-        <v>6.842105263157895</v>
+        <v>6.689407585076999</v>
       </c>
       <c r="H74" t="n">
-        <v>5.647058823529412</v>
+        <v>5.34711548424792</v>
       </c>
       <c r="I74" t="n">
-        <v>12.42424242424242</v>
+        <v>11.84196381921667</v>
       </c>
       <c r="J74" t="n">
-        <v>10.26315789473684</v>
+        <v>9.771466441987558</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.101887293992557</v>
+        <v>0.01628943236514609</v>
       </c>
       <c r="C75" t="n">
-        <v>2.591828157725991</v>
+        <v>0.01360447845745598</v>
       </c>
       <c r="D75" t="n">
-        <v>19.68</v>
+        <v>19.74</v>
       </c>
       <c r="E75" t="n">
-        <v>0.496537503922399</v>
+        <v>0.0148846001233821</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3806821816503352</v>
+        <v>0.02061495642448809</v>
       </c>
       <c r="G75" t="n">
-        <v>2.444444444444445</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1.742857142857143</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3.75</v>
+        <v>0.02821248515317969</v>
       </c>
       <c r="J75" t="n">
-        <v>3.375</v>
+        <v>0.05204361499839711</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>12.32400318979267</v>
+        <v>1.997609769774547</v>
       </c>
       <c r="C76" t="n">
-        <v>10.30823643566678</v>
+        <v>1.670001336401865</v>
       </c>
       <c r="D76" t="n">
-        <v>19.55</v>
+        <v>19.62</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8837352411906336</v>
+        <v>0.3847755595936632</v>
       </c>
       <c r="F76" t="n">
-        <v>1.355567944041469</v>
+        <v>0.360007139832287</v>
       </c>
       <c r="G76" t="n">
-        <v>11.11111111111111</v>
+        <v>1.503756559784842</v>
       </c>
       <c r="H76" t="n">
-        <v>8.028571428571428</v>
+        <v>1.16165123574508</v>
       </c>
       <c r="I76" t="n">
-        <v>13.21212121212121</v>
+        <v>2.452454518768994</v>
       </c>
       <c r="J76" t="n">
-        <v>13.75</v>
+        <v>2.532576527082218</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.090855927698033</v>
+        <v>11.86896157170092</v>
       </c>
       <c r="C77" t="n">
-        <v>1.751288042712191</v>
+        <v>9.926183516734417</v>
       </c>
       <c r="D77" t="n">
-        <v>19.39</v>
+        <v>19.57</v>
       </c>
       <c r="E77" t="n">
-        <v>0.413701985239544</v>
+        <v>0.7437551099917231</v>
       </c>
       <c r="F77" t="n">
-        <v>0.386799156805913</v>
+        <v>1.299578324480769</v>
       </c>
       <c r="G77" t="n">
-        <v>1.552631578947368</v>
+        <v>10.75077940261755</v>
       </c>
       <c r="H77" t="n">
-        <v>1.192307692307692</v>
+        <v>7.705478153359236</v>
       </c>
       <c r="I77" t="n">
-        <v>2.583333333333333</v>
+        <v>12.56573160522229</v>
       </c>
       <c r="J77" t="n">
-        <v>2.684210526315789</v>
+        <v>13.19248858787666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1699893673577884</v>
+        <v>0.07082906910159907</v>
       </c>
       <c r="C78" t="n">
-        <v>0.14296735053701</v>
+        <v>0.08698856266941211</v>
       </c>
       <c r="D78" t="n">
-        <v>18.9</v>
+        <v>-18.58</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07606055979778513</v>
+        <v>0.04138669392306477</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07324221242898331</v>
+        <v>0.05945608766248017</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.02628756493028538</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.1340442271341148</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1902045745991937</v>
       </c>
     </row>
     <row r="79">
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1237913343965975</v>
+        <v>0.1189156887041357</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1047038671832789</v>
+        <v>0.1007683487235968</v>
       </c>
       <c r="D79" t="n">
-        <v>18.23</v>
+        <v>18.01</v>
       </c>
       <c r="E79" t="n">
-        <v>0.02474833020498814</v>
+        <v>0.02324750665905867</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02077817289991378</v>
+        <v>0.01956742098351827</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0886842105263158</v>
+        <v>0.08650160797243189</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0673076923076923</v>
+        <v>0.06835659076777609</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1573684210526316</v>
+        <v>0.1512573711438195</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1407894736842105</v>
+        <v>0.1335385915731321</v>
       </c>
     </row>
     <row r="80">
@@ -3139,541 +3139,541 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.507123870281765</v>
+        <v>1.442774682177172</v>
       </c>
       <c r="C80" t="n">
-        <v>1.276747437227314</v>
+        <v>1.225087409632061</v>
       </c>
       <c r="D80" t="n">
-        <v>18.04</v>
+        <v>17.77</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4252830270411392</v>
+        <v>0.3929512317545779</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3072461484042395</v>
+        <v>0.2846524325407566</v>
       </c>
       <c r="G80" t="n">
-        <v>1.052631578947368</v>
+        <v>1.041434013058798</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8</v>
+        <v>0.7669741199014057</v>
       </c>
       <c r="I80" t="n">
-        <v>2.181818181818182</v>
+        <v>2.069931229101053</v>
       </c>
       <c r="J80" t="n">
-        <v>1.842105263157895</v>
+        <v>1.739855691656404</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1294790005316321</v>
+        <v>12.13997345781714</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1578801093816574</v>
+        <v>10.32703207258778</v>
       </c>
       <c r="D81" t="n">
-        <v>-17.99</v>
+        <v>17.56</v>
       </c>
       <c r="E81" t="n">
-        <v>0.06979015591657083</v>
+        <v>1.169663038171192</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09671950371610707</v>
+        <v>1.370530799267586</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05555555555555555</v>
+        <v>11.28200055108467</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02777777777777778</v>
+        <v>7.429467517043275</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2424242424242424</v>
+        <v>13.98272840005297</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3055555555555556</v>
+        <v>12.72722789652197</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12.63383838383838</v>
+        <v>0.9903642623907553</v>
       </c>
       <c r="C82" t="n">
-        <v>10.76260943146392</v>
+        <v>0.84252054322365</v>
       </c>
       <c r="D82" t="n">
-        <v>17.39</v>
+        <v>17.55</v>
       </c>
       <c r="E82" t="n">
-        <v>1.337709592557119</v>
+        <v>0.1344767359414731</v>
       </c>
       <c r="F82" t="n">
-        <v>1.49567329482411</v>
+        <v>0.2821647494869357</v>
       </c>
       <c r="G82" t="n">
-        <v>11.60526315789474</v>
+        <v>0.7819798758669926</v>
       </c>
       <c r="H82" t="n">
-        <v>7.384615384615385</v>
+        <v>0.4721063378338871</v>
       </c>
       <c r="I82" t="n">
-        <v>14.6969696969697</v>
+        <v>1.122149525675173</v>
       </c>
       <c r="J82" t="n">
-        <v>13.33333333333333</v>
+        <v>1.426589067061377</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>cross_receiver_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.037533227006911</v>
+        <v>0.1553170296676029</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8840712118575895</v>
+        <v>0.1326728854918706</v>
       </c>
       <c r="D83" t="n">
-        <v>17.36</v>
+        <v>17.07</v>
       </c>
       <c r="E83" t="n">
-        <v>0.146835000062246</v>
+        <v>0.03718080440159688</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3053415926675488</v>
+        <v>0.03989652078377223</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.1121050121947905</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5</v>
+        <v>0.08437267368331915</v>
       </c>
       <c r="I83" t="n">
-        <v>1.181818181818182</v>
+        <v>0.1875458654198053</v>
       </c>
       <c r="J83" t="n">
-        <v>1.526315789473684</v>
+        <v>0.2182254234572542</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>cross_receiver_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.7050225943647</v>
+        <v>0.429920375487891</v>
       </c>
       <c r="C84" t="n">
-        <v>1.462017153725358</v>
+        <v>0.3695522654227328</v>
       </c>
       <c r="D84" t="n">
-        <v>16.62</v>
+        <v>16.34</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4962385762939048</v>
+        <v>0.1134604523241607</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3141324208423985</v>
+        <v>0.09526867325917995</v>
       </c>
       <c r="G84" t="n">
-        <v>1.243684210526316</v>
+        <v>0.2885896138476974</v>
       </c>
       <c r="H84" t="n">
-        <v>1.111538461538462</v>
+        <v>0.2283944861210866</v>
       </c>
       <c r="I84" t="n">
-        <v>2.473636363636364</v>
+        <v>0.5878932000895366</v>
       </c>
       <c r="J84" t="n">
-        <v>2.128421052631579</v>
+        <v>0.5634287345274089</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_received_threat_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1621257309941521</v>
+        <v>0.1245869055686216</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1391846416330936</v>
+        <v>0.1488412824631444</v>
       </c>
       <c r="D85" t="n">
-        <v>16.48</v>
+        <v>-16.3</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03976040766190991</v>
+        <v>0.06529452961568295</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04233066063748865</v>
+        <v>0.09113297581037898</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1147368421052632</v>
+        <v>0.05247105885571478</v>
       </c>
       <c r="H85" t="n">
-        <v>0.08730769230769231</v>
+        <v>0.02647379623648512</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1966666666666667</v>
+        <v>0.2289095620300661</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2323684210526316</v>
+        <v>0.2870370110961435</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17.22105263157895</v>
+        <v>1.636594990927314</v>
       </c>
       <c r="C86" t="n">
-        <v>14.79164368634957</v>
+        <v>1.407631110080107</v>
       </c>
       <c r="D86" t="n">
-        <v>16.42</v>
+        <v>16.27</v>
       </c>
       <c r="E86" t="n">
-        <v>2.254802005360134</v>
+        <v>0.4605654783109151</v>
       </c>
       <c r="F86" t="n">
-        <v>1.708350787195889</v>
+        <v>0.2949628386851051</v>
       </c>
       <c r="G86" t="n">
-        <v>14.36111111111111</v>
+        <v>1.19059826575767</v>
       </c>
       <c r="H86" t="n">
-        <v>12.38235294117647</v>
+        <v>1.086394757324859</v>
       </c>
       <c r="I86" t="n">
-        <v>19.66666666666667</v>
+        <v>2.347067743290391</v>
       </c>
       <c r="J86" t="n">
-        <v>17.5</v>
+        <v>2.012037399123712</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4489463051568315</v>
+        <v>16.52573223175686</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3863205116064249</v>
+        <v>14.24183875839356</v>
       </c>
       <c r="D87" t="n">
-        <v>16.21</v>
+        <v>16.04</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1214326827953172</v>
+        <v>1.9962224391125</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1000294934885523</v>
+        <v>1.615514994323205</v>
       </c>
       <c r="G87" t="n">
-        <v>0.303421052631579</v>
+        <v>13.88393959510545</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2246153846153846</v>
+        <v>11.78366036892793</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6181818181818182</v>
+        <v>18.71227837063206</v>
       </c>
       <c r="J87" t="n">
-        <v>0.580857142857143</v>
+        <v>16.6909587526903</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>count_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>31.62565124933546</v>
+        <v>11.24406835220725</v>
       </c>
       <c r="C88" t="n">
-        <v>27.26498925353415</v>
+        <v>9.698917440834119</v>
       </c>
       <c r="D88" t="n">
-        <v>15.99</v>
+        <v>15.93</v>
       </c>
       <c r="E88" t="n">
-        <v>2.963694761078351</v>
+        <v>2.201373004905235</v>
       </c>
       <c r="F88" t="n">
-        <v>3.542640656042206</v>
+        <v>1.461392244824886</v>
       </c>
       <c r="G88" t="n">
-        <v>27.27777777777778</v>
+        <v>8.399293333668279</v>
       </c>
       <c r="H88" t="n">
-        <v>20.96153846153846</v>
+        <v>6.828765534454341</v>
       </c>
       <c r="I88" t="n">
-        <v>35.03030303030303</v>
+        <v>13.73824367895219</v>
       </c>
       <c r="J88" t="n">
-        <v>32.44736842105263</v>
+        <v>11.50051939899502</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_targeted_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5.709117490696437</v>
+        <v>30.36934783114922</v>
       </c>
       <c r="C89" t="n">
-        <v>4.925580761757232</v>
+        <v>26.19530178283713</v>
       </c>
       <c r="D89" t="n">
-        <v>15.91</v>
+        <v>15.93</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8538214324451984</v>
+        <v>2.61057414084441</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8709686430457627</v>
+        <v>3.172050526879225</v>
       </c>
       <c r="G89" t="n">
-        <v>4.842105263157895</v>
+        <v>26.34650423369379</v>
       </c>
       <c r="H89" t="n">
-        <v>3.269230769230769</v>
+        <v>21.75480803476035</v>
       </c>
       <c r="I89" t="n">
-        <v>6.757575757575758</v>
+        <v>33.31662786083292</v>
       </c>
       <c r="J89" t="n">
-        <v>6.657142857142857</v>
+        <v>30.74600160963821</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>count_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.678229665071771</v>
+        <v>5.466719716955685</v>
       </c>
       <c r="C90" t="n">
-        <v>1.448975451994028</v>
+        <v>4.721116113298707</v>
       </c>
       <c r="D90" t="n">
-        <v>15.82</v>
+        <v>15.79</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2268988782847069</v>
+        <v>0.7691865282677497</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3666752740393601</v>
+        <v>0.8144552563263211</v>
       </c>
       <c r="G90" t="n">
-        <v>1.394736842105263</v>
+        <v>4.604933289974453</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8378378378378378</v>
+        <v>3.400634903001282</v>
       </c>
       <c r="I90" t="n">
-        <v>1.973684210526316</v>
+        <v>6.42363250348817</v>
       </c>
       <c r="J90" t="n">
-        <v>2.078947368421053</v>
+        <v>6.471742316194189</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_targeted_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>11.66584263689527</v>
+        <v>5.250128805965302</v>
       </c>
       <c r="C91" t="n">
-        <v>10.074850582219</v>
+        <v>4.545116118864823</v>
       </c>
       <c r="D91" t="n">
-        <v>15.79</v>
+        <v>15.51</v>
       </c>
       <c r="E91" t="n">
-        <v>2.369260787033432</v>
+        <v>0.794444141664803</v>
       </c>
       <c r="F91" t="n">
-        <v>1.53249386062638</v>
+        <v>0.8342810834511413</v>
       </c>
       <c r="G91" t="n">
-        <v>8.578947368421053</v>
+        <v>4.280153486758913</v>
       </c>
       <c r="H91" t="n">
-        <v>7.205882352941177</v>
+        <v>3.292288648932829</v>
       </c>
       <c r="I91" t="n">
-        <v>14.42424242424242</v>
+        <v>6.250833384029931</v>
       </c>
       <c r="J91" t="n">
-        <v>12.10526315789474</v>
+        <v>6.308760679903993</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5.483280170122276</v>
+        <v>0.968690612033025</v>
       </c>
       <c r="C92" t="n">
-        <v>4.740559079134931</v>
+        <v>0.838778998473407</v>
       </c>
       <c r="D92" t="n">
-        <v>15.67</v>
+        <v>15.49</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8713497649369731</v>
+        <v>0.08935280028869695</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8882573413097274</v>
+        <v>0.08801241596319437</v>
       </c>
       <c r="G92" t="n">
-        <v>4.5</v>
+        <v>0.833069017176724</v>
       </c>
       <c r="H92" t="n">
-        <v>3.153846153846154</v>
+        <v>0.7093007702253162</v>
       </c>
       <c r="I92" t="n">
-        <v>6.575757575757576</v>
+        <v>1.080756638782144</v>
       </c>
       <c r="J92" t="n">
-        <v>6.485714285714286</v>
+        <v>0.9944149338126039</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.00769750132908</v>
+        <v>0.7734654838614726</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8717483937191367</v>
+        <v>0.6699194641757533</v>
       </c>
       <c r="D93" t="n">
-        <v>15.59</v>
+        <v>15.46</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1015630193224277</v>
+        <v>0.0807021363550318</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09570126441447321</v>
+        <v>0.06747735490230022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8591666666666666</v>
+        <v>0.6799993835650562</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7421621621621621</v>
+        <v>0.5369001728653701</v>
       </c>
       <c r="I93" t="n">
-        <v>1.136060606060606</v>
+        <v>0.8718094657833482</v>
       </c>
       <c r="J93" t="n">
-        <v>1.039722222222222</v>
+        <v>0.8271021050081263</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.8037418926103136</v>
+        <v>9.727884683587922</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6963516913470473</v>
+        <v>8.433328826742052</v>
       </c>
       <c r="D94" t="n">
-        <v>15.42</v>
+        <v>15.35</v>
       </c>
       <c r="E94" t="n">
-        <v>0.09090443698623195</v>
+        <v>1.550471249253113</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07029692593857022</v>
+        <v>1.519699244782897</v>
       </c>
       <c r="G94" t="n">
-        <v>0.695</v>
+        <v>8.435467926008876</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5602857142857143</v>
+        <v>5.08170545637613</v>
       </c>
       <c r="I94" t="n">
-        <v>0.916969696969697</v>
+        <v>12.10368402178029</v>
       </c>
       <c r="J94" t="n">
-        <v>0.8616666666666667</v>
+        <v>10.79927612233426</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>10.09973418394471</v>
+        <v>1.609017528484595</v>
       </c>
       <c r="C95" t="n">
-        <v>8.777814870461928</v>
+        <v>1.396382160292914</v>
       </c>
       <c r="D95" t="n">
-        <v>15.06</v>
+        <v>15.23</v>
       </c>
       <c r="E95" t="n">
-        <v>1.652656525949877</v>
+        <v>0.2187799407823558</v>
       </c>
       <c r="F95" t="n">
-        <v>1.636870515996686</v>
+        <v>0.3441699141313372</v>
       </c>
       <c r="G95" t="n">
-        <v>8.878787878787879</v>
+        <v>1.340701511407943</v>
       </c>
       <c r="H95" t="n">
-        <v>5.382352941176471</v>
+        <v>0.8205518689086946</v>
       </c>
       <c r="I95" t="n">
-        <v>12.63888888888889</v>
+        <v>1.913119750584385</v>
       </c>
       <c r="J95" t="n">
-        <v>11.22857142857143</v>
+        <v>1.960882512075069</v>
       </c>
     </row>
     <row r="96">
@@ -3683,31 +3683,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>14.19114832535885</v>
+        <v>13.62036322947546</v>
       </c>
       <c r="C96" t="n">
-        <v>12.36036894087977</v>
+        <v>11.85626465348578</v>
       </c>
       <c r="D96" t="n">
-        <v>14.81</v>
+        <v>14.88</v>
       </c>
       <c r="E96" t="n">
-        <v>4.018394239888528</v>
+        <v>3.764791401882136</v>
       </c>
       <c r="F96" t="n">
-        <v>1.750690583343344</v>
+        <v>1.653723423463825</v>
       </c>
       <c r="G96" t="n">
-        <v>8.789473684210526</v>
+        <v>8.580370054820952</v>
       </c>
       <c r="H96" t="n">
-        <v>8.828571428571429</v>
+        <v>8.443269275326909</v>
       </c>
       <c r="I96" t="n">
-        <v>19.6969696969697</v>
+        <v>18.73897628330957</v>
       </c>
       <c r="J96" t="n">
-        <v>15.97368421052632</v>
+        <v>15.1287150595785</v>
       </c>
     </row>
     <row r="97">
@@ -3717,31 +3717,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>21.77347155768209</v>
+        <v>20.89685451355929</v>
       </c>
       <c r="C97" t="n">
-        <v>19.16856160791145</v>
+        <v>18.44935464751366</v>
       </c>
       <c r="D97" t="n">
-        <v>13.59</v>
+        <v>13.27</v>
       </c>
       <c r="E97" t="n">
-        <v>4.74374069321883</v>
+        <v>4.329507100311163</v>
       </c>
       <c r="F97" t="n">
-        <v>3.193278687912127</v>
+        <v>2.943620774500564</v>
       </c>
       <c r="G97" t="n">
-        <v>17</v>
+        <v>16.69229724536578</v>
       </c>
       <c r="H97" t="n">
-        <v>14.30769230769231</v>
+        <v>14.95975763350995</v>
       </c>
       <c r="I97" t="n">
-        <v>28.3030303030303</v>
+        <v>26.84090223479501</v>
       </c>
       <c r="J97" t="n">
-        <v>24.68421052631579</v>
+        <v>23.78104607955274</v>
       </c>
     </row>
     <row r="98">
@@ -3751,31 +3751,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20.90313662945242</v>
+        <v>20.06060708515005</v>
       </c>
       <c r="C98" t="n">
-        <v>18.50066851085427</v>
+        <v>17.8141850819556</v>
       </c>
       <c r="D98" t="n">
-        <v>12.99</v>
+        <v>12.61</v>
       </c>
       <c r="E98" t="n">
-        <v>4.622369856057999</v>
+        <v>4.229123555884525</v>
       </c>
       <c r="F98" t="n">
-        <v>3.156198708810297</v>
+        <v>2.925070604820172</v>
       </c>
       <c r="G98" t="n">
-        <v>16.52631578947368</v>
+        <v>16.20002651862291</v>
       </c>
       <c r="H98" t="n">
-        <v>13.96153846153846</v>
+        <v>14.60482338517726</v>
       </c>
       <c r="I98" t="n">
-        <v>27.36363636363636</v>
+        <v>25.9428042777847</v>
       </c>
       <c r="J98" t="n">
-        <v>24.13157894736842</v>
+        <v>23.27913422739252</v>
       </c>
     </row>
     <row r="99">
@@ -3785,31 +3785,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7.109383306751728</v>
+        <v>6.847325808988964</v>
       </c>
       <c r="C99" t="n">
-        <v>6.385488865179268</v>
+        <v>6.140536181710423</v>
       </c>
       <c r="D99" t="n">
-        <v>11.34</v>
+        <v>11.51</v>
       </c>
       <c r="E99" t="n">
-        <v>1.161674334033671</v>
+        <v>1.050006681605881</v>
       </c>
       <c r="F99" t="n">
-        <v>1.009981621475412</v>
+        <v>0.9343342233849901</v>
       </c>
       <c r="G99" t="n">
-        <v>5.894736842105263</v>
+        <v>5.776266641393169</v>
       </c>
       <c r="H99" t="n">
-        <v>4.945945945945946</v>
+        <v>4.775340277403402</v>
       </c>
       <c r="I99" t="n">
-        <v>8.878787878787879</v>
+        <v>8.415627832033378</v>
       </c>
       <c r="J99" t="n">
-        <v>8.210526315789474</v>
+        <v>7.779306976232013</v>
       </c>
     </row>
     <row r="100">
@@ -3819,31 +3819,31 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>18.57286018075492</v>
+        <v>17.84102468674858</v>
       </c>
       <c r="C100" t="n">
-        <v>16.69035566015442</v>
+        <v>16.01928848889499</v>
       </c>
       <c r="D100" t="n">
-        <v>11.28</v>
+        <v>11.37</v>
       </c>
       <c r="E100" t="n">
-        <v>4.40752280950431</v>
+        <v>4.127227899170471</v>
       </c>
       <c r="F100" t="n">
-        <v>2.008154315611007</v>
+        <v>1.854741401571542</v>
       </c>
       <c r="G100" t="n">
-        <v>12.6578947368421</v>
+        <v>12.3236512875416</v>
       </c>
       <c r="H100" t="n">
-        <v>12.68571428571429</v>
+        <v>12.15034454298236</v>
       </c>
       <c r="I100" t="n">
-        <v>24.42424242424243</v>
+        <v>23.25168782893634</v>
       </c>
       <c r="J100" t="n">
-        <v>20.97368421052632</v>
+        <v>19.91130394002143</v>
       </c>
     </row>
     <row r="101">
@@ -3853,31 +3853,31 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.123365231259968</v>
+        <v>2.042195867555269</v>
       </c>
       <c r="C101" t="n">
-        <v>1.935329818301955</v>
+        <v>1.864201342324132</v>
       </c>
       <c r="D101" t="n">
-        <v>9.720000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5718593535152152</v>
+        <v>0.538985200913305</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4665973045974964</v>
+        <v>0.4426056188449422</v>
       </c>
       <c r="G101" t="n">
-        <v>1.526315789473684</v>
+        <v>1.499649542906151</v>
       </c>
       <c r="H101" t="n">
-        <v>1.235294117647059</v>
+        <v>1.167168829588944</v>
       </c>
       <c r="I101" t="n">
-        <v>2.888888888888889</v>
+        <v>2.774320284722772</v>
       </c>
       <c r="J101" t="n">
-        <v>2.777777777777778</v>
+        <v>2.698360109363927</v>
       </c>
     </row>
     <row r="102">
@@ -3887,53 +3887,53 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.4689072301967039</v>
+        <v>0.4517616021123228</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4296814723766736</v>
+        <v>0.4129964650244167</v>
       </c>
       <c r="D102" t="n">
-        <v>9.130000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07816800023539332</v>
+        <v>0.07108847940795043</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05757690205505529</v>
+        <v>0.05265444030960131</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3673684210526316</v>
+        <v>0.3602652161799531</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3353846153846154</v>
+        <v>0.3426314029289381</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5763636363636363</v>
+        <v>0.5473915066572964</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5281578947368422</v>
+        <v>0.4996906196092655</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.08191816228655774</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0183908233753435</v>
+        <v>0.0759208339118036</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.220000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.07750752430412254</v>
       </c>
       <c r="F103" t="n">
-        <v>0.02188008093373701</v>
+        <v>0.05133625284735908</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3942,282 +3942,282 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.2003924183550014</v>
       </c>
       <c r="J103" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.1622948402743459</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.08569909622541202</v>
+        <v>52.91194514049853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07942198279659579</v>
+        <v>49.06875375764716</v>
       </c>
       <c r="D104" t="n">
-        <v>7.9</v>
+        <v>7.83</v>
       </c>
       <c r="E104" t="n">
-        <v>0.08226499096699409</v>
+        <v>8.092668179399537</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05261543404094311</v>
+        <v>3.67438074553149</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>41.02335224051085</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>43.26737067931768</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2121212121212121</v>
+        <v>63.10520573260006</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1714285714285714</v>
+        <v>56.30525193958628</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_per_match</t>
+          <t>count_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>55.0334928229665</v>
+        <v>0.01165503626560365</v>
       </c>
       <c r="C105" t="n">
-        <v>51.07002133321019</v>
+        <v>0.01256661772446701</v>
       </c>
       <c r="D105" t="n">
-        <v>7.76</v>
+        <v>-7.25</v>
       </c>
       <c r="E105" t="n">
-        <v>8.842298859496832</v>
+        <v>0.02606145337011505</v>
       </c>
       <c r="F105" t="n">
-        <v>3.884576039861682</v>
+        <v>0.02009908204724337</v>
       </c>
       <c r="G105" t="n">
-        <v>42.02631578947368</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>45.17142857142857</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>66.27272727272727</v>
+        <v>0.05827518132801825</v>
       </c>
       <c r="J105" t="n">
-        <v>59.23684210526316</v>
+        <v>0.0557448782447859</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>35.92812333864966</v>
+        <v>0.01611433485633133</v>
       </c>
       <c r="C106" t="n">
-        <v>33.88332973380961</v>
+        <v>0.0172263170247704</v>
       </c>
       <c r="D106" t="n">
-        <v>6.03</v>
+        <v>-6.46</v>
       </c>
       <c r="E106" t="n">
-        <v>6.092410964248513</v>
+        <v>0.01478785581603344</v>
       </c>
       <c r="F106" t="n">
-        <v>3.635512848420735</v>
+        <v>0.02017895810841171</v>
       </c>
       <c r="G106" t="n">
-        <v>29.10526315789474</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>26.38461538461538</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>45.42424242424242</v>
+        <v>0.02929401425642027</v>
       </c>
       <c r="J106" t="n">
-        <v>39.44736842105263</v>
+        <v>0.07198130500332631</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_support_runs_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.563928761297182</v>
+        <v>34.6421396081079</v>
       </c>
       <c r="C107" t="n">
-        <v>2.435432190091633</v>
+        <v>32.57912662053393</v>
       </c>
       <c r="D107" t="n">
-        <v>5.28</v>
+        <v>6.33</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5922107746758827</v>
+        <v>5.553863075931305</v>
       </c>
       <c r="F107" t="n">
-        <v>0.512764894820873</v>
+        <v>3.36431003188047</v>
       </c>
       <c r="G107" t="n">
-        <v>1.921052631578947</v>
+        <v>28.57230204874585</v>
       </c>
       <c r="H107" t="n">
-        <v>1.617647058823529</v>
+        <v>27.02159185831414</v>
       </c>
       <c r="I107" t="n">
-        <v>3.305555555555555</v>
+        <v>43.28516924842263</v>
       </c>
       <c r="J107" t="n">
-        <v>3.25</v>
+        <v>37.37018790856444</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_goal_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.01212121212121212</v>
+        <v>2.462379496940735</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01272944771396784</v>
+        <v>2.343901617029437</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.78</v>
+        <v>5.05</v>
       </c>
       <c r="E108" t="n">
-        <v>0.02710385427272472</v>
+        <v>0.5594297971049859</v>
       </c>
       <c r="F108" t="n">
-        <v>0.02020246296458674</v>
+        <v>0.4808288470825753</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1.878444831212845</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1.52733525485109</v>
       </c>
       <c r="I108" t="n">
-        <v>0.06060606060606061</v>
+        <v>3.170769227204839</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05555555555555555</v>
+        <v>3.162172064420064</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_received_threat_per_match</t>
+          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01401382243487507</v>
+        <v>0.005231219920485457</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01350771071312867</v>
+        <v>0.004996831096541847</v>
       </c>
       <c r="D109" t="n">
-        <v>3.75</v>
+        <v>4.69</v>
       </c>
       <c r="E109" t="n">
-        <v>0.004733384544758218</v>
+        <v>0.01169736334745653</v>
       </c>
       <c r="F109" t="n">
-        <v>0.004369807069766409</v>
+        <v>0.01036221174774288</v>
       </c>
       <c r="G109" t="n">
-        <v>0.009210526315789475</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.006538461538461539</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02</v>
+        <v>0.02615609960242729</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.02664692820133235</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_targeted_threat_per_match</t>
+          <t>pulling_half_space_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.01896810207336523</v>
+        <v>0.01341648778650273</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01925051547822446</v>
+        <v>0.01290288797154427</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.47</v>
+        <v>3.98</v>
       </c>
       <c r="E110" t="n">
-        <v>0.004412256432500835</v>
+        <v>0.004470519546571248</v>
       </c>
       <c r="F110" t="n">
-        <v>0.005812319130930194</v>
+        <v>0.004118805869244659</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01444444444444445</v>
+        <v>0.009045068427678609</v>
       </c>
       <c r="H110" t="n">
-        <v>0.008857142857142857</v>
+        <v>0.006768807280631842</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02552631578947369</v>
+        <v>0.01922253739522824</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03138888888888889</v>
+        <v>0.02153284202716077</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>pulling_half_space_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.005555555555555555</v>
+        <v>0.01813120416911354</v>
       </c>
       <c r="C111" t="n">
-        <v>0.005510999721526037</v>
+        <v>0.01837210814493011</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8100000000000001</v>
+        <v>-1.31</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01242259987499883</v>
+        <v>0.004176318747762888</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01141704701484088</v>
+        <v>0.005496440073419792</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>0.01382213524992148</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>0.008668565342475528</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02446663154506534</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03018969747870595</v>
       </c>
     </row>
   </sheetData>
